--- a/sourcefiles/wbs/WBS작업분류체계표.xlsx
+++ b/sourcefiles/wbs/WBS작업분류체계표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="279">
   <si>
     <t>Gantt Chart</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1083,6 +1083,25 @@
   <si>
     <t>김우주</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박시설 리뷰처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviewInsert.do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 리뷰 삽입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>review.jsp</t>
   </si>
 </sst>
 </file>
@@ -1735,11 +1754,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2363,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IS87"/>
+  <dimension ref="A1:IS89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2645,10 +2664,10 @@
       <c r="D2" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="110"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -3630,7 +3649,7 @@
       <c r="L5" s="18">
         <v>1</v>
       </c>
-      <c r="M5" s="110"/>
+      <c r="M5" s="109"/>
       <c r="N5" s="96"/>
       <c r="O5" s="96"/>
       <c r="P5" s="24"/>
@@ -3909,7 +3928,7 @@
       <c r="L6" s="18">
         <v>1</v>
       </c>
-      <c r="M6" s="110"/>
+      <c r="M6" s="109"/>
       <c r="N6" s="95"/>
       <c r="O6" s="96"/>
       <c r="P6" s="24"/>
@@ -4188,7 +4207,7 @@
       <c r="L7" s="18">
         <v>1</v>
       </c>
-      <c r="M7" s="110"/>
+      <c r="M7" s="109"/>
       <c r="N7" s="96"/>
       <c r="O7" s="96"/>
       <c r="P7" s="24"/>
@@ -4467,7 +4486,7 @@
       <c r="L8" s="18">
         <v>1</v>
       </c>
-      <c r="M8" s="110"/>
+      <c r="M8" s="109"/>
       <c r="N8" s="96"/>
       <c r="O8" s="96"/>
       <c r="P8" s="24"/>
@@ -6391,11 +6410,11 @@
         <v>7</v>
       </c>
       <c r="G15" s="61">
-        <f>MIN(G16:G76)</f>
+        <f>MIN(G16:G78)</f>
         <v>45068</v>
       </c>
       <c r="H15" s="61">
-        <f>MAX(H16:H76)</f>
+        <f>MAX(H16:H78)</f>
         <v>45104</v>
       </c>
       <c r="I15" s="62">
@@ -6411,8 +6430,8 @@
         <v>45100</v>
       </c>
       <c r="L15" s="65">
-        <f>AVERAGE(L16:L76)</f>
-        <v>0.89582973828012635</v>
+        <f>AVERAGE(L16:L78)</f>
+        <v>0.89934920634920623</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="57"/>
@@ -7233,7 +7252,7 @@
         <v>223</v>
       </c>
       <c r="F18" s="14" t="str">
-        <f t="shared" ref="F18:F75" si="9">IF(L18=0%,"진행 전",IF(L18=100%,"완료","진행중"))</f>
+        <f t="shared" ref="F18:F77" si="9">IF(L18=0%,"진행 전",IF(L18=100%,"완료","진행중"))</f>
         <v>완료</v>
       </c>
       <c r="G18" s="22">
@@ -14370,15 +14389,15 @@
         <v>45103</v>
       </c>
       <c r="I52" s="15">
-        <f t="shared" ref="I52:I56" si="75">NETWORKDAYS(G52,H52)</f>
+        <f t="shared" ref="I52:I57" si="75">NETWORKDAYS(G52,H52)</f>
         <v>26</v>
       </c>
       <c r="J52" s="16">
-        <f t="shared" ref="J52:J56" si="76">H52-G52</f>
+        <f t="shared" ref="J52:J57" si="76">H52-G52</f>
         <v>35</v>
       </c>
       <c r="K52" s="17">
-        <f t="shared" ref="K52:K56" si="77">IF(L52=0,G52-1,G52+(INT(J52*L52)))</f>
+        <f t="shared" ref="K52:K57" si="77">IF(L52=0,G52-1,G52+(INT(J52*L52)))</f>
         <v>45103</v>
       </c>
       <c r="L52" s="18">
@@ -14575,134 +14594,134 @@
       <c r="AJ55" s="67"/>
       <c r="AK55" s="67"/>
     </row>
-    <row r="56" spans="1:37" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="82" t="s">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="14" t="str">
+        <f t="shared" ref="F56" si="82">IF(L56=0%,"진행 전",IF(L56=100%,"완료","진행중"))</f>
+        <v>완료</v>
+      </c>
+      <c r="G56" s="22">
+        <v>45076</v>
+      </c>
+      <c r="H56" s="22">
+        <v>45076</v>
+      </c>
+      <c r="I56" s="15">
+        <f t="shared" ref="I56" si="83">NETWORKDAYS(G56,H56)</f>
+        <v>1</v>
+      </c>
+      <c r="J56" s="16">
+        <f t="shared" ref="J56" si="84">H56-G56</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="17">
+        <f t="shared" ref="K56" si="85">IF(L56=0,G56-1,G56+(INT(J56*L56)))</f>
+        <v>45076</v>
+      </c>
+      <c r="L56" s="18">
+        <v>1</v>
+      </c>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="95"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="67"/>
+      <c r="AE56" s="67"/>
+      <c r="AF56" s="67"/>
+      <c r="AG56" s="67"/>
+      <c r="AH56" s="67"/>
+      <c r="AI56" s="67"/>
+      <c r="AJ56" s="67"/>
+      <c r="AK56" s="67"/>
+    </row>
+    <row r="57" spans="1:37" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83" t="s">
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="E56" s="84"/>
-      <c r="F56" s="93" t="str">
+      <c r="E57" s="84"/>
+      <c r="F57" s="93" t="str">
         <f t="shared" si="9"/>
         <v>진행중</v>
       </c>
-      <c r="G56" s="85">
+      <c r="G57" s="85">
         <v>45068</v>
       </c>
-      <c r="H56" s="85">
+      <c r="H57" s="85">
         <v>45103</v>
       </c>
-      <c r="I56" s="86">
+      <c r="I57" s="86">
         <f t="shared" si="75"/>
         <v>26</v>
       </c>
-      <c r="J56" s="87">
+      <c r="J57" s="87">
         <f t="shared" si="76"/>
         <v>35</v>
       </c>
-      <c r="K56" s="88">
+      <c r="K57" s="88">
         <f t="shared" si="77"/>
-        <v>45093</v>
-      </c>
-      <c r="L56" s="70">
-        <f>AVERAGE(L57:L75)</f>
-        <v>0.73228070175438598</v>
-      </c>
-      <c r="U56" s="94"/>
-      <c r="V56" s="94"/>
-      <c r="W56" s="94"/>
-      <c r="X56" s="94"/>
-      <c r="Y56" s="94"/>
-      <c r="Z56" s="94"/>
-      <c r="AA56" s="94"/>
-      <c r="AB56" s="94"/>
-      <c r="AC56" s="94"/>
-      <c r="AD56" s="94"/>
-      <c r="AE56" s="94"/>
-      <c r="AF56" s="94"/>
-      <c r="AG56" s="94"/>
-      <c r="AH56" s="94"/>
-      <c r="AI56" s="94"/>
-      <c r="AJ56" s="94"/>
-      <c r="AK56" s="94"/>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="F57" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v>진행중</v>
-      </c>
-      <c r="G57" s="22">
-        <v>45068</v>
-      </c>
-      <c r="H57" s="22">
-        <v>45103</v>
-      </c>
-      <c r="I57" s="15">
-        <f t="shared" ref="I57:I59" si="82">NETWORKDAYS(G57,H57)</f>
-        <v>26</v>
-      </c>
-      <c r="J57" s="16">
-        <f t="shared" ref="J57:J59" si="83">H57-G57</f>
-        <v>35</v>
-      </c>
-      <c r="K57" s="17">
-        <f t="shared" ref="K57:K59" si="84">IF(L57=0,G57-1,G57+(INT(J57*L57)))</f>
-        <v>45085</v>
-      </c>
-      <c r="L57" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="U57" s="67"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
-      <c r="AD57" s="67"/>
-      <c r="AE57" s="67"/>
-      <c r="AF57" s="67"/>
-      <c r="AG57" s="67"/>
-      <c r="AH57" s="67"/>
-      <c r="AI57" s="67"/>
-      <c r="AJ57" s="67"/>
-      <c r="AK57" s="67"/>
+        <v>45094</v>
+      </c>
+      <c r="L57" s="70">
+        <f>AVERAGE(L58:L77)</f>
+        <v>0.7456666666666667</v>
+      </c>
+      <c r="U57" s="94"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
+      <c r="X57" s="94"/>
+      <c r="Y57" s="94"/>
+      <c r="Z57" s="94"/>
+      <c r="AA57" s="94"/>
+      <c r="AB57" s="94"/>
+      <c r="AC57" s="94"/>
+      <c r="AD57" s="94"/>
+      <c r="AE57" s="94"/>
+      <c r="AF57" s="94"/>
+      <c r="AG57" s="94"/>
+      <c r="AH57" s="94"/>
+      <c r="AI57" s="94"/>
+      <c r="AJ57" s="94"/>
+      <c r="AK57" s="94"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F58" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>완료</v>
+        <v>진행중</v>
       </c>
       <c r="G58" s="22">
         <v>45068</v>
@@ -14711,19 +14730,19 @@
         <v>45103</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="I58:I60" si="86">NETWORKDAYS(G58,H58)</f>
         <v>26</v>
       </c>
       <c r="J58" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="J58:J60" si="87">H58-G58</f>
         <v>35</v>
       </c>
       <c r="K58" s="17">
-        <f t="shared" si="84"/>
-        <v>45103</v>
+        <f t="shared" ref="K58:K60" si="88">IF(L58=0,G58-1,G58+(INT(J58*L58)))</f>
+        <v>45085</v>
       </c>
       <c r="L58" s="18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U58" s="67"/>
       <c r="V58" s="67"/>
@@ -14745,17 +14764,17 @@
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F59" s="14" t="str">
         <f t="shared" si="9"/>
@@ -14768,15 +14787,15 @@
         <v>45103</v>
       </c>
       <c r="I59" s="15">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>26</v>
       </c>
       <c r="J59" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>35</v>
       </c>
       <c r="K59" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>45103</v>
       </c>
       <c r="L59" s="18">
@@ -14800,110 +14819,107 @@
       <c r="AJ59" s="67"/>
       <c r="AK59" s="67"/>
     </row>
-    <row r="60" spans="1:37" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="E60" s="73"/>
-      <c r="F60" s="74" t="str">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F60" s="14" t="str">
         <f t="shared" si="9"/>
         <v>완료</v>
       </c>
-      <c r="G60" s="75">
+      <c r="G60" s="22">
         <v>45068</v>
       </c>
-      <c r="H60" s="75">
-        <v>45069</v>
-      </c>
-      <c r="I60" s="76">
-        <f t="shared" ref="I60" si="85">NETWORKDAYS(G60,H60)</f>
-        <v>2</v>
-      </c>
-      <c r="J60" s="77">
-        <f t="shared" ref="J60" si="86">H60-G60</f>
+      <c r="H60" s="22">
+        <v>45103</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="86"/>
+        <v>26</v>
+      </c>
+      <c r="J60" s="16">
+        <f t="shared" si="87"/>
+        <v>35</v>
+      </c>
+      <c r="K60" s="17">
+        <f t="shared" si="88"/>
+        <v>45103</v>
+      </c>
+      <c r="L60" s="18">
         <v>1</v>
       </c>
-      <c r="K60" s="78">
-        <f t="shared" ref="K60" si="87">IF(L60=0,G60-1,G60+(INT(J60*L60)))</f>
-        <v>45069</v>
-      </c>
-      <c r="L60" s="79">
-        <f>AVERAGE(L61:L62)</f>
-        <v>1</v>
-      </c>
-      <c r="U60" s="81"/>
-      <c r="V60" s="81"/>
-      <c r="W60" s="81"/>
-      <c r="X60" s="81"/>
-      <c r="Y60" s="81"/>
-      <c r="Z60" s="81"/>
-      <c r="AA60" s="81"/>
-      <c r="AB60" s="81"/>
-      <c r="AC60" s="81"/>
-      <c r="AD60" s="81"/>
-      <c r="AE60" s="81"/>
-      <c r="AF60" s="81"/>
-      <c r="AG60" s="81"/>
-      <c r="AH60" s="81"/>
-      <c r="AI60" s="81"/>
-      <c r="AJ60" s="81"/>
-      <c r="AK60" s="81"/>
+      <c r="U60" s="67"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
+      <c r="Y60" s="67"/>
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="67"/>
+      <c r="AB60" s="67"/>
+      <c r="AC60" s="67"/>
+      <c r="AD60" s="67"/>
+      <c r="AE60" s="67"/>
+      <c r="AF60" s="67"/>
+      <c r="AG60" s="67"/>
+      <c r="AH60" s="67"/>
+      <c r="AI60" s="67"/>
+      <c r="AJ60" s="67"/>
+      <c r="AK60" s="67"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F61" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F61" si="89">IF(L61=0%,"진행 전",IF(L61=100%,"완료","진행중"))</f>
         <v>완료</v>
       </c>
       <c r="G61" s="22">
-        <v>45068</v>
+        <v>45075</v>
       </c>
       <c r="H61" s="22">
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="I61" s="15">
-        <f t="shared" ref="I61:I63" si="88">NETWORKDAYS(G61,H61)</f>
-        <v>5</v>
+        <f t="shared" ref="I61" si="90">NETWORKDAYS(G61,H61)</f>
+        <v>1</v>
       </c>
       <c r="J61" s="16">
-        <f t="shared" ref="J61:J63" si="89">H61-G61</f>
-        <v>4</v>
+        <f t="shared" ref="J61" si="91">H61-G61</f>
+        <v>0</v>
       </c>
       <c r="K61" s="17">
-        <f t="shared" ref="K61:K63" si="90">IF(L61=0,G61-1,G61+(INT(J61*L61)))</f>
-        <v>45072</v>
+        <f t="shared" ref="K61" si="92">IF(L61=0,G61-1,G61+(INT(J61*L61)))</f>
+        <v>45075</v>
       </c>
       <c r="L61" s="18">
         <v>1</v>
       </c>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="95"/>
-      <c r="S61" s="108"/>
-      <c r="T61" s="108"/>
-      <c r="U61" s="108"/>
-      <c r="V61" s="95"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
       <c r="W61" s="67"/>
       <c r="X61" s="67"/>
-      <c r="Y61" s="67"/>
+      <c r="Y61" s="95"/>
       <c r="Z61" s="67"/>
       <c r="AA61" s="67"/>
       <c r="AB61" s="67"/>
@@ -14917,159 +14933,165 @@
       <c r="AJ61" s="67"/>
       <c r="AK61" s="67"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="F62" s="14" t="str">
+    <row r="62" spans="1:37" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="73"/>
+      <c r="F62" s="74" t="str">
         <f t="shared" si="9"/>
         <v>완료</v>
       </c>
-      <c r="G62" s="22">
+      <c r="G62" s="75">
         <v>45068</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="75">
         <v>45069</v>
       </c>
-      <c r="I62" s="15">
-        <f t="shared" si="88"/>
+      <c r="I62" s="76">
+        <f t="shared" ref="I62" si="93">NETWORKDAYS(G62,H62)</f>
         <v>2</v>
       </c>
-      <c r="J62" s="16">
-        <f t="shared" si="89"/>
+      <c r="J62" s="77">
+        <f t="shared" ref="J62" si="94">H62-G62</f>
         <v>1</v>
       </c>
-      <c r="K62" s="17">
-        <f t="shared" si="90"/>
+      <c r="K62" s="78">
+        <f t="shared" ref="K62" si="95">IF(L62=0,G62-1,G62+(INT(J62*L62)))</f>
         <v>45069</v>
       </c>
-      <c r="L62" s="18">
+      <c r="L62" s="79">
+        <f>AVERAGE(L63:L64)</f>
         <v>1</v>
       </c>
-      <c r="Q62" s="67"/>
-      <c r="R62" s="108"/>
-      <c r="S62" s="95"/>
-      <c r="U62" s="67"/>
-      <c r="V62" s="67"/>
-      <c r="W62" s="67"/>
-      <c r="X62" s="67"/>
-      <c r="Y62" s="67"/>
-      <c r="Z62" s="67"/>
-      <c r="AA62" s="67"/>
-      <c r="AB62" s="67"/>
-      <c r="AC62" s="67"/>
-      <c r="AD62" s="67"/>
-      <c r="AE62" s="67"/>
-      <c r="AF62" s="67"/>
-      <c r="AG62" s="67"/>
-      <c r="AH62" s="67"/>
-      <c r="AI62" s="67"/>
-      <c r="AJ62" s="67"/>
-      <c r="AK62" s="67"/>
+      <c r="U62" s="81"/>
+      <c r="V62" s="81"/>
+      <c r="W62" s="81"/>
+      <c r="X62" s="81"/>
+      <c r="Y62" s="81"/>
+      <c r="Z62" s="81"/>
+      <c r="AA62" s="81"/>
+      <c r="AB62" s="81"/>
+      <c r="AC62" s="81"/>
+      <c r="AD62" s="81"/>
+      <c r="AE62" s="81"/>
+      <c r="AF62" s="81"/>
+      <c r="AG62" s="81"/>
+      <c r="AH62" s="81"/>
+      <c r="AI62" s="81"/>
+      <c r="AJ62" s="81"/>
+      <c r="AK62" s="81"/>
     </row>
-    <row r="63" spans="1:37" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="E63" s="73"/>
-      <c r="F63" s="74" t="str">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F63" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>진행중</v>
-      </c>
-      <c r="G63" s="75">
+        <v>완료</v>
+      </c>
+      <c r="G63" s="22">
         <v>45068</v>
       </c>
-      <c r="H63" s="75">
-        <v>45103</v>
-      </c>
-      <c r="I63" s="76">
-        <f t="shared" si="88"/>
-        <v>26</v>
-      </c>
-      <c r="J63" s="77">
-        <f t="shared" si="89"/>
-        <v>35</v>
-      </c>
-      <c r="K63" s="78">
-        <f t="shared" si="90"/>
-        <v>45069</v>
-      </c>
-      <c r="L63" s="79">
-        <f>AVERAGE(L64:L66)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="U63" s="81"/>
-      <c r="V63" s="81"/>
-      <c r="W63" s="81"/>
-      <c r="X63" s="81"/>
-      <c r="Y63" s="81"/>
-      <c r="Z63" s="81"/>
-      <c r="AA63" s="81"/>
-      <c r="AB63" s="81"/>
-      <c r="AC63" s="81"/>
-      <c r="AD63" s="81"/>
-      <c r="AE63" s="81"/>
-      <c r="AF63" s="81"/>
-      <c r="AG63" s="81"/>
-      <c r="AH63" s="81"/>
-      <c r="AI63" s="81"/>
-      <c r="AJ63" s="81"/>
-      <c r="AK63" s="81"/>
+      <c r="H63" s="22">
+        <v>45072</v>
+      </c>
+      <c r="I63" s="15">
+        <f t="shared" ref="I63:I65" si="96">NETWORKDAYS(G63,H63)</f>
+        <v>5</v>
+      </c>
+      <c r="J63" s="16">
+        <f t="shared" ref="J63:J65" si="97">H63-G63</f>
+        <v>4</v>
+      </c>
+      <c r="K63" s="17">
+        <f t="shared" ref="K63:K65" si="98">IF(L63=0,G63-1,G63+(INT(J63*L63)))</f>
+        <v>45072</v>
+      </c>
+      <c r="L63" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="95"/>
+      <c r="S63" s="108"/>
+      <c r="T63" s="108"/>
+      <c r="U63" s="108"/>
+      <c r="V63" s="95"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67"/>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="67"/>
+      <c r="AD63" s="67"/>
+      <c r="AE63" s="67"/>
+      <c r="AF63" s="67"/>
+      <c r="AG63" s="67"/>
+      <c r="AH63" s="67"/>
+      <c r="AI63" s="67"/>
+      <c r="AJ63" s="67"/>
+      <c r="AK63" s="67"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E64" s="21"/>
+        <v>162</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>220</v>
+      </c>
       <c r="F64" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
       <c r="G64" s="22">
         <v>45068</v>
       </c>
       <c r="H64" s="22">
-        <v>45103</v>
+        <v>45069</v>
       </c>
       <c r="I64" s="15">
-        <f t="shared" ref="I64:I67" si="91">NETWORKDAYS(G64,H64)</f>
-        <v>26</v>
+        <f t="shared" si="96"/>
+        <v>2</v>
       </c>
       <c r="J64" s="16">
-        <f t="shared" ref="J64:J67" si="92">H64-G64</f>
-        <v>35</v>
+        <f t="shared" si="97"/>
+        <v>1</v>
       </c>
       <c r="K64" s="17">
-        <f t="shared" ref="K64:K67" si="93">IF(L64=0,G64-1,G64+(INT(J64*L64)))</f>
-        <v>45071</v>
+        <f t="shared" si="98"/>
+        <v>45069</v>
       </c>
       <c r="L64" s="18">
-        <v>0.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q64" s="67"/>
+      <c r="R64" s="108"/>
+      <c r="S64" s="95"/>
       <c r="U64" s="67"/>
       <c r="V64" s="67"/>
       <c r="W64" s="67"/>
@@ -15088,76 +15110,77 @@
       <c r="AJ64" s="67"/>
       <c r="AK64" s="67"/>
     </row>
-    <row r="65" spans="1:253" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="21"/>
-      <c r="F65" s="14" t="str">
+    <row r="65" spans="1:253" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="73"/>
+      <c r="F65" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>진행 전</v>
-      </c>
-      <c r="G65" s="22">
+        <v>진행중</v>
+      </c>
+      <c r="G65" s="75">
         <v>45068</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="75">
         <v>45103</v>
       </c>
-      <c r="I65" s="15">
-        <f t="shared" si="91"/>
+      <c r="I65" s="76">
+        <f t="shared" si="96"/>
         <v>26</v>
       </c>
-      <c r="J65" s="16">
-        <f t="shared" si="92"/>
+      <c r="J65" s="77">
+        <f t="shared" si="97"/>
         <v>35</v>
       </c>
-      <c r="K65" s="17">
-        <f t="shared" si="93"/>
-        <v>45067</v>
-      </c>
-      <c r="L65" s="18">
-        <v>0</v>
-      </c>
-      <c r="U65" s="67"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="67"/>
-      <c r="X65" s="67"/>
-      <c r="Y65" s="67"/>
-      <c r="Z65" s="67"/>
-      <c r="AA65" s="67"/>
-      <c r="AB65" s="67"/>
-      <c r="AC65" s="67"/>
-      <c r="AD65" s="67"/>
-      <c r="AE65" s="67"/>
-      <c r="AF65" s="67"/>
-      <c r="AG65" s="67"/>
-      <c r="AH65" s="67"/>
-      <c r="AI65" s="67"/>
-      <c r="AJ65" s="67"/>
-      <c r="AK65" s="67"/>
+      <c r="K65" s="78">
+        <f t="shared" si="98"/>
+        <v>45069</v>
+      </c>
+      <c r="L65" s="79">
+        <f>AVERAGE(L66:L68)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="U65" s="81"/>
+      <c r="V65" s="81"/>
+      <c r="W65" s="81"/>
+      <c r="X65" s="81"/>
+      <c r="Y65" s="81"/>
+      <c r="Z65" s="81"/>
+      <c r="AA65" s="81"/>
+      <c r="AB65" s="81"/>
+      <c r="AC65" s="81"/>
+      <c r="AD65" s="81"/>
+      <c r="AE65" s="81"/>
+      <c r="AF65" s="81"/>
+      <c r="AG65" s="81"/>
+      <c r="AH65" s="81"/>
+      <c r="AI65" s="81"/>
+      <c r="AJ65" s="81"/>
+      <c r="AK65" s="81"/>
     </row>
     <row r="66" spans="1:253" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>진행 전</v>
+        <v>진행중</v>
       </c>
       <c r="G66" s="22">
         <v>45068</v>
@@ -15166,19 +15189,19 @@
         <v>45103</v>
       </c>
       <c r="I66" s="15">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="I66:I69" si="99">NETWORKDAYS(G66,H66)</f>
         <v>26</v>
       </c>
       <c r="J66" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="J66:J69" si="100">H66-G66</f>
         <v>35</v>
       </c>
       <c r="K66" s="17">
-        <f t="shared" si="93"/>
-        <v>45067</v>
+        <f t="shared" ref="K66:K69" si="101">IF(L66=0,G66-1,G66+(INT(J66*L66)))</f>
+        <v>45071</v>
       </c>
       <c r="L66" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U66" s="67"/>
       <c r="V66" s="67"/>
@@ -15198,103 +15221,100 @@
       <c r="AJ66" s="67"/>
       <c r="AK66" s="67"/>
     </row>
-    <row r="67" spans="1:253" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="B67" s="71"/>
-      <c r="C67" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="E67" s="73"/>
-      <c r="F67" s="74" t="str">
+    <row r="67" spans="1:253" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="21"/>
+      <c r="F67" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>완료</v>
-      </c>
-      <c r="G67" s="75">
+        <v>진행 전</v>
+      </c>
+      <c r="G67" s="22">
         <v>45068</v>
       </c>
-      <c r="H67" s="75">
+      <c r="H67" s="22">
         <v>45103</v>
       </c>
-      <c r="I67" s="76">
-        <f t="shared" si="91"/>
+      <c r="I67" s="15">
+        <f t="shared" si="99"/>
         <v>26</v>
       </c>
-      <c r="J67" s="77">
-        <f t="shared" si="92"/>
+      <c r="J67" s="16">
+        <f t="shared" si="100"/>
         <v>35</v>
       </c>
-      <c r="K67" s="78">
-        <f t="shared" si="93"/>
-        <v>45103</v>
-      </c>
-      <c r="L67" s="79">
-        <f>AVERAGE(L68:L70)</f>
-        <v>1</v>
-      </c>
-      <c r="U67" s="81"/>
-      <c r="V67" s="81"/>
-      <c r="W67" s="81"/>
-      <c r="X67" s="81"/>
-      <c r="Y67" s="81"/>
-      <c r="Z67" s="81"/>
-      <c r="AA67" s="81"/>
-      <c r="AB67" s="81"/>
-      <c r="AC67" s="81"/>
-      <c r="AD67" s="81"/>
-      <c r="AE67" s="81"/>
-      <c r="AF67" s="81"/>
-      <c r="AG67" s="81"/>
-      <c r="AH67" s="81"/>
-      <c r="AI67" s="81"/>
-      <c r="AJ67" s="81"/>
-      <c r="AK67" s="81"/>
+      <c r="K67" s="17">
+        <f t="shared" si="101"/>
+        <v>45067</v>
+      </c>
+      <c r="L67" s="18">
+        <v>0</v>
+      </c>
+      <c r="U67" s="67"/>
+      <c r="V67" s="67"/>
+      <c r="W67" s="67"/>
+      <c r="X67" s="67"/>
+      <c r="Y67" s="67"/>
+      <c r="Z67" s="67"/>
+      <c r="AA67" s="67"/>
+      <c r="AB67" s="67"/>
+      <c r="AC67" s="67"/>
+      <c r="AD67" s="67"/>
+      <c r="AE67" s="67"/>
+      <c r="AF67" s="67"/>
+      <c r="AG67" s="67"/>
+      <c r="AH67" s="67"/>
+      <c r="AI67" s="67"/>
+      <c r="AJ67" s="67"/>
+      <c r="AK67" s="67"/>
     </row>
     <row r="68" spans="1:253" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>221</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E68" s="21"/>
       <c r="F68" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>완료</v>
+        <v>진행 전</v>
       </c>
       <c r="G68" s="22">
-        <v>45072</v>
+        <v>45068</v>
       </c>
       <c r="H68" s="22">
-        <v>45072</v>
+        <v>45103</v>
       </c>
       <c r="I68" s="15">
-        <f t="shared" ref="I68:I71" si="94">NETWORKDAYS(G68,H68)</f>
-        <v>1</v>
+        <f t="shared" si="99"/>
+        <v>26</v>
       </c>
       <c r="J68" s="16">
-        <f t="shared" ref="J68:J71" si="95">H68-G68</f>
+        <f t="shared" si="100"/>
+        <v>35</v>
+      </c>
+      <c r="K68" s="17">
+        <f t="shared" si="101"/>
+        <v>45067</v>
+      </c>
+      <c r="L68" s="18">
         <v>0</v>
       </c>
-      <c r="K68" s="17">
-        <f t="shared" ref="K68:K71" si="96">IF(L68=0,G68-1,G68+(INT(J68*L68)))</f>
-        <v>45072</v>
-      </c>
-      <c r="L68" s="18">
-        <v>1</v>
-      </c>
       <c r="U68" s="67"/>
-      <c r="V68" s="95"/>
+      <c r="V68" s="67"/>
       <c r="W68" s="67"/>
       <c r="X68" s="67"/>
       <c r="Y68" s="67"/>
@@ -15311,105 +15331,104 @@
       <c r="AJ68" s="67"/>
       <c r="AK68" s="67"/>
     </row>
-    <row r="69" spans="1:253" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F69" s="14" t="str">
+    <row r="69" spans="1:253" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="73"/>
+      <c r="F69" s="74" t="str">
         <f t="shared" si="9"/>
         <v>완료</v>
       </c>
-      <c r="G69" s="22">
-        <v>45071</v>
-      </c>
-      <c r="H69" s="22">
-        <v>45073</v>
-      </c>
-      <c r="I69" s="15">
-        <f t="shared" si="94"/>
-        <v>2</v>
-      </c>
-      <c r="J69" s="16">
-        <f t="shared" si="95"/>
-        <v>2</v>
-      </c>
-      <c r="K69" s="17">
-        <f t="shared" si="96"/>
-        <v>45073</v>
-      </c>
-      <c r="L69" s="18">
+      <c r="G69" s="75">
+        <v>45068</v>
+      </c>
+      <c r="H69" s="75">
+        <v>45103</v>
+      </c>
+      <c r="I69" s="76">
+        <f t="shared" si="99"/>
+        <v>26</v>
+      </c>
+      <c r="J69" s="77">
+        <f t="shared" si="100"/>
+        <v>35</v>
+      </c>
+      <c r="K69" s="78">
+        <f t="shared" si="101"/>
+        <v>45103</v>
+      </c>
+      <c r="L69" s="79">
+        <f>AVERAGE(L70:L72)</f>
         <v>1</v>
       </c>
-      <c r="U69" s="95"/>
-      <c r="V69" s="108"/>
-      <c r="W69" s="95"/>
-      <c r="X69" s="67"/>
-      <c r="Y69" s="67"/>
-      <c r="Z69" s="67"/>
-      <c r="AA69" s="67"/>
-      <c r="AB69" s="67"/>
-      <c r="AC69" s="67"/>
-      <c r="AD69" s="67"/>
-      <c r="AE69" s="67"/>
-      <c r="AF69" s="67"/>
-      <c r="AG69" s="67"/>
-      <c r="AH69" s="67"/>
-      <c r="AI69" s="67"/>
-      <c r="AJ69" s="67"/>
-      <c r="AK69" s="67"/>
+      <c r="U69" s="81"/>
+      <c r="V69" s="81"/>
+      <c r="W69" s="81"/>
+      <c r="X69" s="81"/>
+      <c r="Y69" s="81"/>
+      <c r="Z69" s="81"/>
+      <c r="AA69" s="81"/>
+      <c r="AB69" s="81"/>
+      <c r="AC69" s="81"/>
+      <c r="AD69" s="81"/>
+      <c r="AE69" s="81"/>
+      <c r="AF69" s="81"/>
+      <c r="AG69" s="81"/>
+      <c r="AH69" s="81"/>
+      <c r="AI69" s="81"/>
+      <c r="AJ69" s="81"/>
+      <c r="AK69" s="81"/>
     </row>
     <row r="70" spans="1:253" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F70" s="14" t="str">
         <f t="shared" si="9"/>
         <v>완료</v>
       </c>
       <c r="G70" s="22">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="H70" s="22">
-        <v>45073</v>
+        <v>45072</v>
       </c>
       <c r="I70" s="15">
-        <f t="shared" si="94"/>
-        <v>2</v>
+        <f t="shared" ref="I70:I73" si="102">NETWORKDAYS(G70,H70)</f>
+        <v>1</v>
       </c>
       <c r="J70" s="16">
-        <f t="shared" si="95"/>
-        <v>2</v>
+        <f t="shared" ref="J70:J73" si="103">H70-G70</f>
+        <v>0</v>
       </c>
       <c r="K70" s="17">
-        <f t="shared" si="96"/>
-        <v>45073</v>
+        <f t="shared" ref="K70:K73" si="104">IF(L70=0,G70-1,G70+(INT(J70*L70)))</f>
+        <v>45072</v>
       </c>
       <c r="L70" s="18">
         <v>1</v>
       </c>
-      <c r="U70" s="108"/>
+      <c r="U70" s="67"/>
       <c r="V70" s="95"/>
-      <c r="W70" s="95"/>
+      <c r="W70" s="67"/>
       <c r="X70" s="67"/>
       <c r="Y70" s="67"/>
       <c r="Z70" s="67"/>
@@ -15425,72 +15444,73 @@
       <c r="AJ70" s="67"/>
       <c r="AK70" s="67"/>
     </row>
-    <row r="71" spans="1:253" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="D71" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="E71" s="73"/>
-      <c r="F71" s="74" t="str">
+    <row r="71" spans="1:253" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>진행중</v>
-      </c>
-      <c r="G71" s="75">
-        <v>45068</v>
-      </c>
-      <c r="H71" s="75">
-        <v>45103</v>
-      </c>
-      <c r="I71" s="76">
-        <f t="shared" si="94"/>
-        <v>26</v>
-      </c>
-      <c r="J71" s="77">
-        <f t="shared" si="95"/>
-        <v>35</v>
-      </c>
-      <c r="K71" s="78">
-        <f t="shared" si="96"/>
-        <v>45096</v>
-      </c>
-      <c r="L71" s="79">
-        <f>AVERAGE(L72:L74)</f>
-        <v>0.82</v>
-      </c>
-      <c r="U71" s="81"/>
-      <c r="V71" s="81"/>
-      <c r="W71" s="81"/>
-      <c r="X71" s="81"/>
-      <c r="Y71" s="81"/>
-      <c r="Z71" s="81"/>
-      <c r="AA71" s="81"/>
-      <c r="AB71" s="81"/>
-      <c r="AC71" s="81"/>
-      <c r="AD71" s="81"/>
-      <c r="AE71" s="81"/>
-      <c r="AF71" s="81"/>
-      <c r="AG71" s="81"/>
-      <c r="AH71" s="81"/>
-      <c r="AI71" s="81"/>
-      <c r="AJ71" s="81"/>
-      <c r="AK71" s="81"/>
+        <v>완료</v>
+      </c>
+      <c r="G71" s="22">
+        <v>45071</v>
+      </c>
+      <c r="H71" s="22">
+        <v>45073</v>
+      </c>
+      <c r="I71" s="15">
+        <f t="shared" si="102"/>
+        <v>2</v>
+      </c>
+      <c r="J71" s="16">
+        <f t="shared" si="103"/>
+        <v>2</v>
+      </c>
+      <c r="K71" s="17">
+        <f t="shared" si="104"/>
+        <v>45073</v>
+      </c>
+      <c r="L71" s="18">
+        <v>1</v>
+      </c>
+      <c r="U71" s="95"/>
+      <c r="V71" s="108"/>
+      <c r="W71" s="95"/>
+      <c r="X71" s="67"/>
+      <c r="Y71" s="67"/>
+      <c r="Z71" s="67"/>
+      <c r="AA71" s="67"/>
+      <c r="AB71" s="67"/>
+      <c r="AC71" s="67"/>
+      <c r="AD71" s="67"/>
+      <c r="AE71" s="67"/>
+      <c r="AF71" s="67"/>
+      <c r="AG71" s="67"/>
+      <c r="AH71" s="67"/>
+      <c r="AI71" s="67"/>
+      <c r="AJ71" s="67"/>
+      <c r="AK71" s="67"/>
     </row>
     <row r="72" spans="1:253" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>222</v>
@@ -15500,29 +15520,29 @@
         <v>완료</v>
       </c>
       <c r="G72" s="22">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="H72" s="22">
-        <v>45071</v>
+        <v>45073</v>
       </c>
       <c r="I72" s="15">
-        <f t="shared" ref="I72:I74" si="97">NETWORKDAYS(G72,H72)</f>
+        <f t="shared" si="102"/>
         <v>2</v>
       </c>
       <c r="J72" s="16">
-        <f t="shared" ref="J72:J74" si="98">H72-G72</f>
-        <v>1</v>
+        <f t="shared" si="103"/>
+        <v>2</v>
       </c>
       <c r="K72" s="17">
-        <f t="shared" ref="K72:K74" si="99">IF(L72=0,G72-1,G72+(INT(J72*L72)))</f>
-        <v>45071</v>
+        <f t="shared" si="104"/>
+        <v>45073</v>
       </c>
       <c r="L72" s="18">
         <v>1</v>
       </c>
-      <c r="U72" s="95"/>
-      <c r="V72" s="67"/>
-      <c r="W72" s="67"/>
+      <c r="U72" s="108"/>
+      <c r="V72" s="95"/>
+      <c r="W72" s="95"/>
       <c r="X72" s="67"/>
       <c r="Y72" s="67"/>
       <c r="Z72" s="67"/>
@@ -15538,103 +15558,102 @@
       <c r="AJ72" s="67"/>
       <c r="AK72" s="67"/>
     </row>
-    <row r="73" spans="1:253" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="F73" s="14" t="str">
+    <row r="73" spans="1:253" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="73"/>
+      <c r="F73" s="74" t="str">
         <f t="shared" si="9"/>
         <v>진행중</v>
       </c>
-      <c r="G73" s="22">
-        <v>45073</v>
-      </c>
-      <c r="H73" s="22">
-        <v>45074</v>
-      </c>
-      <c r="I73" s="15">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="16">
-        <f t="shared" si="98"/>
-        <v>1</v>
-      </c>
-      <c r="K73" s="17">
-        <f t="shared" si="99"/>
-        <v>45073</v>
-      </c>
-      <c r="L73" s="18">
-        <v>0.66</v>
-      </c>
-      <c r="U73" s="67"/>
-      <c r="V73" s="67"/>
-      <c r="W73" s="95"/>
-      <c r="X73" s="95"/>
-      <c r="Y73" s="67"/>
-      <c r="Z73" s="67"/>
-      <c r="AA73" s="67"/>
-      <c r="AB73" s="67"/>
-      <c r="AC73" s="67"/>
-      <c r="AD73" s="67"/>
-      <c r="AE73" s="67"/>
-      <c r="AF73" s="67"/>
-      <c r="AG73" s="67"/>
-      <c r="AH73" s="67"/>
-      <c r="AI73" s="67"/>
-      <c r="AJ73" s="67"/>
-      <c r="AK73" s="67"/>
+      <c r="G73" s="75">
+        <v>45068</v>
+      </c>
+      <c r="H73" s="75">
+        <v>45103</v>
+      </c>
+      <c r="I73" s="76">
+        <f t="shared" si="102"/>
+        <v>26</v>
+      </c>
+      <c r="J73" s="77">
+        <f t="shared" si="103"/>
+        <v>35</v>
+      </c>
+      <c r="K73" s="78">
+        <f t="shared" si="104"/>
+        <v>45096</v>
+      </c>
+      <c r="L73" s="79">
+        <f>AVERAGE(L74:L76)</f>
+        <v>0.82</v>
+      </c>
+      <c r="U73" s="81"/>
+      <c r="V73" s="81"/>
+      <c r="W73" s="81"/>
+      <c r="X73" s="81"/>
+      <c r="Y73" s="81"/>
+      <c r="Z73" s="81"/>
+      <c r="AA73" s="81"/>
+      <c r="AB73" s="81"/>
+      <c r="AC73" s="81"/>
+      <c r="AD73" s="81"/>
+      <c r="AE73" s="81"/>
+      <c r="AF73" s="81"/>
+      <c r="AG73" s="81"/>
+      <c r="AH73" s="81"/>
+      <c r="AI73" s="81"/>
+      <c r="AJ73" s="81"/>
+      <c r="AK73" s="81"/>
     </row>
     <row r="74" spans="1:253" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="F74" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
       <c r="G74" s="22">
-        <v>45068</v>
+        <v>45070</v>
       </c>
       <c r="H74" s="22">
-        <v>45103</v>
+        <v>45071</v>
       </c>
       <c r="I74" s="15">
-        <f t="shared" si="97"/>
-        <v>26</v>
+        <f t="shared" ref="I74:I76" si="105">NETWORKDAYS(G74,H74)</f>
+        <v>2</v>
       </c>
       <c r="J74" s="16">
-        <f t="shared" si="98"/>
-        <v>35</v>
+        <f t="shared" ref="J74:J76" si="106">H74-G74</f>
+        <v>1</v>
       </c>
       <c r="K74" s="17">
-        <f t="shared" si="99"/>
-        <v>45096</v>
+        <f t="shared" ref="K74:K76" si="107">IF(L74=0,G74-1,G74+(INT(J74*L74)))</f>
+        <v>45071</v>
       </c>
       <c r="L74" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="U74" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="U74" s="95"/>
       <c r="V74" s="67"/>
       <c r="W74" s="67"/>
       <c r="X74" s="67"/>
@@ -15654,47 +15673,47 @@
     </row>
     <row r="75" spans="1:253" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F75" s="14" t="str">
         <f t="shared" si="9"/>
-        <v>완료</v>
+        <v>진행중</v>
       </c>
       <c r="G75" s="22">
-        <v>45068</v>
+        <v>45073</v>
       </c>
       <c r="H75" s="22">
-        <v>45103</v>
+        <v>45074</v>
       </c>
       <c r="I75" s="15">
-        <f t="shared" ref="I75" si="100">NETWORKDAYS(G75,H75)</f>
-        <v>26</v>
+        <f t="shared" si="105"/>
+        <v>0</v>
       </c>
       <c r="J75" s="16">
-        <f t="shared" ref="J75" si="101">H75-G75</f>
-        <v>35</v>
+        <f t="shared" si="106"/>
+        <v>1</v>
       </c>
       <c r="K75" s="17">
-        <f t="shared" ref="K75" si="102">IF(L75=0,G75-1,G75+(INT(J75*L75)))</f>
-        <v>45103</v>
+        <f t="shared" si="107"/>
+        <v>45073</v>
       </c>
       <c r="L75" s="18">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="U75" s="67"/>
       <c r="V75" s="67"/>
-      <c r="W75" s="67"/>
-      <c r="X75" s="67"/>
+      <c r="W75" s="95"/>
+      <c r="X75" s="95"/>
       <c r="Y75" s="67"/>
       <c r="Z75" s="67"/>
       <c r="AA75" s="67"/>
@@ -15709,1143 +15728,703 @@
       <c r="AJ75" s="67"/>
       <c r="AK75" s="67"/>
     </row>
-    <row r="76" spans="1:253" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+    <row r="76" spans="1:253" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F76" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>진행중</v>
+      </c>
+      <c r="G76" s="22">
+        <v>45068</v>
+      </c>
+      <c r="H76" s="22">
+        <v>45103</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" si="105"/>
+        <v>26</v>
+      </c>
+      <c r="J76" s="16">
+        <f t="shared" si="106"/>
+        <v>35</v>
+      </c>
+      <c r="K76" s="17">
+        <f t="shared" si="107"/>
+        <v>45096</v>
+      </c>
+      <c r="L76" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="U76" s="67"/>
+      <c r="V76" s="67"/>
+      <c r="W76" s="67"/>
+      <c r="X76" s="67"/>
+      <c r="Y76" s="67"/>
+      <c r="Z76" s="67"/>
+      <c r="AA76" s="67"/>
+      <c r="AB76" s="67"/>
+      <c r="AC76" s="67"/>
+      <c r="AD76" s="67"/>
+      <c r="AE76" s="67"/>
+      <c r="AF76" s="67"/>
+      <c r="AG76" s="67"/>
+      <c r="AH76" s="67"/>
+      <c r="AI76" s="67"/>
+      <c r="AJ76" s="67"/>
+      <c r="AK76" s="67"/>
+    </row>
+    <row r="77" spans="1:253" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>완료</v>
+      </c>
+      <c r="G77" s="22">
+        <v>45068</v>
+      </c>
+      <c r="H77" s="22">
+        <v>45103</v>
+      </c>
+      <c r="I77" s="15">
+        <f t="shared" ref="I77" si="108">NETWORKDAYS(G77,H77)</f>
+        <v>26</v>
+      </c>
+      <c r="J77" s="16">
+        <f t="shared" ref="J77" si="109">H77-G77</f>
+        <v>35</v>
+      </c>
+      <c r="K77" s="17">
+        <f t="shared" ref="K77" si="110">IF(L77=0,G77-1,G77+(INT(J77*L77)))</f>
+        <v>45103</v>
+      </c>
+      <c r="L77" s="18">
+        <v>1</v>
+      </c>
+      <c r="U77" s="67"/>
+      <c r="V77" s="67"/>
+      <c r="W77" s="67"/>
+      <c r="X77" s="67"/>
+      <c r="Y77" s="67"/>
+      <c r="Z77" s="67"/>
+      <c r="AA77" s="67"/>
+      <c r="AB77" s="67"/>
+      <c r="AC77" s="67"/>
+      <c r="AD77" s="67"/>
+      <c r="AE77" s="67"/>
+      <c r="AF77" s="67"/>
+      <c r="AG77" s="67"/>
+      <c r="AH77" s="67"/>
+      <c r="AI77" s="67"/>
+      <c r="AJ77" s="67"/>
+      <c r="AK77" s="67"/>
+    </row>
+    <row r="78" spans="1:253" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="28" t="s">
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="37"/>
-      <c r="F76" s="30" t="s">
+      <c r="E78" s="37"/>
+      <c r="F78" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G76" s="26">
+      <c r="G78" s="26">
         <v>45068</v>
       </c>
-      <c r="H76" s="26">
+      <c r="H78" s="26">
         <v>45104</v>
       </c>
-      <c r="I76" s="31">
-        <f t="shared" ref="I76:I87" si="103">NETWORKDAYS(G76,H76)</f>
+      <c r="I78" s="31">
+        <f t="shared" ref="I78:I89" si="111">NETWORKDAYS(G78,H78)</f>
         <v>27</v>
       </c>
-      <c r="J76" s="32">
-        <f t="shared" ref="J76:J87" si="104">H76-G76</f>
+      <c r="J78" s="32">
+        <f t="shared" ref="J78:J89" si="112">H78-G78</f>
         <v>36</v>
       </c>
-      <c r="K76" s="33">
-        <f>IF(L76=0,G76-1,G76+(INT(J76*L76)))</f>
+      <c r="K78" s="33">
+        <f>IF(L78=0,G78-1,G78+(INT(J78*L78)))</f>
         <v>45067</v>
       </c>
-      <c r="L76" s="34">
+      <c r="L78" s="34">
         <v>0</v>
       </c>
-      <c r="M76" s="35"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="25"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="25"/>
-      <c r="U76" s="25"/>
-      <c r="V76" s="25"/>
-      <c r="W76" s="25"/>
-      <c r="X76" s="25"/>
-      <c r="Y76" s="25"/>
-      <c r="Z76" s="25"/>
-      <c r="AA76" s="25"/>
-      <c r="AB76" s="25"/>
-      <c r="AC76" s="25"/>
-      <c r="AD76" s="25"/>
-      <c r="AE76" s="25"/>
-      <c r="AF76" s="25"/>
-      <c r="AG76" s="25"/>
-      <c r="AH76" s="25"/>
-      <c r="AI76" s="25"/>
-      <c r="AJ76" s="25"/>
-      <c r="AK76" s="25"/>
-      <c r="AL76" s="25"/>
-      <c r="AM76" s="25"/>
-      <c r="AN76" s="25"/>
-      <c r="AO76" s="25"/>
-      <c r="AP76" s="25"/>
-      <c r="AQ76" s="25"/>
-      <c r="AR76" s="25"/>
-      <c r="AS76" s="25"/>
-      <c r="AT76" s="25"/>
-      <c r="AU76" s="25"/>
-      <c r="AV76" s="25"/>
-      <c r="AW76" s="25"/>
-      <c r="AX76" s="25"/>
-      <c r="AY76" s="25"/>
-      <c r="AZ76" s="25"/>
-      <c r="BA76" s="25"/>
-      <c r="BB76" s="25"/>
-      <c r="BC76" s="25"/>
-      <c r="BD76" s="25"/>
-      <c r="BE76" s="25"/>
-      <c r="BF76" s="25"/>
-      <c r="BG76" s="25"/>
-      <c r="BH76" s="25"/>
-      <c r="BI76" s="25"/>
-      <c r="BJ76" s="25"/>
-      <c r="BK76" s="25"/>
-      <c r="BL76" s="25"/>
-      <c r="BM76" s="25"/>
-      <c r="BN76" s="25"/>
-      <c r="BO76" s="25"/>
-      <c r="BP76" s="25"/>
-      <c r="BQ76" s="25"/>
-      <c r="BR76" s="25"/>
-      <c r="BS76" s="25"/>
-      <c r="BT76" s="25"/>
-      <c r="BU76" s="25"/>
-      <c r="BV76" s="25"/>
-      <c r="BW76" s="25"/>
-      <c r="BX76" s="25"/>
-      <c r="BY76" s="25"/>
-      <c r="BZ76" s="25"/>
-      <c r="CA76" s="25"/>
-      <c r="CB76" s="25"/>
-      <c r="CC76" s="25"/>
-      <c r="CD76" s="25"/>
-      <c r="CE76" s="25"/>
-      <c r="CF76" s="25"/>
-      <c r="CG76" s="25"/>
-      <c r="CH76" s="25"/>
-      <c r="CI76" s="25"/>
-      <c r="CJ76" s="25"/>
-      <c r="CK76" s="25"/>
-      <c r="CL76" s="25"/>
-      <c r="CM76" s="25"/>
-      <c r="CN76" s="25"/>
-      <c r="CO76" s="25"/>
-      <c r="CP76" s="25"/>
-      <c r="CQ76" s="25"/>
-      <c r="CR76" s="25"/>
-      <c r="CS76" s="25"/>
-      <c r="CT76" s="25"/>
-      <c r="CU76" s="25"/>
-      <c r="CV76" s="25"/>
-      <c r="CW76" s="25"/>
-      <c r="CX76" s="25"/>
-      <c r="CY76" s="25"/>
-      <c r="CZ76" s="25"/>
-      <c r="DA76" s="25"/>
-      <c r="DB76" s="25"/>
-      <c r="DC76" s="25"/>
-      <c r="DD76" s="25"/>
-      <c r="DE76" s="25"/>
-      <c r="DF76" s="25"/>
-      <c r="DG76" s="25"/>
-      <c r="DH76" s="25"/>
-      <c r="DI76" s="25"/>
-      <c r="DJ76" s="25"/>
-      <c r="DK76" s="25"/>
-      <c r="DL76" s="25"/>
-      <c r="DM76" s="25"/>
-      <c r="DN76" s="25"/>
-      <c r="DO76" s="25"/>
-      <c r="DP76" s="25"/>
-      <c r="DQ76" s="25"/>
-      <c r="DR76" s="25"/>
-      <c r="DS76" s="25"/>
-      <c r="DT76" s="25"/>
-      <c r="DU76" s="25"/>
-      <c r="DV76" s="25"/>
-      <c r="DW76" s="25"/>
-      <c r="DX76" s="25"/>
-      <c r="DY76" s="25"/>
-      <c r="DZ76" s="25"/>
-      <c r="EA76" s="25"/>
-      <c r="EB76" s="25"/>
-      <c r="EC76" s="25"/>
-      <c r="ED76" s="25"/>
-      <c r="EE76" s="25"/>
-      <c r="EF76" s="25"/>
-      <c r="EG76" s="25"/>
-      <c r="EH76" s="25"/>
-      <c r="EI76" s="25"/>
-      <c r="EJ76" s="25"/>
-      <c r="EK76" s="25"/>
-      <c r="EL76" s="25"/>
-      <c r="EM76" s="25"/>
-      <c r="EN76" s="25"/>
-      <c r="EO76" s="25"/>
-      <c r="EP76" s="25"/>
-      <c r="EQ76" s="25"/>
-      <c r="ER76" s="25"/>
-      <c r="ES76" s="25"/>
-      <c r="ET76" s="25"/>
-      <c r="EU76" s="25"/>
-      <c r="EV76" s="25"/>
-      <c r="EW76" s="25"/>
-      <c r="EX76" s="25"/>
-      <c r="EY76" s="25"/>
-      <c r="EZ76" s="25"/>
-      <c r="FA76" s="25"/>
-      <c r="FB76" s="25"/>
-      <c r="FC76" s="25"/>
-      <c r="FD76" s="25"/>
-      <c r="FE76" s="25"/>
-      <c r="FF76" s="25"/>
-      <c r="FG76" s="25"/>
-      <c r="FH76" s="25"/>
-      <c r="FI76" s="25"/>
-      <c r="FJ76" s="25"/>
-      <c r="FK76" s="25"/>
-      <c r="FL76" s="25"/>
-      <c r="FM76" s="25"/>
-      <c r="FN76" s="25"/>
-      <c r="FO76" s="25"/>
-      <c r="FP76" s="25"/>
-      <c r="FQ76" s="25"/>
-      <c r="FR76" s="25"/>
-      <c r="FS76" s="25"/>
-      <c r="FT76" s="25"/>
-      <c r="FU76" s="25"/>
-      <c r="FV76" s="25"/>
-      <c r="FW76" s="25"/>
-      <c r="FX76" s="25"/>
-      <c r="FY76" s="25"/>
-      <c r="FZ76" s="25"/>
-      <c r="GA76" s="25"/>
-      <c r="GB76" s="25"/>
-      <c r="GC76" s="25"/>
-      <c r="GD76" s="25"/>
-      <c r="GE76" s="25"/>
-      <c r="GF76" s="25"/>
-      <c r="GG76" s="25"/>
-      <c r="GH76" s="25"/>
-      <c r="GI76" s="25"/>
-      <c r="GJ76" s="25"/>
-      <c r="GK76" s="25"/>
-      <c r="GL76" s="25"/>
-      <c r="GM76" s="25"/>
-      <c r="GN76" s="25"/>
-      <c r="GO76" s="25"/>
-      <c r="GP76" s="25"/>
-      <c r="GQ76" s="25"/>
-      <c r="GR76" s="25"/>
-      <c r="GS76" s="25"/>
-      <c r="GT76" s="25"/>
-      <c r="GU76" s="25"/>
-      <c r="GV76" s="25"/>
-      <c r="GW76" s="25"/>
-      <c r="GX76" s="25"/>
-      <c r="GY76" s="25"/>
-      <c r="GZ76" s="25"/>
-      <c r="HA76" s="25"/>
-      <c r="HB76" s="25"/>
-      <c r="HC76" s="25"/>
-      <c r="HD76" s="25"/>
-      <c r="HE76" s="25"/>
-      <c r="HF76" s="25"/>
-      <c r="HG76" s="25"/>
-      <c r="HH76" s="25"/>
-      <c r="HI76" s="25"/>
-      <c r="HJ76" s="25"/>
-      <c r="HK76" s="25"/>
-      <c r="HL76" s="25"/>
-      <c r="HM76" s="25"/>
-      <c r="HN76" s="25"/>
-      <c r="HO76" s="25"/>
-      <c r="HP76" s="25"/>
-      <c r="HQ76" s="25"/>
-      <c r="HR76" s="25"/>
-      <c r="HS76" s="25"/>
-      <c r="HT76" s="25"/>
-      <c r="HU76" s="25"/>
-      <c r="HV76" s="25"/>
-      <c r="HW76" s="25"/>
-      <c r="HX76" s="25"/>
-      <c r="HY76" s="25"/>
-      <c r="HZ76" s="25"/>
-      <c r="IA76" s="25"/>
-      <c r="IB76" s="25"/>
-      <c r="IC76" s="25"/>
-      <c r="ID76" s="25"/>
-      <c r="IE76" s="25"/>
-      <c r="IF76" s="25"/>
-      <c r="IG76" s="25"/>
-      <c r="IH76" s="25"/>
-      <c r="II76" s="25"/>
-      <c r="IJ76" s="25"/>
-      <c r="IK76" s="25"/>
-      <c r="IL76" s="25"/>
-      <c r="IM76" s="25"/>
-      <c r="IN76" s="25"/>
-      <c r="IO76" s="25"/>
-      <c r="IP76" s="25"/>
-      <c r="IQ76" s="25"/>
-      <c r="IR76" s="25"/>
-      <c r="IS76" s="25"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="25"/>
+      <c r="V78" s="25"/>
+      <c r="W78" s="25"/>
+      <c r="X78" s="25"/>
+      <c r="Y78" s="25"/>
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="25"/>
+      <c r="AB78" s="25"/>
+      <c r="AC78" s="25"/>
+      <c r="AD78" s="25"/>
+      <c r="AE78" s="25"/>
+      <c r="AF78" s="25"/>
+      <c r="AG78" s="25"/>
+      <c r="AH78" s="25"/>
+      <c r="AI78" s="25"/>
+      <c r="AJ78" s="25"/>
+      <c r="AK78" s="25"/>
+      <c r="AL78" s="25"/>
+      <c r="AM78" s="25"/>
+      <c r="AN78" s="25"/>
+      <c r="AO78" s="25"/>
+      <c r="AP78" s="25"/>
+      <c r="AQ78" s="25"/>
+      <c r="AR78" s="25"/>
+      <c r="AS78" s="25"/>
+      <c r="AT78" s="25"/>
+      <c r="AU78" s="25"/>
+      <c r="AV78" s="25"/>
+      <c r="AW78" s="25"/>
+      <c r="AX78" s="25"/>
+      <c r="AY78" s="25"/>
+      <c r="AZ78" s="25"/>
+      <c r="BA78" s="25"/>
+      <c r="BB78" s="25"/>
+      <c r="BC78" s="25"/>
+      <c r="BD78" s="25"/>
+      <c r="BE78" s="25"/>
+      <c r="BF78" s="25"/>
+      <c r="BG78" s="25"/>
+      <c r="BH78" s="25"/>
+      <c r="BI78" s="25"/>
+      <c r="BJ78" s="25"/>
+      <c r="BK78" s="25"/>
+      <c r="BL78" s="25"/>
+      <c r="BM78" s="25"/>
+      <c r="BN78" s="25"/>
+      <c r="BO78" s="25"/>
+      <c r="BP78" s="25"/>
+      <c r="BQ78" s="25"/>
+      <c r="BR78" s="25"/>
+      <c r="BS78" s="25"/>
+      <c r="BT78" s="25"/>
+      <c r="BU78" s="25"/>
+      <c r="BV78" s="25"/>
+      <c r="BW78" s="25"/>
+      <c r="BX78" s="25"/>
+      <c r="BY78" s="25"/>
+      <c r="BZ78" s="25"/>
+      <c r="CA78" s="25"/>
+      <c r="CB78" s="25"/>
+      <c r="CC78" s="25"/>
+      <c r="CD78" s="25"/>
+      <c r="CE78" s="25"/>
+      <c r="CF78" s="25"/>
+      <c r="CG78" s="25"/>
+      <c r="CH78" s="25"/>
+      <c r="CI78" s="25"/>
+      <c r="CJ78" s="25"/>
+      <c r="CK78" s="25"/>
+      <c r="CL78" s="25"/>
+      <c r="CM78" s="25"/>
+      <c r="CN78" s="25"/>
+      <c r="CO78" s="25"/>
+      <c r="CP78" s="25"/>
+      <c r="CQ78" s="25"/>
+      <c r="CR78" s="25"/>
+      <c r="CS78" s="25"/>
+      <c r="CT78" s="25"/>
+      <c r="CU78" s="25"/>
+      <c r="CV78" s="25"/>
+      <c r="CW78" s="25"/>
+      <c r="CX78" s="25"/>
+      <c r="CY78" s="25"/>
+      <c r="CZ78" s="25"/>
+      <c r="DA78" s="25"/>
+      <c r="DB78" s="25"/>
+      <c r="DC78" s="25"/>
+      <c r="DD78" s="25"/>
+      <c r="DE78" s="25"/>
+      <c r="DF78" s="25"/>
+      <c r="DG78" s="25"/>
+      <c r="DH78" s="25"/>
+      <c r="DI78" s="25"/>
+      <c r="DJ78" s="25"/>
+      <c r="DK78" s="25"/>
+      <c r="DL78" s="25"/>
+      <c r="DM78" s="25"/>
+      <c r="DN78" s="25"/>
+      <c r="DO78" s="25"/>
+      <c r="DP78" s="25"/>
+      <c r="DQ78" s="25"/>
+      <c r="DR78" s="25"/>
+      <c r="DS78" s="25"/>
+      <c r="DT78" s="25"/>
+      <c r="DU78" s="25"/>
+      <c r="DV78" s="25"/>
+      <c r="DW78" s="25"/>
+      <c r="DX78" s="25"/>
+      <c r="DY78" s="25"/>
+      <c r="DZ78" s="25"/>
+      <c r="EA78" s="25"/>
+      <c r="EB78" s="25"/>
+      <c r="EC78" s="25"/>
+      <c r="ED78" s="25"/>
+      <c r="EE78" s="25"/>
+      <c r="EF78" s="25"/>
+      <c r="EG78" s="25"/>
+      <c r="EH78" s="25"/>
+      <c r="EI78" s="25"/>
+      <c r="EJ78" s="25"/>
+      <c r="EK78" s="25"/>
+      <c r="EL78" s="25"/>
+      <c r="EM78" s="25"/>
+      <c r="EN78" s="25"/>
+      <c r="EO78" s="25"/>
+      <c r="EP78" s="25"/>
+      <c r="EQ78" s="25"/>
+      <c r="ER78" s="25"/>
+      <c r="ES78" s="25"/>
+      <c r="ET78" s="25"/>
+      <c r="EU78" s="25"/>
+      <c r="EV78" s="25"/>
+      <c r="EW78" s="25"/>
+      <c r="EX78" s="25"/>
+      <c r="EY78" s="25"/>
+      <c r="EZ78" s="25"/>
+      <c r="FA78" s="25"/>
+      <c r="FB78" s="25"/>
+      <c r="FC78" s="25"/>
+      <c r="FD78" s="25"/>
+      <c r="FE78" s="25"/>
+      <c r="FF78" s="25"/>
+      <c r="FG78" s="25"/>
+      <c r="FH78" s="25"/>
+      <c r="FI78" s="25"/>
+      <c r="FJ78" s="25"/>
+      <c r="FK78" s="25"/>
+      <c r="FL78" s="25"/>
+      <c r="FM78" s="25"/>
+      <c r="FN78" s="25"/>
+      <c r="FO78" s="25"/>
+      <c r="FP78" s="25"/>
+      <c r="FQ78" s="25"/>
+      <c r="FR78" s="25"/>
+      <c r="FS78" s="25"/>
+      <c r="FT78" s="25"/>
+      <c r="FU78" s="25"/>
+      <c r="FV78" s="25"/>
+      <c r="FW78" s="25"/>
+      <c r="FX78" s="25"/>
+      <c r="FY78" s="25"/>
+      <c r="FZ78" s="25"/>
+      <c r="GA78" s="25"/>
+      <c r="GB78" s="25"/>
+      <c r="GC78" s="25"/>
+      <c r="GD78" s="25"/>
+      <c r="GE78" s="25"/>
+      <c r="GF78" s="25"/>
+      <c r="GG78" s="25"/>
+      <c r="GH78" s="25"/>
+      <c r="GI78" s="25"/>
+      <c r="GJ78" s="25"/>
+      <c r="GK78" s="25"/>
+      <c r="GL78" s="25"/>
+      <c r="GM78" s="25"/>
+      <c r="GN78" s="25"/>
+      <c r="GO78" s="25"/>
+      <c r="GP78" s="25"/>
+      <c r="GQ78" s="25"/>
+      <c r="GR78" s="25"/>
+      <c r="GS78" s="25"/>
+      <c r="GT78" s="25"/>
+      <c r="GU78" s="25"/>
+      <c r="GV78" s="25"/>
+      <c r="GW78" s="25"/>
+      <c r="GX78" s="25"/>
+      <c r="GY78" s="25"/>
+      <c r="GZ78" s="25"/>
+      <c r="HA78" s="25"/>
+      <c r="HB78" s="25"/>
+      <c r="HC78" s="25"/>
+      <c r="HD78" s="25"/>
+      <c r="HE78" s="25"/>
+      <c r="HF78" s="25"/>
+      <c r="HG78" s="25"/>
+      <c r="HH78" s="25"/>
+      <c r="HI78" s="25"/>
+      <c r="HJ78" s="25"/>
+      <c r="HK78" s="25"/>
+      <c r="HL78" s="25"/>
+      <c r="HM78" s="25"/>
+      <c r="HN78" s="25"/>
+      <c r="HO78" s="25"/>
+      <c r="HP78" s="25"/>
+      <c r="HQ78" s="25"/>
+      <c r="HR78" s="25"/>
+      <c r="HS78" s="25"/>
+      <c r="HT78" s="25"/>
+      <c r="HU78" s="25"/>
+      <c r="HV78" s="25"/>
+      <c r="HW78" s="25"/>
+      <c r="HX78" s="25"/>
+      <c r="HY78" s="25"/>
+      <c r="HZ78" s="25"/>
+      <c r="IA78" s="25"/>
+      <c r="IB78" s="25"/>
+      <c r="IC78" s="25"/>
+      <c r="ID78" s="25"/>
+      <c r="IE78" s="25"/>
+      <c r="IF78" s="25"/>
+      <c r="IG78" s="25"/>
+      <c r="IH78" s="25"/>
+      <c r="II78" s="25"/>
+      <c r="IJ78" s="25"/>
+      <c r="IK78" s="25"/>
+      <c r="IL78" s="25"/>
+      <c r="IM78" s="25"/>
+      <c r="IN78" s="25"/>
+      <c r="IO78" s="25"/>
+      <c r="IP78" s="25"/>
+      <c r="IQ78" s="25"/>
+      <c r="IR78" s="25"/>
+      <c r="IS78" s="25"/>
     </row>
-    <row r="77" spans="1:253" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="58" t="s">
+    <row r="79" spans="1:253" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="59" t="s">
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="60" t="s">
+      <c r="E79" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="60" t="s">
+      <c r="F79" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G77" s="61">
-        <f>MIN(G78:G82)</f>
+      <c r="G79" s="61">
+        <f>MIN(G80:G84)</f>
         <v>45059</v>
       </c>
-      <c r="H77" s="61">
-        <f>MAX(H78:H82)</f>
+      <c r="H79" s="61">
+        <f>MAX(H80:H84)</f>
         <v>45102</v>
       </c>
-      <c r="I77" s="62">
-        <f t="shared" si="103"/>
+      <c r="I79" s="62">
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
-      <c r="J77" s="63">
-        <f t="shared" si="104"/>
+      <c r="J79" s="63">
+        <f t="shared" si="112"/>
         <v>43</v>
       </c>
-      <c r="K77" s="64">
-        <f>G77+(INT(J77*L77))</f>
+      <c r="K79" s="64">
+        <f>G79+(INT(J79*L79))</f>
         <v>45059</v>
       </c>
-      <c r="L77" s="65">
-        <f>AVERAGE(L78:L82)</f>
+      <c r="L79" s="65">
+        <f>AVERAGE(L80:L84)</f>
         <v>0</v>
       </c>
-      <c r="M77" s="57"/>
-      <c r="N77" s="57"/>
-      <c r="O77" s="57"/>
-      <c r="P77" s="57"/>
-      <c r="Q77" s="57"/>
-      <c r="R77" s="57"/>
-      <c r="S77" s="57"/>
-      <c r="T77" s="57"/>
-      <c r="U77" s="57"/>
-      <c r="V77" s="57"/>
-      <c r="W77" s="57"/>
-      <c r="X77" s="57"/>
-      <c r="Y77" s="57"/>
-      <c r="Z77" s="57"/>
-      <c r="AA77" s="57"/>
-      <c r="AB77" s="57"/>
-      <c r="AC77" s="57"/>
-      <c r="AD77" s="57"/>
-      <c r="AE77" s="57"/>
-      <c r="AF77" s="57"/>
-      <c r="AG77" s="57"/>
-      <c r="AH77" s="57"/>
-      <c r="AI77" s="57"/>
-      <c r="AJ77" s="57"/>
-      <c r="AK77" s="57"/>
-      <c r="AL77" s="57"/>
-      <c r="AM77" s="57"/>
-      <c r="AN77" s="57"/>
-      <c r="AO77" s="57"/>
-      <c r="AP77" s="57"/>
-      <c r="AQ77" s="57"/>
-      <c r="AR77" s="57"/>
-      <c r="AS77" s="57"/>
-      <c r="AT77" s="57"/>
-      <c r="AU77" s="57"/>
-      <c r="AV77" s="57"/>
-      <c r="AW77" s="57"/>
-      <c r="AX77" s="57"/>
-      <c r="AY77" s="57"/>
-      <c r="AZ77" s="57"/>
-      <c r="BA77" s="57"/>
-      <c r="BB77" s="57"/>
-      <c r="BC77" s="57"/>
-      <c r="BD77" s="57"/>
-      <c r="BE77" s="57"/>
-      <c r="BF77" s="57"/>
-      <c r="BG77" s="57"/>
-      <c r="BH77" s="57"/>
-      <c r="BI77" s="57"/>
-      <c r="BJ77" s="57"/>
-      <c r="BK77" s="57"/>
-      <c r="BL77" s="57"/>
-      <c r="BM77" s="57"/>
-      <c r="BN77" s="57"/>
-      <c r="BO77" s="57"/>
-      <c r="BP77" s="57"/>
-      <c r="BQ77" s="57"/>
-      <c r="BR77" s="57"/>
-      <c r="BS77" s="57"/>
-      <c r="BT77" s="57"/>
-      <c r="BU77" s="57"/>
-      <c r="BV77" s="57"/>
-      <c r="BW77" s="57"/>
-      <c r="BX77" s="57"/>
-      <c r="BY77" s="57"/>
-      <c r="BZ77" s="57"/>
-      <c r="CA77" s="57"/>
-      <c r="CB77" s="57"/>
-      <c r="CC77" s="57"/>
-      <c r="CD77" s="57"/>
-      <c r="CE77" s="57"/>
-      <c r="CF77" s="57"/>
-      <c r="CG77" s="57"/>
-      <c r="CH77" s="57"/>
-      <c r="CI77" s="57"/>
-      <c r="CJ77" s="57"/>
-      <c r="CK77" s="57"/>
-      <c r="CL77" s="57"/>
-      <c r="CM77" s="57"/>
-      <c r="CN77" s="57"/>
-      <c r="CO77" s="57"/>
-      <c r="CP77" s="57"/>
-      <c r="CQ77" s="57"/>
-      <c r="CR77" s="57"/>
-      <c r="CS77" s="57"/>
-      <c r="CT77" s="57"/>
-      <c r="CU77" s="57"/>
-      <c r="CV77" s="57"/>
-      <c r="CW77" s="57"/>
-      <c r="CX77" s="57"/>
-      <c r="CY77" s="57"/>
-      <c r="CZ77" s="57"/>
-      <c r="DA77" s="57"/>
-      <c r="DB77" s="57"/>
-      <c r="DC77" s="57"/>
-      <c r="DD77" s="57"/>
-      <c r="DE77" s="57"/>
-      <c r="DF77" s="57"/>
-      <c r="DG77" s="57"/>
-      <c r="DH77" s="57"/>
-      <c r="DI77" s="57"/>
-      <c r="DJ77" s="57"/>
-      <c r="DK77" s="57"/>
-      <c r="DL77" s="57"/>
-      <c r="DM77" s="57"/>
-      <c r="DN77" s="57"/>
-      <c r="DO77" s="57"/>
-      <c r="DP77" s="57"/>
-      <c r="DQ77" s="57"/>
-      <c r="DR77" s="57"/>
-      <c r="DS77" s="57"/>
-      <c r="DT77" s="57"/>
-      <c r="DU77" s="57"/>
-      <c r="DV77" s="57"/>
-      <c r="DW77" s="57"/>
-      <c r="DX77" s="57"/>
-      <c r="DY77" s="57"/>
-      <c r="DZ77" s="57"/>
-      <c r="EA77" s="57"/>
-      <c r="EB77" s="57"/>
-      <c r="EC77" s="57"/>
-      <c r="ED77" s="57"/>
-      <c r="EE77" s="57"/>
-      <c r="EF77" s="57"/>
-      <c r="EG77" s="57"/>
-      <c r="EH77" s="57"/>
-      <c r="EI77" s="57"/>
-      <c r="EJ77" s="57"/>
-      <c r="EK77" s="57"/>
-      <c r="EL77" s="57"/>
-      <c r="EM77" s="57"/>
-      <c r="EN77" s="57"/>
-      <c r="EO77" s="57"/>
-      <c r="EP77" s="57"/>
-      <c r="EQ77" s="57"/>
-      <c r="ER77" s="57"/>
-      <c r="ES77" s="57"/>
-      <c r="ET77" s="57"/>
-      <c r="EU77" s="57"/>
-      <c r="EV77" s="57"/>
-      <c r="EW77" s="57"/>
-      <c r="EX77" s="57"/>
-      <c r="EY77" s="57"/>
-      <c r="EZ77" s="57"/>
-      <c r="FA77" s="57"/>
-      <c r="FB77" s="57"/>
-      <c r="FC77" s="57"/>
-      <c r="FD77" s="57"/>
-      <c r="FE77" s="57"/>
-      <c r="FF77" s="57"/>
-      <c r="FG77" s="57"/>
-      <c r="FH77" s="57"/>
-      <c r="FI77" s="57"/>
-      <c r="FJ77" s="57"/>
-      <c r="FK77" s="57"/>
-      <c r="FL77" s="57"/>
-      <c r="FM77" s="57"/>
-      <c r="FN77" s="57"/>
-      <c r="FO77" s="57"/>
-      <c r="FP77" s="57"/>
-      <c r="FQ77" s="57"/>
-      <c r="FR77" s="57"/>
-      <c r="FS77" s="57"/>
-      <c r="FT77" s="57"/>
-      <c r="FU77" s="57"/>
-      <c r="FV77" s="57"/>
-      <c r="FW77" s="57"/>
-      <c r="FX77" s="57"/>
-      <c r="FY77" s="57"/>
-      <c r="FZ77" s="57"/>
-      <c r="GA77" s="57"/>
-      <c r="GB77" s="57"/>
-      <c r="GC77" s="57"/>
-      <c r="GD77" s="57"/>
-      <c r="GE77" s="57"/>
-      <c r="GF77" s="57"/>
-      <c r="GG77" s="57"/>
-      <c r="GH77" s="57"/>
-      <c r="GI77" s="57"/>
-      <c r="GJ77" s="57"/>
-      <c r="GK77" s="57"/>
-      <c r="GL77" s="57"/>
-      <c r="GM77" s="57"/>
-      <c r="GN77" s="57"/>
-      <c r="GO77" s="57"/>
-      <c r="GP77" s="57"/>
-      <c r="GQ77" s="57"/>
-      <c r="GR77" s="57"/>
-      <c r="GS77" s="57"/>
-      <c r="GT77" s="57"/>
-      <c r="GU77" s="57"/>
-      <c r="GV77" s="57"/>
-      <c r="GW77" s="57"/>
-      <c r="GX77" s="57"/>
-      <c r="GY77" s="57"/>
-      <c r="GZ77" s="57"/>
-      <c r="HA77" s="57"/>
-      <c r="HB77" s="57"/>
-      <c r="HC77" s="57"/>
-      <c r="HD77" s="57"/>
-      <c r="HE77" s="57"/>
-      <c r="HF77" s="57"/>
-      <c r="HG77" s="57"/>
-      <c r="HH77" s="57"/>
-      <c r="HI77" s="57"/>
-      <c r="HJ77" s="57"/>
-      <c r="HK77" s="57"/>
-      <c r="HL77" s="57"/>
-      <c r="HM77" s="57"/>
-      <c r="HN77" s="57"/>
-      <c r="HO77" s="57"/>
-      <c r="HP77" s="57"/>
-      <c r="HQ77" s="57"/>
-      <c r="HR77" s="57"/>
-      <c r="HS77" s="57"/>
-      <c r="HT77" s="57"/>
-      <c r="HU77" s="57"/>
-      <c r="HV77" s="57"/>
-      <c r="HW77" s="57"/>
-      <c r="HX77" s="57"/>
-      <c r="HY77" s="57"/>
-      <c r="HZ77" s="57"/>
-      <c r="IA77" s="57"/>
-      <c r="IB77" s="57"/>
-      <c r="IC77" s="57"/>
-      <c r="ID77" s="57"/>
-      <c r="IE77" s="57"/>
-      <c r="IF77" s="57"/>
-      <c r="IG77" s="57"/>
-      <c r="IH77" s="57"/>
-      <c r="II77" s="57"/>
-      <c r="IJ77" s="57"/>
-      <c r="IK77" s="57"/>
-      <c r="IL77" s="57"/>
-      <c r="IM77" s="57"/>
-      <c r="IN77" s="57"/>
-      <c r="IO77" s="57"/>
-      <c r="IP77" s="57"/>
-      <c r="IQ77" s="57"/>
-      <c r="IR77" s="57"/>
-      <c r="IS77" s="57"/>
-    </row>
-    <row r="78" spans="1:253" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="22">
-        <v>45063</v>
-      </c>
-      <c r="H78" s="22">
-        <v>45098</v>
-      </c>
-      <c r="I78" s="15">
-        <f t="shared" si="103"/>
-        <v>26</v>
-      </c>
-      <c r="J78" s="16">
-        <f t="shared" si="104"/>
-        <v>35</v>
-      </c>
-      <c r="K78" s="17">
-        <f>IF(L78=0,G78-1,G78+(INT(J78*L78)))</f>
-        <v>45062</v>
-      </c>
-      <c r="L78" s="18">
-        <v>0</v>
-      </c>
-      <c r="M78" s="19"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="20"/>
-      <c r="W78" s="20"/>
-      <c r="X78" s="20"/>
-      <c r="Y78" s="20"/>
-      <c r="Z78" s="24"/>
-      <c r="AA78" s="24"/>
-      <c r="AB78" s="24"/>
-      <c r="AC78" s="24"/>
-      <c r="AD78" s="24"/>
-      <c r="AE78" s="24"/>
-      <c r="AF78" s="24"/>
-      <c r="AG78" s="24"/>
-      <c r="AH78" s="24"/>
-      <c r="AI78" s="24"/>
-      <c r="AJ78" s="24"/>
-      <c r="AK78" s="24"/>
-      <c r="AL78" s="20"/>
-      <c r="AM78" s="20"/>
-      <c r="AN78" s="20"/>
-      <c r="AO78" s="20"/>
-      <c r="AP78" s="20"/>
-      <c r="AQ78" s="20"/>
-      <c r="AR78" s="20"/>
-      <c r="AS78" s="20"/>
-      <c r="AT78" s="20"/>
-      <c r="AU78" s="20"/>
-      <c r="AV78" s="20"/>
-      <c r="AW78" s="20"/>
-      <c r="AX78" s="20"/>
-      <c r="AY78" s="20"/>
-      <c r="AZ78" s="20"/>
-      <c r="BA78" s="20"/>
-      <c r="BB78" s="20"/>
-      <c r="BC78" s="20"/>
-      <c r="BD78" s="20"/>
-      <c r="BE78" s="20"/>
-      <c r="BF78" s="20"/>
-      <c r="BG78" s="20"/>
-      <c r="BH78" s="20"/>
-      <c r="BI78" s="20"/>
-      <c r="BJ78" s="20"/>
-      <c r="BK78" s="20"/>
-      <c r="BL78" s="20"/>
-      <c r="BM78" s="20"/>
-      <c r="BN78" s="20"/>
-      <c r="BO78" s="20"/>
-      <c r="BP78" s="20"/>
-      <c r="BQ78" s="20"/>
-      <c r="BR78" s="20"/>
-      <c r="BS78" s="20"/>
-      <c r="BT78" s="20"/>
-      <c r="BU78" s="20"/>
-      <c r="BV78" s="20"/>
-      <c r="BW78" s="20"/>
-      <c r="BX78" s="20"/>
-      <c r="BY78" s="20"/>
-      <c r="BZ78" s="20"/>
-      <c r="CA78" s="20"/>
-      <c r="CB78" s="20"/>
-      <c r="CC78" s="20"/>
-      <c r="CD78" s="20"/>
-      <c r="CE78" s="20"/>
-      <c r="CF78" s="20"/>
-      <c r="CG78" s="20"/>
-      <c r="CH78" s="20"/>
-      <c r="CI78" s="20"/>
-      <c r="CJ78" s="20"/>
-      <c r="CK78" s="20"/>
-      <c r="CL78" s="20"/>
-      <c r="CM78" s="20"/>
-      <c r="CN78" s="20"/>
-      <c r="CO78" s="20"/>
-      <c r="CP78" s="20"/>
-      <c r="CQ78" s="20"/>
-      <c r="CR78" s="20"/>
-      <c r="CS78" s="20"/>
-      <c r="CT78" s="20"/>
-      <c r="CU78" s="20"/>
-      <c r="CV78" s="20"/>
-      <c r="CW78" s="20"/>
-      <c r="CX78" s="20"/>
-      <c r="CY78" s="20"/>
-      <c r="CZ78" s="20"/>
-      <c r="DA78" s="20"/>
-      <c r="DB78" s="20"/>
-      <c r="DC78" s="20"/>
-      <c r="DD78" s="20"/>
-      <c r="DE78" s="20"/>
-      <c r="DF78" s="20"/>
-      <c r="DG78" s="20"/>
-      <c r="DH78" s="20"/>
-      <c r="DI78" s="20"/>
-      <c r="DJ78" s="20"/>
-      <c r="DK78" s="20"/>
-      <c r="DL78" s="20"/>
-      <c r="DM78" s="20"/>
-      <c r="DN78" s="20"/>
-      <c r="DO78" s="20"/>
-      <c r="DP78" s="20"/>
-      <c r="DQ78" s="20"/>
-      <c r="DR78" s="20"/>
-      <c r="DS78" s="20"/>
-      <c r="DT78" s="20"/>
-      <c r="DU78" s="20"/>
-      <c r="DV78" s="20"/>
-      <c r="DW78" s="20"/>
-      <c r="DX78" s="20"/>
-      <c r="DY78" s="20"/>
-      <c r="DZ78" s="20"/>
-      <c r="EA78" s="20"/>
-      <c r="EB78" s="20"/>
-      <c r="EC78" s="20"/>
-      <c r="ED78" s="20"/>
-      <c r="EE78" s="20"/>
-      <c r="EF78" s="20"/>
-      <c r="EG78" s="20"/>
-      <c r="EH78" s="20"/>
-      <c r="EI78" s="20"/>
-      <c r="EJ78" s="20"/>
-      <c r="EK78" s="20"/>
-      <c r="EL78" s="20"/>
-      <c r="EM78" s="20"/>
-      <c r="EN78" s="20"/>
-      <c r="EO78" s="20"/>
-      <c r="EP78" s="20"/>
-      <c r="EQ78" s="20"/>
-      <c r="ER78" s="20"/>
-      <c r="ES78" s="20"/>
-      <c r="ET78" s="20"/>
-      <c r="EU78" s="20"/>
-      <c r="EV78" s="20"/>
-      <c r="EW78" s="20"/>
-      <c r="EX78" s="20"/>
-      <c r="EY78" s="20"/>
-      <c r="EZ78" s="20"/>
-      <c r="FA78" s="20"/>
-      <c r="FB78" s="20"/>
-      <c r="FC78" s="20"/>
-      <c r="FD78" s="20"/>
-      <c r="FE78" s="20"/>
-      <c r="FF78" s="20"/>
-      <c r="FG78" s="20"/>
-      <c r="FH78" s="20"/>
-      <c r="FI78" s="20"/>
-      <c r="FJ78" s="20"/>
-      <c r="FK78" s="20"/>
-      <c r="FL78" s="20"/>
-      <c r="FM78" s="20"/>
-      <c r="FN78" s="20"/>
-      <c r="FO78" s="20"/>
-      <c r="FP78" s="20"/>
-      <c r="FQ78" s="20"/>
-      <c r="FR78" s="20"/>
-      <c r="FS78" s="20"/>
-      <c r="FT78" s="20"/>
-      <c r="FU78" s="20"/>
-      <c r="FV78" s="20"/>
-      <c r="FW78" s="20"/>
-      <c r="FX78" s="20"/>
-      <c r="FY78" s="20"/>
-      <c r="FZ78" s="20"/>
-      <c r="GA78" s="20"/>
-      <c r="GB78" s="20"/>
-      <c r="GC78" s="20"/>
-      <c r="GD78" s="20"/>
-      <c r="GE78" s="20"/>
-      <c r="GF78" s="20"/>
-      <c r="GG78" s="20"/>
-      <c r="GH78" s="20"/>
-      <c r="GI78" s="20"/>
-      <c r="GJ78" s="20"/>
-      <c r="GK78" s="20"/>
-      <c r="GL78" s="20"/>
-      <c r="GM78" s="20"/>
-      <c r="GN78" s="20"/>
-      <c r="GO78" s="20"/>
-      <c r="GP78" s="20"/>
-      <c r="GQ78" s="20"/>
-      <c r="GR78" s="20"/>
-      <c r="GS78" s="20"/>
-      <c r="GT78" s="20"/>
-      <c r="GU78" s="20"/>
-      <c r="GV78" s="20"/>
-      <c r="GW78" s="20"/>
-      <c r="GX78" s="20"/>
-      <c r="GY78" s="20"/>
-      <c r="GZ78" s="20"/>
-      <c r="HA78" s="20"/>
-      <c r="HB78" s="20"/>
-      <c r="HC78" s="20"/>
-      <c r="HD78" s="20"/>
-      <c r="HE78" s="20"/>
-      <c r="HF78" s="20"/>
-      <c r="HG78" s="20"/>
-      <c r="HH78" s="20"/>
-      <c r="HI78" s="20"/>
-      <c r="HJ78" s="20"/>
-      <c r="HK78" s="20"/>
-      <c r="HL78" s="20"/>
-      <c r="HM78" s="20"/>
-      <c r="HN78" s="20"/>
-      <c r="HO78" s="20"/>
-      <c r="HP78" s="20"/>
-      <c r="HQ78" s="20"/>
-      <c r="HR78" s="20"/>
-      <c r="HS78" s="20"/>
-      <c r="HT78" s="20"/>
-      <c r="HU78" s="20"/>
-      <c r="HV78" s="20"/>
-      <c r="HW78" s="20"/>
-      <c r="HX78" s="20"/>
-      <c r="HY78" s="20"/>
-      <c r="HZ78" s="20"/>
-      <c r="IA78" s="20"/>
-      <c r="IB78" s="20"/>
-      <c r="IC78" s="20"/>
-      <c r="ID78" s="20"/>
-      <c r="IE78" s="20"/>
-      <c r="IF78" s="20"/>
-      <c r="IG78" s="20"/>
-      <c r="IH78" s="20"/>
-      <c r="II78" s="20"/>
-      <c r="IJ78" s="20"/>
-      <c r="IK78" s="20"/>
-      <c r="IL78" s="20"/>
-      <c r="IM78" s="20"/>
-      <c r="IN78" s="20"/>
-      <c r="IO78" s="20"/>
-      <c r="IP78" s="20"/>
-      <c r="IQ78" s="20"/>
-      <c r="IR78" s="20"/>
-      <c r="IS78" s="20"/>
-    </row>
-    <row r="79" spans="1:253" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="21"/>
-      <c r="F79" s="14" t="str">
-        <f>IF(L79=0%,"진행 전",IF(L79=100%,"완료","진행중"))</f>
-        <v>진행 전</v>
-      </c>
-      <c r="G79" s="22">
-        <v>45063</v>
-      </c>
-      <c r="H79" s="22">
-        <v>45099</v>
-      </c>
-      <c r="I79" s="15">
-        <f t="shared" si="103"/>
-        <v>27</v>
-      </c>
-      <c r="J79" s="16">
-        <f t="shared" si="104"/>
-        <v>36</v>
-      </c>
-      <c r="K79" s="17">
-        <f>IF(L79=0,G79-1,G79+(INT(J79*L79)))</f>
-        <v>45062</v>
-      </c>
-      <c r="L79" s="18">
-        <v>0</v>
-      </c>
-      <c r="M79" s="19"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
-      <c r="V79" s="20"/>
-      <c r="W79" s="20"/>
-      <c r="X79" s="20"/>
-      <c r="Y79" s="20"/>
-      <c r="Z79" s="24"/>
-      <c r="AA79" s="24"/>
-      <c r="AB79" s="24"/>
-      <c r="AC79" s="24"/>
-      <c r="AD79" s="24"/>
-      <c r="AE79" s="24"/>
-      <c r="AF79" s="24"/>
-      <c r="AG79" s="24"/>
-      <c r="AH79" s="24"/>
-      <c r="AI79" s="24"/>
-      <c r="AJ79" s="24"/>
-      <c r="AK79" s="24"/>
-      <c r="AL79" s="20"/>
-      <c r="AM79" s="20"/>
-      <c r="AN79" s="20"/>
-      <c r="AO79" s="20"/>
-      <c r="AP79" s="20"/>
-      <c r="AQ79" s="20"/>
-      <c r="AR79" s="20"/>
-      <c r="AS79" s="20"/>
-      <c r="AT79" s="20"/>
-      <c r="AU79" s="20"/>
-      <c r="AV79" s="20"/>
-      <c r="AW79" s="20"/>
-      <c r="AX79" s="20"/>
-      <c r="AY79" s="20"/>
-      <c r="AZ79" s="20"/>
-      <c r="BA79" s="20"/>
-      <c r="BB79" s="20"/>
-      <c r="BC79" s="20"/>
-      <c r="BD79" s="20"/>
-      <c r="BE79" s="20"/>
-      <c r="BF79" s="20"/>
-      <c r="BG79" s="20"/>
-      <c r="BH79" s="20"/>
-      <c r="BI79" s="20"/>
-      <c r="BJ79" s="20"/>
-      <c r="BK79" s="20"/>
-      <c r="BL79" s="20"/>
-      <c r="BM79" s="20"/>
-      <c r="BN79" s="20"/>
-      <c r="BO79" s="20"/>
-      <c r="BP79" s="20"/>
-      <c r="BQ79" s="20"/>
-      <c r="BR79" s="20"/>
-      <c r="BS79" s="20"/>
-      <c r="BT79" s="20"/>
-      <c r="BU79" s="20"/>
-      <c r="BV79" s="20"/>
-      <c r="BW79" s="20"/>
-      <c r="BX79" s="20"/>
-      <c r="BY79" s="20"/>
-      <c r="BZ79" s="20"/>
-      <c r="CA79" s="20"/>
-      <c r="CB79" s="20"/>
-      <c r="CC79" s="20"/>
-      <c r="CD79" s="20"/>
-      <c r="CE79" s="20"/>
-      <c r="CF79" s="20"/>
-      <c r="CG79" s="20"/>
-      <c r="CH79" s="20"/>
-      <c r="CI79" s="20"/>
-      <c r="CJ79" s="20"/>
-      <c r="CK79" s="20"/>
-      <c r="CL79" s="20"/>
-      <c r="CM79" s="20"/>
-      <c r="CN79" s="20"/>
-      <c r="CO79" s="20"/>
-      <c r="CP79" s="20"/>
-      <c r="CQ79" s="20"/>
-      <c r="CR79" s="20"/>
-      <c r="CS79" s="20"/>
-      <c r="CT79" s="20"/>
-      <c r="CU79" s="20"/>
-      <c r="CV79" s="20"/>
-      <c r="CW79" s="20"/>
-      <c r="CX79" s="20"/>
-      <c r="CY79" s="20"/>
-      <c r="CZ79" s="20"/>
-      <c r="DA79" s="20"/>
-      <c r="DB79" s="20"/>
-      <c r="DC79" s="20"/>
-      <c r="DD79" s="20"/>
-      <c r="DE79" s="20"/>
-      <c r="DF79" s="20"/>
-      <c r="DG79" s="20"/>
-      <c r="DH79" s="20"/>
-      <c r="DI79" s="20"/>
-      <c r="DJ79" s="20"/>
-      <c r="DK79" s="20"/>
-      <c r="DL79" s="20"/>
-      <c r="DM79" s="20"/>
-      <c r="DN79" s="20"/>
-      <c r="DO79" s="20"/>
-      <c r="DP79" s="20"/>
-      <c r="DQ79" s="20"/>
-      <c r="DR79" s="20"/>
-      <c r="DS79" s="20"/>
-      <c r="DT79" s="20"/>
-      <c r="DU79" s="20"/>
-      <c r="DV79" s="20"/>
-      <c r="DW79" s="20"/>
-      <c r="DX79" s="20"/>
-      <c r="DY79" s="20"/>
-      <c r="DZ79" s="20"/>
-      <c r="EA79" s="20"/>
-      <c r="EB79" s="20"/>
-      <c r="EC79" s="20"/>
-      <c r="ED79" s="20"/>
-      <c r="EE79" s="20"/>
-      <c r="EF79" s="20"/>
-      <c r="EG79" s="20"/>
-      <c r="EH79" s="20"/>
-      <c r="EI79" s="20"/>
-      <c r="EJ79" s="20"/>
-      <c r="EK79" s="20"/>
-      <c r="EL79" s="20"/>
-      <c r="EM79" s="20"/>
-      <c r="EN79" s="20"/>
-      <c r="EO79" s="20"/>
-      <c r="EP79" s="20"/>
-      <c r="EQ79" s="20"/>
-      <c r="ER79" s="20"/>
-      <c r="ES79" s="20"/>
-      <c r="ET79" s="20"/>
-      <c r="EU79" s="20"/>
-      <c r="EV79" s="20"/>
-      <c r="EW79" s="20"/>
-      <c r="EX79" s="20"/>
-      <c r="EY79" s="20"/>
-      <c r="EZ79" s="20"/>
-      <c r="FA79" s="20"/>
-      <c r="FB79" s="20"/>
-      <c r="FC79" s="20"/>
-      <c r="FD79" s="20"/>
-      <c r="FE79" s="20"/>
-      <c r="FF79" s="20"/>
-      <c r="FG79" s="20"/>
-      <c r="FH79" s="20"/>
-      <c r="FI79" s="20"/>
-      <c r="FJ79" s="20"/>
-      <c r="FK79" s="20"/>
-      <c r="FL79" s="20"/>
-      <c r="FM79" s="20"/>
-      <c r="FN79" s="20"/>
-      <c r="FO79" s="20"/>
-      <c r="FP79" s="20"/>
-      <c r="FQ79" s="20"/>
-      <c r="FR79" s="20"/>
-      <c r="FS79" s="20"/>
-      <c r="FT79" s="20"/>
-      <c r="FU79" s="20"/>
-      <c r="FV79" s="20"/>
-      <c r="FW79" s="20"/>
-      <c r="FX79" s="20"/>
-      <c r="FY79" s="20"/>
-      <c r="FZ79" s="20"/>
-      <c r="GA79" s="20"/>
-      <c r="GB79" s="20"/>
-      <c r="GC79" s="20"/>
-      <c r="GD79" s="20"/>
-      <c r="GE79" s="20"/>
-      <c r="GF79" s="20"/>
-      <c r="GG79" s="20"/>
-      <c r="GH79" s="20"/>
-      <c r="GI79" s="20"/>
-      <c r="GJ79" s="20"/>
-      <c r="GK79" s="20"/>
-      <c r="GL79" s="20"/>
-      <c r="GM79" s="20"/>
-      <c r="GN79" s="20"/>
-      <c r="GO79" s="20"/>
-      <c r="GP79" s="20"/>
-      <c r="GQ79" s="20"/>
-      <c r="GR79" s="20"/>
-      <c r="GS79" s="20"/>
-      <c r="GT79" s="20"/>
-      <c r="GU79" s="20"/>
-      <c r="GV79" s="20"/>
-      <c r="GW79" s="20"/>
-      <c r="GX79" s="20"/>
-      <c r="GY79" s="20"/>
-      <c r="GZ79" s="20"/>
-      <c r="HA79" s="20"/>
-      <c r="HB79" s="20"/>
-      <c r="HC79" s="20"/>
-      <c r="HD79" s="20"/>
-      <c r="HE79" s="20"/>
-      <c r="HF79" s="20"/>
-      <c r="HG79" s="20"/>
-      <c r="HH79" s="20"/>
-      <c r="HI79" s="20"/>
-      <c r="HJ79" s="20"/>
-      <c r="HK79" s="20"/>
-      <c r="HL79" s="20"/>
-      <c r="HM79" s="20"/>
-      <c r="HN79" s="20"/>
-      <c r="HO79" s="20"/>
-      <c r="HP79" s="20"/>
-      <c r="HQ79" s="20"/>
-      <c r="HR79" s="20"/>
-      <c r="HS79" s="20"/>
-      <c r="HT79" s="20"/>
-      <c r="HU79" s="20"/>
-      <c r="HV79" s="20"/>
-      <c r="HW79" s="20"/>
-      <c r="HX79" s="20"/>
-      <c r="HY79" s="20"/>
-      <c r="HZ79" s="20"/>
-      <c r="IA79" s="20"/>
-      <c r="IB79" s="20"/>
-      <c r="IC79" s="20"/>
-      <c r="ID79" s="20"/>
-      <c r="IE79" s="20"/>
-      <c r="IF79" s="20"/>
-      <c r="IG79" s="20"/>
-      <c r="IH79" s="20"/>
-      <c r="II79" s="20"/>
-      <c r="IJ79" s="20"/>
-      <c r="IK79" s="20"/>
-      <c r="IL79" s="20"/>
-      <c r="IM79" s="20"/>
-      <c r="IN79" s="20"/>
-      <c r="IO79" s="20"/>
-      <c r="IP79" s="20"/>
-      <c r="IQ79" s="20"/>
-      <c r="IR79" s="20"/>
-      <c r="IS79" s="20"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="57"/>
+      <c r="V79" s="57"/>
+      <c r="W79" s="57"/>
+      <c r="X79" s="57"/>
+      <c r="Y79" s="57"/>
+      <c r="Z79" s="57"/>
+      <c r="AA79" s="57"/>
+      <c r="AB79" s="57"/>
+      <c r="AC79" s="57"/>
+      <c r="AD79" s="57"/>
+      <c r="AE79" s="57"/>
+      <c r="AF79" s="57"/>
+      <c r="AG79" s="57"/>
+      <c r="AH79" s="57"/>
+      <c r="AI79" s="57"/>
+      <c r="AJ79" s="57"/>
+      <c r="AK79" s="57"/>
+      <c r="AL79" s="57"/>
+      <c r="AM79" s="57"/>
+      <c r="AN79" s="57"/>
+      <c r="AO79" s="57"/>
+      <c r="AP79" s="57"/>
+      <c r="AQ79" s="57"/>
+      <c r="AR79" s="57"/>
+      <c r="AS79" s="57"/>
+      <c r="AT79" s="57"/>
+      <c r="AU79" s="57"/>
+      <c r="AV79" s="57"/>
+      <c r="AW79" s="57"/>
+      <c r="AX79" s="57"/>
+      <c r="AY79" s="57"/>
+      <c r="AZ79" s="57"/>
+      <c r="BA79" s="57"/>
+      <c r="BB79" s="57"/>
+      <c r="BC79" s="57"/>
+      <c r="BD79" s="57"/>
+      <c r="BE79" s="57"/>
+      <c r="BF79" s="57"/>
+      <c r="BG79" s="57"/>
+      <c r="BH79" s="57"/>
+      <c r="BI79" s="57"/>
+      <c r="BJ79" s="57"/>
+      <c r="BK79" s="57"/>
+      <c r="BL79" s="57"/>
+      <c r="BM79" s="57"/>
+      <c r="BN79" s="57"/>
+      <c r="BO79" s="57"/>
+      <c r="BP79" s="57"/>
+      <c r="BQ79" s="57"/>
+      <c r="BR79" s="57"/>
+      <c r="BS79" s="57"/>
+      <c r="BT79" s="57"/>
+      <c r="BU79" s="57"/>
+      <c r="BV79" s="57"/>
+      <c r="BW79" s="57"/>
+      <c r="BX79" s="57"/>
+      <c r="BY79" s="57"/>
+      <c r="BZ79" s="57"/>
+      <c r="CA79" s="57"/>
+      <c r="CB79" s="57"/>
+      <c r="CC79" s="57"/>
+      <c r="CD79" s="57"/>
+      <c r="CE79" s="57"/>
+      <c r="CF79" s="57"/>
+      <c r="CG79" s="57"/>
+      <c r="CH79" s="57"/>
+      <c r="CI79" s="57"/>
+      <c r="CJ79" s="57"/>
+      <c r="CK79" s="57"/>
+      <c r="CL79" s="57"/>
+      <c r="CM79" s="57"/>
+      <c r="CN79" s="57"/>
+      <c r="CO79" s="57"/>
+      <c r="CP79" s="57"/>
+      <c r="CQ79" s="57"/>
+      <c r="CR79" s="57"/>
+      <c r="CS79" s="57"/>
+      <c r="CT79" s="57"/>
+      <c r="CU79" s="57"/>
+      <c r="CV79" s="57"/>
+      <c r="CW79" s="57"/>
+      <c r="CX79" s="57"/>
+      <c r="CY79" s="57"/>
+      <c r="CZ79" s="57"/>
+      <c r="DA79" s="57"/>
+      <c r="DB79" s="57"/>
+      <c r="DC79" s="57"/>
+      <c r="DD79" s="57"/>
+      <c r="DE79" s="57"/>
+      <c r="DF79" s="57"/>
+      <c r="DG79" s="57"/>
+      <c r="DH79" s="57"/>
+      <c r="DI79" s="57"/>
+      <c r="DJ79" s="57"/>
+      <c r="DK79" s="57"/>
+      <c r="DL79" s="57"/>
+      <c r="DM79" s="57"/>
+      <c r="DN79" s="57"/>
+      <c r="DO79" s="57"/>
+      <c r="DP79" s="57"/>
+      <c r="DQ79" s="57"/>
+      <c r="DR79" s="57"/>
+      <c r="DS79" s="57"/>
+      <c r="DT79" s="57"/>
+      <c r="DU79" s="57"/>
+      <c r="DV79" s="57"/>
+      <c r="DW79" s="57"/>
+      <c r="DX79" s="57"/>
+      <c r="DY79" s="57"/>
+      <c r="DZ79" s="57"/>
+      <c r="EA79" s="57"/>
+      <c r="EB79" s="57"/>
+      <c r="EC79" s="57"/>
+      <c r="ED79" s="57"/>
+      <c r="EE79" s="57"/>
+      <c r="EF79" s="57"/>
+      <c r="EG79" s="57"/>
+      <c r="EH79" s="57"/>
+      <c r="EI79" s="57"/>
+      <c r="EJ79" s="57"/>
+      <c r="EK79" s="57"/>
+      <c r="EL79" s="57"/>
+      <c r="EM79" s="57"/>
+      <c r="EN79" s="57"/>
+      <c r="EO79" s="57"/>
+      <c r="EP79" s="57"/>
+      <c r="EQ79" s="57"/>
+      <c r="ER79" s="57"/>
+      <c r="ES79" s="57"/>
+      <c r="ET79" s="57"/>
+      <c r="EU79" s="57"/>
+      <c r="EV79" s="57"/>
+      <c r="EW79" s="57"/>
+      <c r="EX79" s="57"/>
+      <c r="EY79" s="57"/>
+      <c r="EZ79" s="57"/>
+      <c r="FA79" s="57"/>
+      <c r="FB79" s="57"/>
+      <c r="FC79" s="57"/>
+      <c r="FD79" s="57"/>
+      <c r="FE79" s="57"/>
+      <c r="FF79" s="57"/>
+      <c r="FG79" s="57"/>
+      <c r="FH79" s="57"/>
+      <c r="FI79" s="57"/>
+      <c r="FJ79" s="57"/>
+      <c r="FK79" s="57"/>
+      <c r="FL79" s="57"/>
+      <c r="FM79" s="57"/>
+      <c r="FN79" s="57"/>
+      <c r="FO79" s="57"/>
+      <c r="FP79" s="57"/>
+      <c r="FQ79" s="57"/>
+      <c r="FR79" s="57"/>
+      <c r="FS79" s="57"/>
+      <c r="FT79" s="57"/>
+      <c r="FU79" s="57"/>
+      <c r="FV79" s="57"/>
+      <c r="FW79" s="57"/>
+      <c r="FX79" s="57"/>
+      <c r="FY79" s="57"/>
+      <c r="FZ79" s="57"/>
+      <c r="GA79" s="57"/>
+      <c r="GB79" s="57"/>
+      <c r="GC79" s="57"/>
+      <c r="GD79" s="57"/>
+      <c r="GE79" s="57"/>
+      <c r="GF79" s="57"/>
+      <c r="GG79" s="57"/>
+      <c r="GH79" s="57"/>
+      <c r="GI79" s="57"/>
+      <c r="GJ79" s="57"/>
+      <c r="GK79" s="57"/>
+      <c r="GL79" s="57"/>
+      <c r="GM79" s="57"/>
+      <c r="GN79" s="57"/>
+      <c r="GO79" s="57"/>
+      <c r="GP79" s="57"/>
+      <c r="GQ79" s="57"/>
+      <c r="GR79" s="57"/>
+      <c r="GS79" s="57"/>
+      <c r="GT79" s="57"/>
+      <c r="GU79" s="57"/>
+      <c r="GV79" s="57"/>
+      <c r="GW79" s="57"/>
+      <c r="GX79" s="57"/>
+      <c r="GY79" s="57"/>
+      <c r="GZ79" s="57"/>
+      <c r="HA79" s="57"/>
+      <c r="HB79" s="57"/>
+      <c r="HC79" s="57"/>
+      <c r="HD79" s="57"/>
+      <c r="HE79" s="57"/>
+      <c r="HF79" s="57"/>
+      <c r="HG79" s="57"/>
+      <c r="HH79" s="57"/>
+      <c r="HI79" s="57"/>
+      <c r="HJ79" s="57"/>
+      <c r="HK79" s="57"/>
+      <c r="HL79" s="57"/>
+      <c r="HM79" s="57"/>
+      <c r="HN79" s="57"/>
+      <c r="HO79" s="57"/>
+      <c r="HP79" s="57"/>
+      <c r="HQ79" s="57"/>
+      <c r="HR79" s="57"/>
+      <c r="HS79" s="57"/>
+      <c r="HT79" s="57"/>
+      <c r="HU79" s="57"/>
+      <c r="HV79" s="57"/>
+      <c r="HW79" s="57"/>
+      <c r="HX79" s="57"/>
+      <c r="HY79" s="57"/>
+      <c r="HZ79" s="57"/>
+      <c r="IA79" s="57"/>
+      <c r="IB79" s="57"/>
+      <c r="IC79" s="57"/>
+      <c r="ID79" s="57"/>
+      <c r="IE79" s="57"/>
+      <c r="IF79" s="57"/>
+      <c r="IG79" s="57"/>
+      <c r="IH79" s="57"/>
+      <c r="II79" s="57"/>
+      <c r="IJ79" s="57"/>
+      <c r="IK79" s="57"/>
+      <c r="IL79" s="57"/>
+      <c r="IM79" s="57"/>
+      <c r="IN79" s="57"/>
+      <c r="IO79" s="57"/>
+      <c r="IP79" s="57"/>
+      <c r="IQ79" s="57"/>
+      <c r="IR79" s="57"/>
+      <c r="IS79" s="57"/>
     </row>
     <row r="80" spans="1:253" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E80" s="21"/>
-      <c r="F80" s="14" t="str">
-        <f t="shared" ref="F80:F81" si="105">IF(L80=0%,"진행 전",IF(L80=100%,"완료","진행중"))</f>
-        <v>진행 전</v>
+      <c r="F80" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="G80" s="22">
         <v>45063</v>
       </c>
       <c r="H80" s="22">
-        <v>45100</v>
+        <v>45098</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="103"/>
-        <v>28</v>
+        <f t="shared" si="111"/>
+        <v>26</v>
       </c>
       <c r="J80" s="16">
-        <f t="shared" si="104"/>
-        <v>37</v>
+        <f t="shared" si="112"/>
+        <v>35</v>
       </c>
       <c r="K80" s="17">
         <f>IF(L80=0,G80-1,G80+(INT(J80*L80)))</f>
@@ -17098,31 +16677,31 @@
     </row>
     <row r="81" spans="1:253" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E81" s="21"/>
       <c r="F81" s="14" t="str">
-        <f t="shared" si="105"/>
+        <f>IF(L81=0%,"진행 전",IF(L81=100%,"완료","진행중"))</f>
         <v>진행 전</v>
       </c>
       <c r="G81" s="22">
         <v>45063</v>
       </c>
       <c r="H81" s="22">
-        <v>45101</v>
+        <v>45099</v>
       </c>
       <c r="I81" s="15">
-        <f t="shared" si="103"/>
-        <v>28</v>
+        <f t="shared" si="111"/>
+        <v>27</v>
       </c>
       <c r="J81" s="16">
-        <f t="shared" si="104"/>
-        <v>38</v>
+        <f t="shared" si="112"/>
+        <v>36</v>
       </c>
       <c r="K81" s="17">
         <f>IF(L81=0,G81-1,G81+(INT(J81*L81)))</f>
@@ -17373,1144 +16952,1144 @@
       <c r="IR81" s="20"/>
       <c r="IS81" s="20"/>
     </row>
-    <row r="82" spans="1:253" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+    <row r="82" spans="1:253" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="21"/>
+      <c r="F82" s="14" t="str">
+        <f t="shared" ref="F82:F83" si="113">IF(L82=0%,"진행 전",IF(L82=100%,"완료","진행중"))</f>
+        <v>진행 전</v>
+      </c>
+      <c r="G82" s="22">
+        <v>45063</v>
+      </c>
+      <c r="H82" s="22">
+        <v>45100</v>
+      </c>
+      <c r="I82" s="15">
+        <f t="shared" si="111"/>
+        <v>28</v>
+      </c>
+      <c r="J82" s="16">
+        <f t="shared" si="112"/>
+        <v>37</v>
+      </c>
+      <c r="K82" s="17">
+        <f>IF(L82=0,G82-1,G82+(INT(J82*L82)))</f>
+        <v>45062</v>
+      </c>
+      <c r="L82" s="18">
+        <v>0</v>
+      </c>
+      <c r="M82" s="19"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="24"/>
+      <c r="AA82" s="24"/>
+      <c r="AB82" s="24"/>
+      <c r="AC82" s="24"/>
+      <c r="AD82" s="24"/>
+      <c r="AE82" s="24"/>
+      <c r="AF82" s="24"/>
+      <c r="AG82" s="24"/>
+      <c r="AH82" s="24"/>
+      <c r="AI82" s="24"/>
+      <c r="AJ82" s="24"/>
+      <c r="AK82" s="24"/>
+      <c r="AL82" s="20"/>
+      <c r="AM82" s="20"/>
+      <c r="AN82" s="20"/>
+      <c r="AO82" s="20"/>
+      <c r="AP82" s="20"/>
+      <c r="AQ82" s="20"/>
+      <c r="AR82" s="20"/>
+      <c r="AS82" s="20"/>
+      <c r="AT82" s="20"/>
+      <c r="AU82" s="20"/>
+      <c r="AV82" s="20"/>
+      <c r="AW82" s="20"/>
+      <c r="AX82" s="20"/>
+      <c r="AY82" s="20"/>
+      <c r="AZ82" s="20"/>
+      <c r="BA82" s="20"/>
+      <c r="BB82" s="20"/>
+      <c r="BC82" s="20"/>
+      <c r="BD82" s="20"/>
+      <c r="BE82" s="20"/>
+      <c r="BF82" s="20"/>
+      <c r="BG82" s="20"/>
+      <c r="BH82" s="20"/>
+      <c r="BI82" s="20"/>
+      <c r="BJ82" s="20"/>
+      <c r="BK82" s="20"/>
+      <c r="BL82" s="20"/>
+      <c r="BM82" s="20"/>
+      <c r="BN82" s="20"/>
+      <c r="BO82" s="20"/>
+      <c r="BP82" s="20"/>
+      <c r="BQ82" s="20"/>
+      <c r="BR82" s="20"/>
+      <c r="BS82" s="20"/>
+      <c r="BT82" s="20"/>
+      <c r="BU82" s="20"/>
+      <c r="BV82" s="20"/>
+      <c r="BW82" s="20"/>
+      <c r="BX82" s="20"/>
+      <c r="BY82" s="20"/>
+      <c r="BZ82" s="20"/>
+      <c r="CA82" s="20"/>
+      <c r="CB82" s="20"/>
+      <c r="CC82" s="20"/>
+      <c r="CD82" s="20"/>
+      <c r="CE82" s="20"/>
+      <c r="CF82" s="20"/>
+      <c r="CG82" s="20"/>
+      <c r="CH82" s="20"/>
+      <c r="CI82" s="20"/>
+      <c r="CJ82" s="20"/>
+      <c r="CK82" s="20"/>
+      <c r="CL82" s="20"/>
+      <c r="CM82" s="20"/>
+      <c r="CN82" s="20"/>
+      <c r="CO82" s="20"/>
+      <c r="CP82" s="20"/>
+      <c r="CQ82" s="20"/>
+      <c r="CR82" s="20"/>
+      <c r="CS82" s="20"/>
+      <c r="CT82" s="20"/>
+      <c r="CU82" s="20"/>
+      <c r="CV82" s="20"/>
+      <c r="CW82" s="20"/>
+      <c r="CX82" s="20"/>
+      <c r="CY82" s="20"/>
+      <c r="CZ82" s="20"/>
+      <c r="DA82" s="20"/>
+      <c r="DB82" s="20"/>
+      <c r="DC82" s="20"/>
+      <c r="DD82" s="20"/>
+      <c r="DE82" s="20"/>
+      <c r="DF82" s="20"/>
+      <c r="DG82" s="20"/>
+      <c r="DH82" s="20"/>
+      <c r="DI82" s="20"/>
+      <c r="DJ82" s="20"/>
+      <c r="DK82" s="20"/>
+      <c r="DL82" s="20"/>
+      <c r="DM82" s="20"/>
+      <c r="DN82" s="20"/>
+      <c r="DO82" s="20"/>
+      <c r="DP82" s="20"/>
+      <c r="DQ82" s="20"/>
+      <c r="DR82" s="20"/>
+      <c r="DS82" s="20"/>
+      <c r="DT82" s="20"/>
+      <c r="DU82" s="20"/>
+      <c r="DV82" s="20"/>
+      <c r="DW82" s="20"/>
+      <c r="DX82" s="20"/>
+      <c r="DY82" s="20"/>
+      <c r="DZ82" s="20"/>
+      <c r="EA82" s="20"/>
+      <c r="EB82" s="20"/>
+      <c r="EC82" s="20"/>
+      <c r="ED82" s="20"/>
+      <c r="EE82" s="20"/>
+      <c r="EF82" s="20"/>
+      <c r="EG82" s="20"/>
+      <c r="EH82" s="20"/>
+      <c r="EI82" s="20"/>
+      <c r="EJ82" s="20"/>
+      <c r="EK82" s="20"/>
+      <c r="EL82" s="20"/>
+      <c r="EM82" s="20"/>
+      <c r="EN82" s="20"/>
+      <c r="EO82" s="20"/>
+      <c r="EP82" s="20"/>
+      <c r="EQ82" s="20"/>
+      <c r="ER82" s="20"/>
+      <c r="ES82" s="20"/>
+      <c r="ET82" s="20"/>
+      <c r="EU82" s="20"/>
+      <c r="EV82" s="20"/>
+      <c r="EW82" s="20"/>
+      <c r="EX82" s="20"/>
+      <c r="EY82" s="20"/>
+      <c r="EZ82" s="20"/>
+      <c r="FA82" s="20"/>
+      <c r="FB82" s="20"/>
+      <c r="FC82" s="20"/>
+      <c r="FD82" s="20"/>
+      <c r="FE82" s="20"/>
+      <c r="FF82" s="20"/>
+      <c r="FG82" s="20"/>
+      <c r="FH82" s="20"/>
+      <c r="FI82" s="20"/>
+      <c r="FJ82" s="20"/>
+      <c r="FK82" s="20"/>
+      <c r="FL82" s="20"/>
+      <c r="FM82" s="20"/>
+      <c r="FN82" s="20"/>
+      <c r="FO82" s="20"/>
+      <c r="FP82" s="20"/>
+      <c r="FQ82" s="20"/>
+      <c r="FR82" s="20"/>
+      <c r="FS82" s="20"/>
+      <c r="FT82" s="20"/>
+      <c r="FU82" s="20"/>
+      <c r="FV82" s="20"/>
+      <c r="FW82" s="20"/>
+      <c r="FX82" s="20"/>
+      <c r="FY82" s="20"/>
+      <c r="FZ82" s="20"/>
+      <c r="GA82" s="20"/>
+      <c r="GB82" s="20"/>
+      <c r="GC82" s="20"/>
+      <c r="GD82" s="20"/>
+      <c r="GE82" s="20"/>
+      <c r="GF82" s="20"/>
+      <c r="GG82" s="20"/>
+      <c r="GH82" s="20"/>
+      <c r="GI82" s="20"/>
+      <c r="GJ82" s="20"/>
+      <c r="GK82" s="20"/>
+      <c r="GL82" s="20"/>
+      <c r="GM82" s="20"/>
+      <c r="GN82" s="20"/>
+      <c r="GO82" s="20"/>
+      <c r="GP82" s="20"/>
+      <c r="GQ82" s="20"/>
+      <c r="GR82" s="20"/>
+      <c r="GS82" s="20"/>
+      <c r="GT82" s="20"/>
+      <c r="GU82" s="20"/>
+      <c r="GV82" s="20"/>
+      <c r="GW82" s="20"/>
+      <c r="GX82" s="20"/>
+      <c r="GY82" s="20"/>
+      <c r="GZ82" s="20"/>
+      <c r="HA82" s="20"/>
+      <c r="HB82" s="20"/>
+      <c r="HC82" s="20"/>
+      <c r="HD82" s="20"/>
+      <c r="HE82" s="20"/>
+      <c r="HF82" s="20"/>
+      <c r="HG82" s="20"/>
+      <c r="HH82" s="20"/>
+      <c r="HI82" s="20"/>
+      <c r="HJ82" s="20"/>
+      <c r="HK82" s="20"/>
+      <c r="HL82" s="20"/>
+      <c r="HM82" s="20"/>
+      <c r="HN82" s="20"/>
+      <c r="HO82" s="20"/>
+      <c r="HP82" s="20"/>
+      <c r="HQ82" s="20"/>
+      <c r="HR82" s="20"/>
+      <c r="HS82" s="20"/>
+      <c r="HT82" s="20"/>
+      <c r="HU82" s="20"/>
+      <c r="HV82" s="20"/>
+      <c r="HW82" s="20"/>
+      <c r="HX82" s="20"/>
+      <c r="HY82" s="20"/>
+      <c r="HZ82" s="20"/>
+      <c r="IA82" s="20"/>
+      <c r="IB82" s="20"/>
+      <c r="IC82" s="20"/>
+      <c r="ID82" s="20"/>
+      <c r="IE82" s="20"/>
+      <c r="IF82" s="20"/>
+      <c r="IG82" s="20"/>
+      <c r="IH82" s="20"/>
+      <c r="II82" s="20"/>
+      <c r="IJ82" s="20"/>
+      <c r="IK82" s="20"/>
+      <c r="IL82" s="20"/>
+      <c r="IM82" s="20"/>
+      <c r="IN82" s="20"/>
+      <c r="IO82" s="20"/>
+      <c r="IP82" s="20"/>
+      <c r="IQ82" s="20"/>
+      <c r="IR82" s="20"/>
+      <c r="IS82" s="20"/>
+    </row>
+    <row r="83" spans="1:253" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="21"/>
+      <c r="F83" s="14" t="str">
+        <f t="shared" si="113"/>
+        <v>진행 전</v>
+      </c>
+      <c r="G83" s="22">
+        <v>45063</v>
+      </c>
+      <c r="H83" s="22">
+        <v>45101</v>
+      </c>
+      <c r="I83" s="15">
+        <f t="shared" si="111"/>
+        <v>28</v>
+      </c>
+      <c r="J83" s="16">
+        <f t="shared" si="112"/>
         <v>38</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="28" t="s">
+      <c r="K83" s="17">
+        <f>IF(L83=0,G83-1,G83+(INT(J83*L83)))</f>
+        <v>45062</v>
+      </c>
+      <c r="L83" s="18">
+        <v>0</v>
+      </c>
+      <c r="M83" s="19"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="24"/>
+      <c r="AA83" s="24"/>
+      <c r="AB83" s="24"/>
+      <c r="AC83" s="24"/>
+      <c r="AD83" s="24"/>
+      <c r="AE83" s="24"/>
+      <c r="AF83" s="24"/>
+      <c r="AG83" s="24"/>
+      <c r="AH83" s="24"/>
+      <c r="AI83" s="24"/>
+      <c r="AJ83" s="24"/>
+      <c r="AK83" s="24"/>
+      <c r="AL83" s="20"/>
+      <c r="AM83" s="20"/>
+      <c r="AN83" s="20"/>
+      <c r="AO83" s="20"/>
+      <c r="AP83" s="20"/>
+      <c r="AQ83" s="20"/>
+      <c r="AR83" s="20"/>
+      <c r="AS83" s="20"/>
+      <c r="AT83" s="20"/>
+      <c r="AU83" s="20"/>
+      <c r="AV83" s="20"/>
+      <c r="AW83" s="20"/>
+      <c r="AX83" s="20"/>
+      <c r="AY83" s="20"/>
+      <c r="AZ83" s="20"/>
+      <c r="BA83" s="20"/>
+      <c r="BB83" s="20"/>
+      <c r="BC83" s="20"/>
+      <c r="BD83" s="20"/>
+      <c r="BE83" s="20"/>
+      <c r="BF83" s="20"/>
+      <c r="BG83" s="20"/>
+      <c r="BH83" s="20"/>
+      <c r="BI83" s="20"/>
+      <c r="BJ83" s="20"/>
+      <c r="BK83" s="20"/>
+      <c r="BL83" s="20"/>
+      <c r="BM83" s="20"/>
+      <c r="BN83" s="20"/>
+      <c r="BO83" s="20"/>
+      <c r="BP83" s="20"/>
+      <c r="BQ83" s="20"/>
+      <c r="BR83" s="20"/>
+      <c r="BS83" s="20"/>
+      <c r="BT83" s="20"/>
+      <c r="BU83" s="20"/>
+      <c r="BV83" s="20"/>
+      <c r="BW83" s="20"/>
+      <c r="BX83" s="20"/>
+      <c r="BY83" s="20"/>
+      <c r="BZ83" s="20"/>
+      <c r="CA83" s="20"/>
+      <c r="CB83" s="20"/>
+      <c r="CC83" s="20"/>
+      <c r="CD83" s="20"/>
+      <c r="CE83" s="20"/>
+      <c r="CF83" s="20"/>
+      <c r="CG83" s="20"/>
+      <c r="CH83" s="20"/>
+      <c r="CI83" s="20"/>
+      <c r="CJ83" s="20"/>
+      <c r="CK83" s="20"/>
+      <c r="CL83" s="20"/>
+      <c r="CM83" s="20"/>
+      <c r="CN83" s="20"/>
+      <c r="CO83" s="20"/>
+      <c r="CP83" s="20"/>
+      <c r="CQ83" s="20"/>
+      <c r="CR83" s="20"/>
+      <c r="CS83" s="20"/>
+      <c r="CT83" s="20"/>
+      <c r="CU83" s="20"/>
+      <c r="CV83" s="20"/>
+      <c r="CW83" s="20"/>
+      <c r="CX83" s="20"/>
+      <c r="CY83" s="20"/>
+      <c r="CZ83" s="20"/>
+      <c r="DA83" s="20"/>
+      <c r="DB83" s="20"/>
+      <c r="DC83" s="20"/>
+      <c r="DD83" s="20"/>
+      <c r="DE83" s="20"/>
+      <c r="DF83" s="20"/>
+      <c r="DG83" s="20"/>
+      <c r="DH83" s="20"/>
+      <c r="DI83" s="20"/>
+      <c r="DJ83" s="20"/>
+      <c r="DK83" s="20"/>
+      <c r="DL83" s="20"/>
+      <c r="DM83" s="20"/>
+      <c r="DN83" s="20"/>
+      <c r="DO83" s="20"/>
+      <c r="DP83" s="20"/>
+      <c r="DQ83" s="20"/>
+      <c r="DR83" s="20"/>
+      <c r="DS83" s="20"/>
+      <c r="DT83" s="20"/>
+      <c r="DU83" s="20"/>
+      <c r="DV83" s="20"/>
+      <c r="DW83" s="20"/>
+      <c r="DX83" s="20"/>
+      <c r="DY83" s="20"/>
+      <c r="DZ83" s="20"/>
+      <c r="EA83" s="20"/>
+      <c r="EB83" s="20"/>
+      <c r="EC83" s="20"/>
+      <c r="ED83" s="20"/>
+      <c r="EE83" s="20"/>
+      <c r="EF83" s="20"/>
+      <c r="EG83" s="20"/>
+      <c r="EH83" s="20"/>
+      <c r="EI83" s="20"/>
+      <c r="EJ83" s="20"/>
+      <c r="EK83" s="20"/>
+      <c r="EL83" s="20"/>
+      <c r="EM83" s="20"/>
+      <c r="EN83" s="20"/>
+      <c r="EO83" s="20"/>
+      <c r="EP83" s="20"/>
+      <c r="EQ83" s="20"/>
+      <c r="ER83" s="20"/>
+      <c r="ES83" s="20"/>
+      <c r="ET83" s="20"/>
+      <c r="EU83" s="20"/>
+      <c r="EV83" s="20"/>
+      <c r="EW83" s="20"/>
+      <c r="EX83" s="20"/>
+      <c r="EY83" s="20"/>
+      <c r="EZ83" s="20"/>
+      <c r="FA83" s="20"/>
+      <c r="FB83" s="20"/>
+      <c r="FC83" s="20"/>
+      <c r="FD83" s="20"/>
+      <c r="FE83" s="20"/>
+      <c r="FF83" s="20"/>
+      <c r="FG83" s="20"/>
+      <c r="FH83" s="20"/>
+      <c r="FI83" s="20"/>
+      <c r="FJ83" s="20"/>
+      <c r="FK83" s="20"/>
+      <c r="FL83" s="20"/>
+      <c r="FM83" s="20"/>
+      <c r="FN83" s="20"/>
+      <c r="FO83" s="20"/>
+      <c r="FP83" s="20"/>
+      <c r="FQ83" s="20"/>
+      <c r="FR83" s="20"/>
+      <c r="FS83" s="20"/>
+      <c r="FT83" s="20"/>
+      <c r="FU83" s="20"/>
+      <c r="FV83" s="20"/>
+      <c r="FW83" s="20"/>
+      <c r="FX83" s="20"/>
+      <c r="FY83" s="20"/>
+      <c r="FZ83" s="20"/>
+      <c r="GA83" s="20"/>
+      <c r="GB83" s="20"/>
+      <c r="GC83" s="20"/>
+      <c r="GD83" s="20"/>
+      <c r="GE83" s="20"/>
+      <c r="GF83" s="20"/>
+      <c r="GG83" s="20"/>
+      <c r="GH83" s="20"/>
+      <c r="GI83" s="20"/>
+      <c r="GJ83" s="20"/>
+      <c r="GK83" s="20"/>
+      <c r="GL83" s="20"/>
+      <c r="GM83" s="20"/>
+      <c r="GN83" s="20"/>
+      <c r="GO83" s="20"/>
+      <c r="GP83" s="20"/>
+      <c r="GQ83" s="20"/>
+      <c r="GR83" s="20"/>
+      <c r="GS83" s="20"/>
+      <c r="GT83" s="20"/>
+      <c r="GU83" s="20"/>
+      <c r="GV83" s="20"/>
+      <c r="GW83" s="20"/>
+      <c r="GX83" s="20"/>
+      <c r="GY83" s="20"/>
+      <c r="GZ83" s="20"/>
+      <c r="HA83" s="20"/>
+      <c r="HB83" s="20"/>
+      <c r="HC83" s="20"/>
+      <c r="HD83" s="20"/>
+      <c r="HE83" s="20"/>
+      <c r="HF83" s="20"/>
+      <c r="HG83" s="20"/>
+      <c r="HH83" s="20"/>
+      <c r="HI83" s="20"/>
+      <c r="HJ83" s="20"/>
+      <c r="HK83" s="20"/>
+      <c r="HL83" s="20"/>
+      <c r="HM83" s="20"/>
+      <c r="HN83" s="20"/>
+      <c r="HO83" s="20"/>
+      <c r="HP83" s="20"/>
+      <c r="HQ83" s="20"/>
+      <c r="HR83" s="20"/>
+      <c r="HS83" s="20"/>
+      <c r="HT83" s="20"/>
+      <c r="HU83" s="20"/>
+      <c r="HV83" s="20"/>
+      <c r="HW83" s="20"/>
+      <c r="HX83" s="20"/>
+      <c r="HY83" s="20"/>
+      <c r="HZ83" s="20"/>
+      <c r="IA83" s="20"/>
+      <c r="IB83" s="20"/>
+      <c r="IC83" s="20"/>
+      <c r="ID83" s="20"/>
+      <c r="IE83" s="20"/>
+      <c r="IF83" s="20"/>
+      <c r="IG83" s="20"/>
+      <c r="IH83" s="20"/>
+      <c r="II83" s="20"/>
+      <c r="IJ83" s="20"/>
+      <c r="IK83" s="20"/>
+      <c r="IL83" s="20"/>
+      <c r="IM83" s="20"/>
+      <c r="IN83" s="20"/>
+      <c r="IO83" s="20"/>
+      <c r="IP83" s="20"/>
+      <c r="IQ83" s="20"/>
+      <c r="IR83" s="20"/>
+      <c r="IS83" s="20"/>
+    </row>
+    <row r="84" spans="1:253" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="37"/>
-      <c r="F82" s="30" t="s">
+      <c r="E84" s="37"/>
+      <c r="F84" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G82" s="26">
+      <c r="G84" s="26">
         <v>45059</v>
       </c>
-      <c r="H82" s="26">
+      <c r="H84" s="26">
         <v>45102</v>
       </c>
-      <c r="I82" s="31">
-        <f t="shared" si="103"/>
+      <c r="I84" s="31">
+        <f t="shared" si="111"/>
         <v>30</v>
       </c>
-      <c r="J82" s="32">
-        <f t="shared" si="104"/>
+      <c r="J84" s="32">
+        <f t="shared" si="112"/>
         <v>43</v>
       </c>
-      <c r="K82" s="33">
-        <f>IF(L82=0,G82-1,G82+(INT(J82*L82)))</f>
+      <c r="K84" s="33">
+        <f>IF(L84=0,G84-1,G84+(INT(J84*L84)))</f>
         <v>45058</v>
       </c>
-      <c r="L82" s="34">
+      <c r="L84" s="34">
         <v>0</v>
       </c>
-      <c r="M82" s="35"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="25"/>
-      <c r="R82" s="25"/>
-      <c r="S82" s="25"/>
-      <c r="T82" s="25"/>
-      <c r="U82" s="25"/>
-      <c r="V82" s="25"/>
-      <c r="W82" s="25"/>
-      <c r="X82" s="25"/>
-      <c r="Y82" s="25"/>
-      <c r="Z82" s="25"/>
-      <c r="AA82" s="25"/>
-      <c r="AB82" s="25"/>
-      <c r="AC82" s="25"/>
-      <c r="AD82" s="25"/>
-      <c r="AE82" s="25"/>
-      <c r="AF82" s="25"/>
-      <c r="AG82" s="25"/>
-      <c r="AH82" s="25"/>
-      <c r="AI82" s="25"/>
-      <c r="AJ82" s="25"/>
-      <c r="AK82" s="25"/>
-      <c r="AL82" s="25"/>
-      <c r="AM82" s="25"/>
-      <c r="AN82" s="25"/>
-      <c r="AO82" s="25"/>
-      <c r="AP82" s="25"/>
-      <c r="AQ82" s="25"/>
-      <c r="AR82" s="25"/>
-      <c r="AS82" s="25"/>
-      <c r="AT82" s="25"/>
-      <c r="AU82" s="25"/>
-      <c r="AV82" s="25"/>
-      <c r="AW82" s="25"/>
-      <c r="AX82" s="25"/>
-      <c r="AY82" s="25"/>
-      <c r="AZ82" s="25"/>
-      <c r="BA82" s="25"/>
-      <c r="BB82" s="25"/>
-      <c r="BC82" s="25"/>
-      <c r="BD82" s="25"/>
-      <c r="BE82" s="25"/>
-      <c r="BF82" s="25"/>
-      <c r="BG82" s="25"/>
-      <c r="BH82" s="25"/>
-      <c r="BI82" s="25"/>
-      <c r="BJ82" s="25"/>
-      <c r="BK82" s="25"/>
-      <c r="BL82" s="25"/>
-      <c r="BM82" s="25"/>
-      <c r="BN82" s="25"/>
-      <c r="BO82" s="25"/>
-      <c r="BP82" s="25"/>
-      <c r="BQ82" s="25"/>
-      <c r="BR82" s="25"/>
-      <c r="BS82" s="25"/>
-      <c r="BT82" s="25"/>
-      <c r="BU82" s="25"/>
-      <c r="BV82" s="25"/>
-      <c r="BW82" s="25"/>
-      <c r="BX82" s="25"/>
-      <c r="BY82" s="25"/>
-      <c r="BZ82" s="25"/>
-      <c r="CA82" s="25"/>
-      <c r="CB82" s="25"/>
-      <c r="CC82" s="25"/>
-      <c r="CD82" s="25"/>
-      <c r="CE82" s="25"/>
-      <c r="CF82" s="25"/>
-      <c r="CG82" s="25"/>
-      <c r="CH82" s="25"/>
-      <c r="CI82" s="25"/>
-      <c r="CJ82" s="25"/>
-      <c r="CK82" s="25"/>
-      <c r="CL82" s="25"/>
-      <c r="CM82" s="25"/>
-      <c r="CN82" s="25"/>
-      <c r="CO82" s="25"/>
-      <c r="CP82" s="25"/>
-      <c r="CQ82" s="25"/>
-      <c r="CR82" s="25"/>
-      <c r="CS82" s="25"/>
-      <c r="CT82" s="25"/>
-      <c r="CU82" s="25"/>
-      <c r="CV82" s="25"/>
-      <c r="CW82" s="25"/>
-      <c r="CX82" s="25"/>
-      <c r="CY82" s="25"/>
-      <c r="CZ82" s="25"/>
-      <c r="DA82" s="25"/>
-      <c r="DB82" s="25"/>
-      <c r="DC82" s="25"/>
-      <c r="DD82" s="25"/>
-      <c r="DE82" s="25"/>
-      <c r="DF82" s="25"/>
-      <c r="DG82" s="25"/>
-      <c r="DH82" s="25"/>
-      <c r="DI82" s="25"/>
-      <c r="DJ82" s="25"/>
-      <c r="DK82" s="25"/>
-      <c r="DL82" s="25"/>
-      <c r="DM82" s="25"/>
-      <c r="DN82" s="25"/>
-      <c r="DO82" s="25"/>
-      <c r="DP82" s="25"/>
-      <c r="DQ82" s="25"/>
-      <c r="DR82" s="25"/>
-      <c r="DS82" s="25"/>
-      <c r="DT82" s="25"/>
-      <c r="DU82" s="25"/>
-      <c r="DV82" s="25"/>
-      <c r="DW82" s="25"/>
-      <c r="DX82" s="25"/>
-      <c r="DY82" s="25"/>
-      <c r="DZ82" s="25"/>
-      <c r="EA82" s="25"/>
-      <c r="EB82" s="25"/>
-      <c r="EC82" s="25"/>
-      <c r="ED82" s="25"/>
-      <c r="EE82" s="25"/>
-      <c r="EF82" s="25"/>
-      <c r="EG82" s="25"/>
-      <c r="EH82" s="25"/>
-      <c r="EI82" s="25"/>
-      <c r="EJ82" s="25"/>
-      <c r="EK82" s="25"/>
-      <c r="EL82" s="25"/>
-      <c r="EM82" s="25"/>
-      <c r="EN82" s="25"/>
-      <c r="EO82" s="25"/>
-      <c r="EP82" s="25"/>
-      <c r="EQ82" s="25"/>
-      <c r="ER82" s="25"/>
-      <c r="ES82" s="25"/>
-      <c r="ET82" s="25"/>
-      <c r="EU82" s="25"/>
-      <c r="EV82" s="25"/>
-      <c r="EW82" s="25"/>
-      <c r="EX82" s="25"/>
-      <c r="EY82" s="25"/>
-      <c r="EZ82" s="25"/>
-      <c r="FA82" s="25"/>
-      <c r="FB82" s="25"/>
-      <c r="FC82" s="25"/>
-      <c r="FD82" s="25"/>
-      <c r="FE82" s="25"/>
-      <c r="FF82" s="25"/>
-      <c r="FG82" s="25"/>
-      <c r="FH82" s="25"/>
-      <c r="FI82" s="25"/>
-      <c r="FJ82" s="25"/>
-      <c r="FK82" s="25"/>
-      <c r="FL82" s="25"/>
-      <c r="FM82" s="25"/>
-      <c r="FN82" s="25"/>
-      <c r="FO82" s="25"/>
-      <c r="FP82" s="25"/>
-      <c r="FQ82" s="25"/>
-      <c r="FR82" s="25"/>
-      <c r="FS82" s="25"/>
-      <c r="FT82" s="25"/>
-      <c r="FU82" s="25"/>
-      <c r="FV82" s="25"/>
-      <c r="FW82" s="25"/>
-      <c r="FX82" s="25"/>
-      <c r="FY82" s="25"/>
-      <c r="FZ82" s="25"/>
-      <c r="GA82" s="25"/>
-      <c r="GB82" s="25"/>
-      <c r="GC82" s="25"/>
-      <c r="GD82" s="25"/>
-      <c r="GE82" s="25"/>
-      <c r="GF82" s="25"/>
-      <c r="GG82" s="25"/>
-      <c r="GH82" s="25"/>
-      <c r="GI82" s="25"/>
-      <c r="GJ82" s="25"/>
-      <c r="GK82" s="25"/>
-      <c r="GL82" s="25"/>
-      <c r="GM82" s="25"/>
-      <c r="GN82" s="25"/>
-      <c r="GO82" s="25"/>
-      <c r="GP82" s="25"/>
-      <c r="GQ82" s="25"/>
-      <c r="GR82" s="25"/>
-      <c r="GS82" s="25"/>
-      <c r="GT82" s="25"/>
-      <c r="GU82" s="25"/>
-      <c r="GV82" s="25"/>
-      <c r="GW82" s="25"/>
-      <c r="GX82" s="25"/>
-      <c r="GY82" s="25"/>
-      <c r="GZ82" s="25"/>
-      <c r="HA82" s="25"/>
-      <c r="HB82" s="25"/>
-      <c r="HC82" s="25"/>
-      <c r="HD82" s="25"/>
-      <c r="HE82" s="25"/>
-      <c r="HF82" s="25"/>
-      <c r="HG82" s="25"/>
-      <c r="HH82" s="25"/>
-      <c r="HI82" s="25"/>
-      <c r="HJ82" s="25"/>
-      <c r="HK82" s="25"/>
-      <c r="HL82" s="25"/>
-      <c r="HM82" s="25"/>
-      <c r="HN82" s="25"/>
-      <c r="HO82" s="25"/>
-      <c r="HP82" s="25"/>
-      <c r="HQ82" s="25"/>
-      <c r="HR82" s="25"/>
-      <c r="HS82" s="25"/>
-      <c r="HT82" s="25"/>
-      <c r="HU82" s="25"/>
-      <c r="HV82" s="25"/>
-      <c r="HW82" s="25"/>
-      <c r="HX82" s="25"/>
-      <c r="HY82" s="25"/>
-      <c r="HZ82" s="25"/>
-      <c r="IA82" s="25"/>
-      <c r="IB82" s="25"/>
-      <c r="IC82" s="25"/>
-      <c r="ID82" s="25"/>
-      <c r="IE82" s="25"/>
-      <c r="IF82" s="25"/>
-      <c r="IG82" s="25"/>
-      <c r="IH82" s="25"/>
-      <c r="II82" s="25"/>
-      <c r="IJ82" s="25"/>
-      <c r="IK82" s="25"/>
-      <c r="IL82" s="25"/>
-      <c r="IM82" s="25"/>
-      <c r="IN82" s="25"/>
-      <c r="IO82" s="25"/>
-      <c r="IP82" s="25"/>
-      <c r="IQ82" s="25"/>
-      <c r="IR82" s="25"/>
-      <c r="IS82" s="25"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="25"/>
+      <c r="W84" s="25"/>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="25"/>
+      <c r="Z84" s="25"/>
+      <c r="AA84" s="25"/>
+      <c r="AB84" s="25"/>
+      <c r="AC84" s="25"/>
+      <c r="AD84" s="25"/>
+      <c r="AE84" s="25"/>
+      <c r="AF84" s="25"/>
+      <c r="AG84" s="25"/>
+      <c r="AH84" s="25"/>
+      <c r="AI84" s="25"/>
+      <c r="AJ84" s="25"/>
+      <c r="AK84" s="25"/>
+      <c r="AL84" s="25"/>
+      <c r="AM84" s="25"/>
+      <c r="AN84" s="25"/>
+      <c r="AO84" s="25"/>
+      <c r="AP84" s="25"/>
+      <c r="AQ84" s="25"/>
+      <c r="AR84" s="25"/>
+      <c r="AS84" s="25"/>
+      <c r="AT84" s="25"/>
+      <c r="AU84" s="25"/>
+      <c r="AV84" s="25"/>
+      <c r="AW84" s="25"/>
+      <c r="AX84" s="25"/>
+      <c r="AY84" s="25"/>
+      <c r="AZ84" s="25"/>
+      <c r="BA84" s="25"/>
+      <c r="BB84" s="25"/>
+      <c r="BC84" s="25"/>
+      <c r="BD84" s="25"/>
+      <c r="BE84" s="25"/>
+      <c r="BF84" s="25"/>
+      <c r="BG84" s="25"/>
+      <c r="BH84" s="25"/>
+      <c r="BI84" s="25"/>
+      <c r="BJ84" s="25"/>
+      <c r="BK84" s="25"/>
+      <c r="BL84" s="25"/>
+      <c r="BM84" s="25"/>
+      <c r="BN84" s="25"/>
+      <c r="BO84" s="25"/>
+      <c r="BP84" s="25"/>
+      <c r="BQ84" s="25"/>
+      <c r="BR84" s="25"/>
+      <c r="BS84" s="25"/>
+      <c r="BT84" s="25"/>
+      <c r="BU84" s="25"/>
+      <c r="BV84" s="25"/>
+      <c r="BW84" s="25"/>
+      <c r="BX84" s="25"/>
+      <c r="BY84" s="25"/>
+      <c r="BZ84" s="25"/>
+      <c r="CA84" s="25"/>
+      <c r="CB84" s="25"/>
+      <c r="CC84" s="25"/>
+      <c r="CD84" s="25"/>
+      <c r="CE84" s="25"/>
+      <c r="CF84" s="25"/>
+      <c r="CG84" s="25"/>
+      <c r="CH84" s="25"/>
+      <c r="CI84" s="25"/>
+      <c r="CJ84" s="25"/>
+      <c r="CK84" s="25"/>
+      <c r="CL84" s="25"/>
+      <c r="CM84" s="25"/>
+      <c r="CN84" s="25"/>
+      <c r="CO84" s="25"/>
+      <c r="CP84" s="25"/>
+      <c r="CQ84" s="25"/>
+      <c r="CR84" s="25"/>
+      <c r="CS84" s="25"/>
+      <c r="CT84" s="25"/>
+      <c r="CU84" s="25"/>
+      <c r="CV84" s="25"/>
+      <c r="CW84" s="25"/>
+      <c r="CX84" s="25"/>
+      <c r="CY84" s="25"/>
+      <c r="CZ84" s="25"/>
+      <c r="DA84" s="25"/>
+      <c r="DB84" s="25"/>
+      <c r="DC84" s="25"/>
+      <c r="DD84" s="25"/>
+      <c r="DE84" s="25"/>
+      <c r="DF84" s="25"/>
+      <c r="DG84" s="25"/>
+      <c r="DH84" s="25"/>
+      <c r="DI84" s="25"/>
+      <c r="DJ84" s="25"/>
+      <c r="DK84" s="25"/>
+      <c r="DL84" s="25"/>
+      <c r="DM84" s="25"/>
+      <c r="DN84" s="25"/>
+      <c r="DO84" s="25"/>
+      <c r="DP84" s="25"/>
+      <c r="DQ84" s="25"/>
+      <c r="DR84" s="25"/>
+      <c r="DS84" s="25"/>
+      <c r="DT84" s="25"/>
+      <c r="DU84" s="25"/>
+      <c r="DV84" s="25"/>
+      <c r="DW84" s="25"/>
+      <c r="DX84" s="25"/>
+      <c r="DY84" s="25"/>
+      <c r="DZ84" s="25"/>
+      <c r="EA84" s="25"/>
+      <c r="EB84" s="25"/>
+      <c r="EC84" s="25"/>
+      <c r="ED84" s="25"/>
+      <c r="EE84" s="25"/>
+      <c r="EF84" s="25"/>
+      <c r="EG84" s="25"/>
+      <c r="EH84" s="25"/>
+      <c r="EI84" s="25"/>
+      <c r="EJ84" s="25"/>
+      <c r="EK84" s="25"/>
+      <c r="EL84" s="25"/>
+      <c r="EM84" s="25"/>
+      <c r="EN84" s="25"/>
+      <c r="EO84" s="25"/>
+      <c r="EP84" s="25"/>
+      <c r="EQ84" s="25"/>
+      <c r="ER84" s="25"/>
+      <c r="ES84" s="25"/>
+      <c r="ET84" s="25"/>
+      <c r="EU84" s="25"/>
+      <c r="EV84" s="25"/>
+      <c r="EW84" s="25"/>
+      <c r="EX84" s="25"/>
+      <c r="EY84" s="25"/>
+      <c r="EZ84" s="25"/>
+      <c r="FA84" s="25"/>
+      <c r="FB84" s="25"/>
+      <c r="FC84" s="25"/>
+      <c r="FD84" s="25"/>
+      <c r="FE84" s="25"/>
+      <c r="FF84" s="25"/>
+      <c r="FG84" s="25"/>
+      <c r="FH84" s="25"/>
+      <c r="FI84" s="25"/>
+      <c r="FJ84" s="25"/>
+      <c r="FK84" s="25"/>
+      <c r="FL84" s="25"/>
+      <c r="FM84" s="25"/>
+      <c r="FN84" s="25"/>
+      <c r="FO84" s="25"/>
+      <c r="FP84" s="25"/>
+      <c r="FQ84" s="25"/>
+      <c r="FR84" s="25"/>
+      <c r="FS84" s="25"/>
+      <c r="FT84" s="25"/>
+      <c r="FU84" s="25"/>
+      <c r="FV84" s="25"/>
+      <c r="FW84" s="25"/>
+      <c r="FX84" s="25"/>
+      <c r="FY84" s="25"/>
+      <c r="FZ84" s="25"/>
+      <c r="GA84" s="25"/>
+      <c r="GB84" s="25"/>
+      <c r="GC84" s="25"/>
+      <c r="GD84" s="25"/>
+      <c r="GE84" s="25"/>
+      <c r="GF84" s="25"/>
+      <c r="GG84" s="25"/>
+      <c r="GH84" s="25"/>
+      <c r="GI84" s="25"/>
+      <c r="GJ84" s="25"/>
+      <c r="GK84" s="25"/>
+      <c r="GL84" s="25"/>
+      <c r="GM84" s="25"/>
+      <c r="GN84" s="25"/>
+      <c r="GO84" s="25"/>
+      <c r="GP84" s="25"/>
+      <c r="GQ84" s="25"/>
+      <c r="GR84" s="25"/>
+      <c r="GS84" s="25"/>
+      <c r="GT84" s="25"/>
+      <c r="GU84" s="25"/>
+      <c r="GV84" s="25"/>
+      <c r="GW84" s="25"/>
+      <c r="GX84" s="25"/>
+      <c r="GY84" s="25"/>
+      <c r="GZ84" s="25"/>
+      <c r="HA84" s="25"/>
+      <c r="HB84" s="25"/>
+      <c r="HC84" s="25"/>
+      <c r="HD84" s="25"/>
+      <c r="HE84" s="25"/>
+      <c r="HF84" s="25"/>
+      <c r="HG84" s="25"/>
+      <c r="HH84" s="25"/>
+      <c r="HI84" s="25"/>
+      <c r="HJ84" s="25"/>
+      <c r="HK84" s="25"/>
+      <c r="HL84" s="25"/>
+      <c r="HM84" s="25"/>
+      <c r="HN84" s="25"/>
+      <c r="HO84" s="25"/>
+      <c r="HP84" s="25"/>
+      <c r="HQ84" s="25"/>
+      <c r="HR84" s="25"/>
+      <c r="HS84" s="25"/>
+      <c r="HT84" s="25"/>
+      <c r="HU84" s="25"/>
+      <c r="HV84" s="25"/>
+      <c r="HW84" s="25"/>
+      <c r="HX84" s="25"/>
+      <c r="HY84" s="25"/>
+      <c r="HZ84" s="25"/>
+      <c r="IA84" s="25"/>
+      <c r="IB84" s="25"/>
+      <c r="IC84" s="25"/>
+      <c r="ID84" s="25"/>
+      <c r="IE84" s="25"/>
+      <c r="IF84" s="25"/>
+      <c r="IG84" s="25"/>
+      <c r="IH84" s="25"/>
+      <c r="II84" s="25"/>
+      <c r="IJ84" s="25"/>
+      <c r="IK84" s="25"/>
+      <c r="IL84" s="25"/>
+      <c r="IM84" s="25"/>
+      <c r="IN84" s="25"/>
+      <c r="IO84" s="25"/>
+      <c r="IP84" s="25"/>
+      <c r="IQ84" s="25"/>
+      <c r="IR84" s="25"/>
+      <c r="IS84" s="25"/>
     </row>
-    <row r="83" spans="1:253" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="58" t="s">
+    <row r="85" spans="1:253" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="59" t="s">
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="E83" s="60" t="s">
+      <c r="E85" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F83" s="60" t="s">
+      <c r="F85" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="61">
-        <f>MIN(G84:G87)</f>
+      <c r="G85" s="61">
+        <f>MIN(G86:G89)</f>
         <v>45063</v>
       </c>
-      <c r="H83" s="61">
-        <f>MAX(H84:H87)</f>
+      <c r="H85" s="61">
+        <f>MAX(H86:H89)</f>
         <v>45101</v>
       </c>
-      <c r="I83" s="62">
-        <f t="shared" si="103"/>
+      <c r="I85" s="62">
+        <f t="shared" si="111"/>
         <v>28</v>
       </c>
-      <c r="J83" s="63">
-        <f t="shared" si="104"/>
+      <c r="J85" s="63">
+        <f t="shared" si="112"/>
         <v>38</v>
       </c>
-      <c r="K83" s="64">
-        <f>G83+(INT(J83*L83))</f>
+      <c r="K85" s="64">
+        <f>G85+(INT(J85*L85))</f>
         <v>45063</v>
       </c>
-      <c r="L83" s="65">
-        <f>AVERAGE(L84:L87)</f>
+      <c r="L85" s="65">
+        <f>AVERAGE(L86:L89)</f>
         <v>0</v>
       </c>
-      <c r="M83" s="57"/>
-      <c r="N83" s="57"/>
-      <c r="O83" s="57"/>
-      <c r="P83" s="57"/>
-      <c r="Q83" s="57"/>
-      <c r="R83" s="57"/>
-      <c r="S83" s="57"/>
-      <c r="T83" s="57"/>
-      <c r="U83" s="57"/>
-      <c r="V83" s="57"/>
-      <c r="W83" s="57"/>
-      <c r="X83" s="57"/>
-      <c r="Y83" s="57"/>
-      <c r="Z83" s="57"/>
-      <c r="AA83" s="57"/>
-      <c r="AB83" s="57"/>
-      <c r="AC83" s="57"/>
-      <c r="AD83" s="57"/>
-      <c r="AE83" s="57"/>
-      <c r="AF83" s="57"/>
-      <c r="AG83" s="57"/>
-      <c r="AH83" s="57"/>
-      <c r="AI83" s="57"/>
-      <c r="AJ83" s="57"/>
-      <c r="AK83" s="57"/>
-      <c r="AL83" s="57"/>
-      <c r="AM83" s="57"/>
-      <c r="AN83" s="57"/>
-      <c r="AO83" s="57"/>
-      <c r="AP83" s="57"/>
-      <c r="AQ83" s="57"/>
-      <c r="AR83" s="57"/>
-      <c r="AS83" s="57"/>
-      <c r="AT83" s="57"/>
-      <c r="AU83" s="57"/>
-      <c r="AV83" s="57"/>
-      <c r="AW83" s="57"/>
-      <c r="AX83" s="57"/>
-      <c r="AY83" s="57"/>
-      <c r="AZ83" s="57"/>
-      <c r="BA83" s="57"/>
-      <c r="BB83" s="57"/>
-      <c r="BC83" s="57"/>
-      <c r="BD83" s="57"/>
-      <c r="BE83" s="57"/>
-      <c r="BF83" s="57"/>
-      <c r="BG83" s="57"/>
-      <c r="BH83" s="57"/>
-      <c r="BI83" s="57"/>
-      <c r="BJ83" s="57"/>
-      <c r="BK83" s="57"/>
-      <c r="BL83" s="57"/>
-      <c r="BM83" s="57"/>
-      <c r="BN83" s="57"/>
-      <c r="BO83" s="57"/>
-      <c r="BP83" s="57"/>
-      <c r="BQ83" s="57"/>
-      <c r="BR83" s="57"/>
-      <c r="BS83" s="57"/>
-      <c r="BT83" s="57"/>
-      <c r="BU83" s="57"/>
-      <c r="BV83" s="57"/>
-      <c r="BW83" s="57"/>
-      <c r="BX83" s="57"/>
-      <c r="BY83" s="57"/>
-      <c r="BZ83" s="57"/>
-      <c r="CA83" s="57"/>
-      <c r="CB83" s="57"/>
-      <c r="CC83" s="57"/>
-      <c r="CD83" s="57"/>
-      <c r="CE83" s="57"/>
-      <c r="CF83" s="57"/>
-      <c r="CG83" s="57"/>
-      <c r="CH83" s="57"/>
-      <c r="CI83" s="57"/>
-      <c r="CJ83" s="57"/>
-      <c r="CK83" s="57"/>
-      <c r="CL83" s="57"/>
-      <c r="CM83" s="57"/>
-      <c r="CN83" s="57"/>
-      <c r="CO83" s="57"/>
-      <c r="CP83" s="57"/>
-      <c r="CQ83" s="57"/>
-      <c r="CR83" s="57"/>
-      <c r="CS83" s="57"/>
-      <c r="CT83" s="57"/>
-      <c r="CU83" s="57"/>
-      <c r="CV83" s="57"/>
-      <c r="CW83" s="57"/>
-      <c r="CX83" s="57"/>
-      <c r="CY83" s="57"/>
-      <c r="CZ83" s="57"/>
-      <c r="DA83" s="57"/>
-      <c r="DB83" s="57"/>
-      <c r="DC83" s="57"/>
-      <c r="DD83" s="57"/>
-      <c r="DE83" s="57"/>
-      <c r="DF83" s="57"/>
-      <c r="DG83" s="57"/>
-      <c r="DH83" s="57"/>
-      <c r="DI83" s="57"/>
-      <c r="DJ83" s="57"/>
-      <c r="DK83" s="57"/>
-      <c r="DL83" s="57"/>
-      <c r="DM83" s="57"/>
-      <c r="DN83" s="57"/>
-      <c r="DO83" s="57"/>
-      <c r="DP83" s="57"/>
-      <c r="DQ83" s="57"/>
-      <c r="DR83" s="57"/>
-      <c r="DS83" s="57"/>
-      <c r="DT83" s="57"/>
-      <c r="DU83" s="57"/>
-      <c r="DV83" s="57"/>
-      <c r="DW83" s="57"/>
-      <c r="DX83" s="57"/>
-      <c r="DY83" s="57"/>
-      <c r="DZ83" s="57"/>
-      <c r="EA83" s="57"/>
-      <c r="EB83" s="57"/>
-      <c r="EC83" s="57"/>
-      <c r="ED83" s="57"/>
-      <c r="EE83" s="57"/>
-      <c r="EF83" s="57"/>
-      <c r="EG83" s="57"/>
-      <c r="EH83" s="57"/>
-      <c r="EI83" s="57"/>
-      <c r="EJ83" s="57"/>
-      <c r="EK83" s="57"/>
-      <c r="EL83" s="57"/>
-      <c r="EM83" s="57"/>
-      <c r="EN83" s="57"/>
-      <c r="EO83" s="57"/>
-      <c r="EP83" s="57"/>
-      <c r="EQ83" s="57"/>
-      <c r="ER83" s="57"/>
-      <c r="ES83" s="57"/>
-      <c r="ET83" s="57"/>
-      <c r="EU83" s="57"/>
-      <c r="EV83" s="57"/>
-      <c r="EW83" s="57"/>
-      <c r="EX83" s="57"/>
-      <c r="EY83" s="57"/>
-      <c r="EZ83" s="57"/>
-      <c r="FA83" s="57"/>
-      <c r="FB83" s="57"/>
-      <c r="FC83" s="57"/>
-      <c r="FD83" s="57"/>
-      <c r="FE83" s="57"/>
-      <c r="FF83" s="57"/>
-      <c r="FG83" s="57"/>
-      <c r="FH83" s="57"/>
-      <c r="FI83" s="57"/>
-      <c r="FJ83" s="57"/>
-      <c r="FK83" s="57"/>
-      <c r="FL83" s="57"/>
-      <c r="FM83" s="57"/>
-      <c r="FN83" s="57"/>
-      <c r="FO83" s="57"/>
-      <c r="FP83" s="57"/>
-      <c r="FQ83" s="57"/>
-      <c r="FR83" s="57"/>
-      <c r="FS83" s="57"/>
-      <c r="FT83" s="57"/>
-      <c r="FU83" s="57"/>
-      <c r="FV83" s="57"/>
-      <c r="FW83" s="57"/>
-      <c r="FX83" s="57"/>
-      <c r="FY83" s="57"/>
-      <c r="FZ83" s="57"/>
-      <c r="GA83" s="57"/>
-      <c r="GB83" s="57"/>
-      <c r="GC83" s="57"/>
-      <c r="GD83" s="57"/>
-      <c r="GE83" s="57"/>
-      <c r="GF83" s="57"/>
-      <c r="GG83" s="57"/>
-      <c r="GH83" s="57"/>
-      <c r="GI83" s="57"/>
-      <c r="GJ83" s="57"/>
-      <c r="GK83" s="57"/>
-      <c r="GL83" s="57"/>
-      <c r="GM83" s="57"/>
-      <c r="GN83" s="57"/>
-      <c r="GO83" s="57"/>
-      <c r="GP83" s="57"/>
-      <c r="GQ83" s="57"/>
-      <c r="GR83" s="57"/>
-      <c r="GS83" s="57"/>
-      <c r="GT83" s="57"/>
-      <c r="GU83" s="57"/>
-      <c r="GV83" s="57"/>
-      <c r="GW83" s="57"/>
-      <c r="GX83" s="57"/>
-      <c r="GY83" s="57"/>
-      <c r="GZ83" s="57"/>
-      <c r="HA83" s="57"/>
-      <c r="HB83" s="57"/>
-      <c r="HC83" s="57"/>
-      <c r="HD83" s="57"/>
-      <c r="HE83" s="57"/>
-      <c r="HF83" s="57"/>
-      <c r="HG83" s="57"/>
-      <c r="HH83" s="57"/>
-      <c r="HI83" s="57"/>
-      <c r="HJ83" s="57"/>
-      <c r="HK83" s="57"/>
-      <c r="HL83" s="57"/>
-      <c r="HM83" s="57"/>
-      <c r="HN83" s="57"/>
-      <c r="HO83" s="57"/>
-      <c r="HP83" s="57"/>
-      <c r="HQ83" s="57"/>
-      <c r="HR83" s="57"/>
-      <c r="HS83" s="57"/>
-      <c r="HT83" s="57"/>
-      <c r="HU83" s="57"/>
-      <c r="HV83" s="57"/>
-      <c r="HW83" s="57"/>
-      <c r="HX83" s="57"/>
-      <c r="HY83" s="57"/>
-      <c r="HZ83" s="57"/>
-      <c r="IA83" s="57"/>
-      <c r="IB83" s="57"/>
-      <c r="IC83" s="57"/>
-      <c r="ID83" s="57"/>
-      <c r="IE83" s="57"/>
-      <c r="IF83" s="57"/>
-      <c r="IG83" s="57"/>
-      <c r="IH83" s="57"/>
-      <c r="II83" s="57"/>
-      <c r="IJ83" s="57"/>
-      <c r="IK83" s="57"/>
-      <c r="IL83" s="57"/>
-      <c r="IM83" s="57"/>
-      <c r="IN83" s="57"/>
-      <c r="IO83" s="57"/>
-      <c r="IP83" s="57"/>
-      <c r="IQ83" s="57"/>
-      <c r="IR83" s="57"/>
-      <c r="IS83" s="57"/>
-    </row>
-    <row r="84" spans="1:253" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="14" t="str">
-        <f>IF(L84=0%,"진행 전",IF(L84=100%,"완료","진행중"))</f>
-        <v>진행 전</v>
-      </c>
-      <c r="G84" s="22">
-        <v>45063</v>
-      </c>
-      <c r="H84" s="22">
-        <v>45098</v>
-      </c>
-      <c r="I84" s="15">
-        <f t="shared" si="103"/>
-        <v>26</v>
-      </c>
-      <c r="J84" s="16">
-        <f t="shared" si="104"/>
-        <v>35</v>
-      </c>
-      <c r="K84" s="17">
-        <f>IF(L84=0,G84-1,G84+(INT(J84*L84)))</f>
-        <v>45062</v>
-      </c>
-      <c r="L84" s="18">
-        <v>0</v>
-      </c>
-      <c r="M84" s="19"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="20"/>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="20"/>
-      <c r="AA84" s="20"/>
-      <c r="AB84" s="20"/>
-      <c r="AC84" s="20"/>
-      <c r="AD84" s="20"/>
-      <c r="AE84" s="20"/>
-      <c r="AF84" s="20"/>
-      <c r="AG84" s="20"/>
-      <c r="AH84" s="20"/>
-      <c r="AI84" s="24"/>
-      <c r="AJ84" s="24"/>
-      <c r="AK84" s="24"/>
-      <c r="AL84" s="24"/>
-      <c r="AM84" s="20"/>
-      <c r="AN84" s="20"/>
-      <c r="AO84" s="20"/>
-      <c r="AP84" s="20"/>
-      <c r="AQ84" s="20"/>
-      <c r="AR84" s="20"/>
-      <c r="AS84" s="20"/>
-      <c r="AT84" s="20"/>
-      <c r="AU84" s="20"/>
-      <c r="AV84" s="20"/>
-      <c r="AW84" s="20"/>
-      <c r="AX84" s="20"/>
-      <c r="AY84" s="20"/>
-      <c r="AZ84" s="20"/>
-      <c r="BA84" s="20"/>
-      <c r="BB84" s="20"/>
-      <c r="BC84" s="20"/>
-      <c r="BD84" s="20"/>
-      <c r="BE84" s="20"/>
-      <c r="BF84" s="20"/>
-      <c r="BG84" s="20"/>
-      <c r="BH84" s="20"/>
-      <c r="BI84" s="20"/>
-      <c r="BJ84" s="20"/>
-      <c r="BK84" s="20"/>
-      <c r="BL84" s="20"/>
-      <c r="BM84" s="20"/>
-      <c r="BN84" s="20"/>
-      <c r="BO84" s="20"/>
-      <c r="BP84" s="20"/>
-      <c r="BQ84" s="20"/>
-      <c r="BR84" s="20"/>
-      <c r="BS84" s="20"/>
-      <c r="BT84" s="20"/>
-      <c r="BU84" s="20"/>
-      <c r="BV84" s="20"/>
-      <c r="BW84" s="20"/>
-      <c r="BX84" s="20"/>
-      <c r="BY84" s="20"/>
-      <c r="BZ84" s="20"/>
-      <c r="CA84" s="20"/>
-      <c r="CB84" s="20"/>
-      <c r="CC84" s="20"/>
-      <c r="CD84" s="20"/>
-      <c r="CE84" s="20"/>
-      <c r="CF84" s="20"/>
-      <c r="CG84" s="20"/>
-      <c r="CH84" s="20"/>
-      <c r="CI84" s="20"/>
-      <c r="CJ84" s="20"/>
-      <c r="CK84" s="20"/>
-      <c r="CL84" s="20"/>
-      <c r="CM84" s="20"/>
-      <c r="CN84" s="20"/>
-      <c r="CO84" s="20"/>
-      <c r="CP84" s="20"/>
-      <c r="CQ84" s="20"/>
-      <c r="CR84" s="20"/>
-      <c r="CS84" s="20"/>
-      <c r="CT84" s="20"/>
-      <c r="CU84" s="20"/>
-      <c r="CV84" s="20"/>
-      <c r="CW84" s="20"/>
-      <c r="CX84" s="20"/>
-      <c r="CY84" s="20"/>
-      <c r="CZ84" s="20"/>
-      <c r="DA84" s="20"/>
-      <c r="DB84" s="20"/>
-      <c r="DC84" s="20"/>
-      <c r="DD84" s="20"/>
-      <c r="DE84" s="20"/>
-      <c r="DF84" s="20"/>
-      <c r="DG84" s="20"/>
-      <c r="DH84" s="20"/>
-      <c r="DI84" s="20"/>
-      <c r="DJ84" s="20"/>
-      <c r="DK84" s="20"/>
-      <c r="DL84" s="20"/>
-      <c r="DM84" s="20"/>
-      <c r="DN84" s="20"/>
-      <c r="DO84" s="20"/>
-      <c r="DP84" s="20"/>
-      <c r="DQ84" s="20"/>
-      <c r="DR84" s="20"/>
-      <c r="DS84" s="20"/>
-      <c r="DT84" s="20"/>
-      <c r="DU84" s="20"/>
-      <c r="DV84" s="20"/>
-      <c r="DW84" s="20"/>
-      <c r="DX84" s="20"/>
-      <c r="DY84" s="20"/>
-      <c r="DZ84" s="20"/>
-      <c r="EA84" s="20"/>
-      <c r="EB84" s="20"/>
-      <c r="EC84" s="20"/>
-      <c r="ED84" s="20"/>
-      <c r="EE84" s="20"/>
-      <c r="EF84" s="20"/>
-      <c r="EG84" s="20"/>
-      <c r="EH84" s="20"/>
-      <c r="EI84" s="20"/>
-      <c r="EJ84" s="20"/>
-      <c r="EK84" s="20"/>
-      <c r="EL84" s="20"/>
-      <c r="EM84" s="20"/>
-      <c r="EN84" s="20"/>
-      <c r="EO84" s="20"/>
-      <c r="EP84" s="20"/>
-      <c r="EQ84" s="20"/>
-      <c r="ER84" s="20"/>
-      <c r="ES84" s="20"/>
-      <c r="ET84" s="20"/>
-      <c r="EU84" s="20"/>
-      <c r="EV84" s="20"/>
-      <c r="EW84" s="20"/>
-      <c r="EX84" s="20"/>
-      <c r="EY84" s="20"/>
-      <c r="EZ84" s="20"/>
-      <c r="FA84" s="20"/>
-      <c r="FB84" s="20"/>
-      <c r="FC84" s="20"/>
-      <c r="FD84" s="20"/>
-      <c r="FE84" s="20"/>
-      <c r="FF84" s="20"/>
-      <c r="FG84" s="20"/>
-      <c r="FH84" s="20"/>
-      <c r="FI84" s="20"/>
-      <c r="FJ84" s="20"/>
-      <c r="FK84" s="20"/>
-      <c r="FL84" s="20"/>
-      <c r="FM84" s="20"/>
-      <c r="FN84" s="20"/>
-      <c r="FO84" s="20"/>
-      <c r="FP84" s="20"/>
-      <c r="FQ84" s="20"/>
-      <c r="FR84" s="20"/>
-      <c r="FS84" s="20"/>
-      <c r="FT84" s="20"/>
-      <c r="FU84" s="20"/>
-      <c r="FV84" s="20"/>
-      <c r="FW84" s="20"/>
-      <c r="FX84" s="20"/>
-      <c r="FY84" s="20"/>
-      <c r="FZ84" s="20"/>
-      <c r="GA84" s="20"/>
-      <c r="GB84" s="20"/>
-      <c r="GC84" s="20"/>
-      <c r="GD84" s="20"/>
-      <c r="GE84" s="20"/>
-      <c r="GF84" s="20"/>
-      <c r="GG84" s="20"/>
-      <c r="GH84" s="20"/>
-      <c r="GI84" s="20"/>
-      <c r="GJ84" s="20"/>
-      <c r="GK84" s="20"/>
-      <c r="GL84" s="20"/>
-      <c r="GM84" s="20"/>
-      <c r="GN84" s="20"/>
-      <c r="GO84" s="20"/>
-      <c r="GP84" s="20"/>
-      <c r="GQ84" s="20"/>
-      <c r="GR84" s="20"/>
-      <c r="GS84" s="20"/>
-      <c r="GT84" s="20"/>
-      <c r="GU84" s="20"/>
-      <c r="GV84" s="20"/>
-      <c r="GW84" s="20"/>
-      <c r="GX84" s="20"/>
-      <c r="GY84" s="20"/>
-      <c r="GZ84" s="20"/>
-      <c r="HA84" s="20"/>
-      <c r="HB84" s="20"/>
-      <c r="HC84" s="20"/>
-      <c r="HD84" s="20"/>
-      <c r="HE84" s="20"/>
-      <c r="HF84" s="20"/>
-      <c r="HG84" s="20"/>
-      <c r="HH84" s="20"/>
-      <c r="HI84" s="20"/>
-      <c r="HJ84" s="20"/>
-      <c r="HK84" s="20"/>
-      <c r="HL84" s="20"/>
-      <c r="HM84" s="20"/>
-      <c r="HN84" s="20"/>
-      <c r="HO84" s="20"/>
-      <c r="HP84" s="20"/>
-      <c r="HQ84" s="20"/>
-      <c r="HR84" s="20"/>
-      <c r="HS84" s="20"/>
-      <c r="HT84" s="20"/>
-      <c r="HU84" s="20"/>
-      <c r="HV84" s="20"/>
-      <c r="HW84" s="20"/>
-      <c r="HX84" s="20"/>
-      <c r="HY84" s="20"/>
-      <c r="HZ84" s="20"/>
-      <c r="IA84" s="20"/>
-      <c r="IB84" s="20"/>
-      <c r="IC84" s="20"/>
-      <c r="ID84" s="20"/>
-      <c r="IE84" s="20"/>
-      <c r="IF84" s="20"/>
-      <c r="IG84" s="20"/>
-      <c r="IH84" s="20"/>
-      <c r="II84" s="20"/>
-      <c r="IJ84" s="20"/>
-      <c r="IK84" s="20"/>
-      <c r="IL84" s="20"/>
-      <c r="IM84" s="20"/>
-      <c r="IN84" s="20"/>
-      <c r="IO84" s="20"/>
-      <c r="IP84" s="20"/>
-      <c r="IQ84" s="20"/>
-      <c r="IR84" s="20"/>
-      <c r="IS84" s="20"/>
-    </row>
-    <row r="85" spans="1:253" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="14" t="str">
-        <f t="shared" ref="F85:F87" si="106">IF(L85=0%,"진행 전",IF(L85=100%,"완료","진행중"))</f>
-        <v>진행 전</v>
-      </c>
-      <c r="G85" s="22">
-        <v>45063</v>
-      </c>
-      <c r="H85" s="22">
-        <v>45099</v>
-      </c>
-      <c r="I85" s="15">
-        <f t="shared" si="103"/>
-        <v>27</v>
-      </c>
-      <c r="J85" s="16">
-        <f t="shared" si="104"/>
-        <v>36</v>
-      </c>
-      <c r="K85" s="17">
-        <f>IF(L85=0,G85-1,G85+(INT(J85*L85)))</f>
-        <v>45062</v>
-      </c>
-      <c r="L85" s="18">
-        <v>0</v>
-      </c>
-      <c r="M85" s="19"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="20"/>
-      <c r="T85" s="20"/>
-      <c r="U85" s="20"/>
-      <c r="V85" s="20"/>
-      <c r="W85" s="20"/>
-      <c r="X85" s="20"/>
-      <c r="Y85" s="20"/>
-      <c r="Z85" s="20"/>
-      <c r="AA85" s="20"/>
-      <c r="AB85" s="20"/>
-      <c r="AC85" s="20"/>
-      <c r="AD85" s="20"/>
-      <c r="AE85" s="20"/>
-      <c r="AF85" s="20"/>
-      <c r="AG85" s="20"/>
-      <c r="AH85" s="20"/>
-      <c r="AI85" s="24"/>
-      <c r="AJ85" s="24"/>
-      <c r="AK85" s="24"/>
-      <c r="AL85" s="24"/>
-      <c r="AM85" s="20"/>
-      <c r="AN85" s="20"/>
-      <c r="AO85" s="20"/>
-      <c r="AP85" s="20"/>
-      <c r="AQ85" s="20"/>
-      <c r="AR85" s="20"/>
-      <c r="AS85" s="20"/>
-      <c r="AT85" s="20"/>
-      <c r="AU85" s="20"/>
-      <c r="AV85" s="20"/>
-      <c r="AW85" s="20"/>
-      <c r="AX85" s="20"/>
-      <c r="AY85" s="20"/>
-      <c r="AZ85" s="20"/>
-      <c r="BA85" s="20"/>
-      <c r="BB85" s="20"/>
-      <c r="BC85" s="20"/>
-      <c r="BD85" s="20"/>
-      <c r="BE85" s="20"/>
-      <c r="BF85" s="20"/>
-      <c r="BG85" s="20"/>
-      <c r="BH85" s="20"/>
-      <c r="BI85" s="20"/>
-      <c r="BJ85" s="20"/>
-      <c r="BK85" s="20"/>
-      <c r="BL85" s="20"/>
-      <c r="BM85" s="20"/>
-      <c r="BN85" s="20"/>
-      <c r="BO85" s="20"/>
-      <c r="BP85" s="20"/>
-      <c r="BQ85" s="20"/>
-      <c r="BR85" s="20"/>
-      <c r="BS85" s="20"/>
-      <c r="BT85" s="20"/>
-      <c r="BU85" s="20"/>
-      <c r="BV85" s="20"/>
-      <c r="BW85" s="20"/>
-      <c r="BX85" s="20"/>
-      <c r="BY85" s="20"/>
-      <c r="BZ85" s="20"/>
-      <c r="CA85" s="20"/>
-      <c r="CB85" s="20"/>
-      <c r="CC85" s="20"/>
-      <c r="CD85" s="20"/>
-      <c r="CE85" s="20"/>
-      <c r="CF85" s="20"/>
-      <c r="CG85" s="20"/>
-      <c r="CH85" s="20"/>
-      <c r="CI85" s="20"/>
-      <c r="CJ85" s="20"/>
-      <c r="CK85" s="20"/>
-      <c r="CL85" s="20"/>
-      <c r="CM85" s="20"/>
-      <c r="CN85" s="20"/>
-      <c r="CO85" s="20"/>
-      <c r="CP85" s="20"/>
-      <c r="CQ85" s="20"/>
-      <c r="CR85" s="20"/>
-      <c r="CS85" s="20"/>
-      <c r="CT85" s="20"/>
-      <c r="CU85" s="20"/>
-      <c r="CV85" s="20"/>
-      <c r="CW85" s="20"/>
-      <c r="CX85" s="20"/>
-      <c r="CY85" s="20"/>
-      <c r="CZ85" s="20"/>
-      <c r="DA85" s="20"/>
-      <c r="DB85" s="20"/>
-      <c r="DC85" s="20"/>
-      <c r="DD85" s="20"/>
-      <c r="DE85" s="20"/>
-      <c r="DF85" s="20"/>
-      <c r="DG85" s="20"/>
-      <c r="DH85" s="20"/>
-      <c r="DI85" s="20"/>
-      <c r="DJ85" s="20"/>
-      <c r="DK85" s="20"/>
-      <c r="DL85" s="20"/>
-      <c r="DM85" s="20"/>
-      <c r="DN85" s="20"/>
-      <c r="DO85" s="20"/>
-      <c r="DP85" s="20"/>
-      <c r="DQ85" s="20"/>
-      <c r="DR85" s="20"/>
-      <c r="DS85" s="20"/>
-      <c r="DT85" s="20"/>
-      <c r="DU85" s="20"/>
-      <c r="DV85" s="20"/>
-      <c r="DW85" s="20"/>
-      <c r="DX85" s="20"/>
-      <c r="DY85" s="20"/>
-      <c r="DZ85" s="20"/>
-      <c r="EA85" s="20"/>
-      <c r="EB85" s="20"/>
-      <c r="EC85" s="20"/>
-      <c r="ED85" s="20"/>
-      <c r="EE85" s="20"/>
-      <c r="EF85" s="20"/>
-      <c r="EG85" s="20"/>
-      <c r="EH85" s="20"/>
-      <c r="EI85" s="20"/>
-      <c r="EJ85" s="20"/>
-      <c r="EK85" s="20"/>
-      <c r="EL85" s="20"/>
-      <c r="EM85" s="20"/>
-      <c r="EN85" s="20"/>
-      <c r="EO85" s="20"/>
-      <c r="EP85" s="20"/>
-      <c r="EQ85" s="20"/>
-      <c r="ER85" s="20"/>
-      <c r="ES85" s="20"/>
-      <c r="ET85" s="20"/>
-      <c r="EU85" s="20"/>
-      <c r="EV85" s="20"/>
-      <c r="EW85" s="20"/>
-      <c r="EX85" s="20"/>
-      <c r="EY85" s="20"/>
-      <c r="EZ85" s="20"/>
-      <c r="FA85" s="20"/>
-      <c r="FB85" s="20"/>
-      <c r="FC85" s="20"/>
-      <c r="FD85" s="20"/>
-      <c r="FE85" s="20"/>
-      <c r="FF85" s="20"/>
-      <c r="FG85" s="20"/>
-      <c r="FH85" s="20"/>
-      <c r="FI85" s="20"/>
-      <c r="FJ85" s="20"/>
-      <c r="FK85" s="20"/>
-      <c r="FL85" s="20"/>
-      <c r="FM85" s="20"/>
-      <c r="FN85" s="20"/>
-      <c r="FO85" s="20"/>
-      <c r="FP85" s="20"/>
-      <c r="FQ85" s="20"/>
-      <c r="FR85" s="20"/>
-      <c r="FS85" s="20"/>
-      <c r="FT85" s="20"/>
-      <c r="FU85" s="20"/>
-      <c r="FV85" s="20"/>
-      <c r="FW85" s="20"/>
-      <c r="FX85" s="20"/>
-      <c r="FY85" s="20"/>
-      <c r="FZ85" s="20"/>
-      <c r="GA85" s="20"/>
-      <c r="GB85" s="20"/>
-      <c r="GC85" s="20"/>
-      <c r="GD85" s="20"/>
-      <c r="GE85" s="20"/>
-      <c r="GF85" s="20"/>
-      <c r="GG85" s="20"/>
-      <c r="GH85" s="20"/>
-      <c r="GI85" s="20"/>
-      <c r="GJ85" s="20"/>
-      <c r="GK85" s="20"/>
-      <c r="GL85" s="20"/>
-      <c r="GM85" s="20"/>
-      <c r="GN85" s="20"/>
-      <c r="GO85" s="20"/>
-      <c r="GP85" s="20"/>
-      <c r="GQ85" s="20"/>
-      <c r="GR85" s="20"/>
-      <c r="GS85" s="20"/>
-      <c r="GT85" s="20"/>
-      <c r="GU85" s="20"/>
-      <c r="GV85" s="20"/>
-      <c r="GW85" s="20"/>
-      <c r="GX85" s="20"/>
-      <c r="GY85" s="20"/>
-      <c r="GZ85" s="20"/>
-      <c r="HA85" s="20"/>
-      <c r="HB85" s="20"/>
-      <c r="HC85" s="20"/>
-      <c r="HD85" s="20"/>
-      <c r="HE85" s="20"/>
-      <c r="HF85" s="20"/>
-      <c r="HG85" s="20"/>
-      <c r="HH85" s="20"/>
-      <c r="HI85" s="20"/>
-      <c r="HJ85" s="20"/>
-      <c r="HK85" s="20"/>
-      <c r="HL85" s="20"/>
-      <c r="HM85" s="20"/>
-      <c r="HN85" s="20"/>
-      <c r="HO85" s="20"/>
-      <c r="HP85" s="20"/>
-      <c r="HQ85" s="20"/>
-      <c r="HR85" s="20"/>
-      <c r="HS85" s="20"/>
-      <c r="HT85" s="20"/>
-      <c r="HU85" s="20"/>
-      <c r="HV85" s="20"/>
-      <c r="HW85" s="20"/>
-      <c r="HX85" s="20"/>
-      <c r="HY85" s="20"/>
-      <c r="HZ85" s="20"/>
-      <c r="IA85" s="20"/>
-      <c r="IB85" s="20"/>
-      <c r="IC85" s="20"/>
-      <c r="ID85" s="20"/>
-      <c r="IE85" s="20"/>
-      <c r="IF85" s="20"/>
-      <c r="IG85" s="20"/>
-      <c r="IH85" s="20"/>
-      <c r="II85" s="20"/>
-      <c r="IJ85" s="20"/>
-      <c r="IK85" s="20"/>
-      <c r="IL85" s="20"/>
-      <c r="IM85" s="20"/>
-      <c r="IN85" s="20"/>
-      <c r="IO85" s="20"/>
-      <c r="IP85" s="20"/>
-      <c r="IQ85" s="20"/>
-      <c r="IR85" s="20"/>
-      <c r="IS85" s="20"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="57"/>
+      <c r="R85" s="57"/>
+      <c r="S85" s="57"/>
+      <c r="T85" s="57"/>
+      <c r="U85" s="57"/>
+      <c r="V85" s="57"/>
+      <c r="W85" s="57"/>
+      <c r="X85" s="57"/>
+      <c r="Y85" s="57"/>
+      <c r="Z85" s="57"/>
+      <c r="AA85" s="57"/>
+      <c r="AB85" s="57"/>
+      <c r="AC85" s="57"/>
+      <c r="AD85" s="57"/>
+      <c r="AE85" s="57"/>
+      <c r="AF85" s="57"/>
+      <c r="AG85" s="57"/>
+      <c r="AH85" s="57"/>
+      <c r="AI85" s="57"/>
+      <c r="AJ85" s="57"/>
+      <c r="AK85" s="57"/>
+      <c r="AL85" s="57"/>
+      <c r="AM85" s="57"/>
+      <c r="AN85" s="57"/>
+      <c r="AO85" s="57"/>
+      <c r="AP85" s="57"/>
+      <c r="AQ85" s="57"/>
+      <c r="AR85" s="57"/>
+      <c r="AS85" s="57"/>
+      <c r="AT85" s="57"/>
+      <c r="AU85" s="57"/>
+      <c r="AV85" s="57"/>
+      <c r="AW85" s="57"/>
+      <c r="AX85" s="57"/>
+      <c r="AY85" s="57"/>
+      <c r="AZ85" s="57"/>
+      <c r="BA85" s="57"/>
+      <c r="BB85" s="57"/>
+      <c r="BC85" s="57"/>
+      <c r="BD85" s="57"/>
+      <c r="BE85" s="57"/>
+      <c r="BF85" s="57"/>
+      <c r="BG85" s="57"/>
+      <c r="BH85" s="57"/>
+      <c r="BI85" s="57"/>
+      <c r="BJ85" s="57"/>
+      <c r="BK85" s="57"/>
+      <c r="BL85" s="57"/>
+      <c r="BM85" s="57"/>
+      <c r="BN85" s="57"/>
+      <c r="BO85" s="57"/>
+      <c r="BP85" s="57"/>
+      <c r="BQ85" s="57"/>
+      <c r="BR85" s="57"/>
+      <c r="BS85" s="57"/>
+      <c r="BT85" s="57"/>
+      <c r="BU85" s="57"/>
+      <c r="BV85" s="57"/>
+      <c r="BW85" s="57"/>
+      <c r="BX85" s="57"/>
+      <c r="BY85" s="57"/>
+      <c r="BZ85" s="57"/>
+      <c r="CA85" s="57"/>
+      <c r="CB85" s="57"/>
+      <c r="CC85" s="57"/>
+      <c r="CD85" s="57"/>
+      <c r="CE85" s="57"/>
+      <c r="CF85" s="57"/>
+      <c r="CG85" s="57"/>
+      <c r="CH85" s="57"/>
+      <c r="CI85" s="57"/>
+      <c r="CJ85" s="57"/>
+      <c r="CK85" s="57"/>
+      <c r="CL85" s="57"/>
+      <c r="CM85" s="57"/>
+      <c r="CN85" s="57"/>
+      <c r="CO85" s="57"/>
+      <c r="CP85" s="57"/>
+      <c r="CQ85" s="57"/>
+      <c r="CR85" s="57"/>
+      <c r="CS85" s="57"/>
+      <c r="CT85" s="57"/>
+      <c r="CU85" s="57"/>
+      <c r="CV85" s="57"/>
+      <c r="CW85" s="57"/>
+      <c r="CX85" s="57"/>
+      <c r="CY85" s="57"/>
+      <c r="CZ85" s="57"/>
+      <c r="DA85" s="57"/>
+      <c r="DB85" s="57"/>
+      <c r="DC85" s="57"/>
+      <c r="DD85" s="57"/>
+      <c r="DE85" s="57"/>
+      <c r="DF85" s="57"/>
+      <c r="DG85" s="57"/>
+      <c r="DH85" s="57"/>
+      <c r="DI85" s="57"/>
+      <c r="DJ85" s="57"/>
+      <c r="DK85" s="57"/>
+      <c r="DL85" s="57"/>
+      <c r="DM85" s="57"/>
+      <c r="DN85" s="57"/>
+      <c r="DO85" s="57"/>
+      <c r="DP85" s="57"/>
+      <c r="DQ85" s="57"/>
+      <c r="DR85" s="57"/>
+      <c r="DS85" s="57"/>
+      <c r="DT85" s="57"/>
+      <c r="DU85" s="57"/>
+      <c r="DV85" s="57"/>
+      <c r="DW85" s="57"/>
+      <c r="DX85" s="57"/>
+      <c r="DY85" s="57"/>
+      <c r="DZ85" s="57"/>
+      <c r="EA85" s="57"/>
+      <c r="EB85" s="57"/>
+      <c r="EC85" s="57"/>
+      <c r="ED85" s="57"/>
+      <c r="EE85" s="57"/>
+      <c r="EF85" s="57"/>
+      <c r="EG85" s="57"/>
+      <c r="EH85" s="57"/>
+      <c r="EI85" s="57"/>
+      <c r="EJ85" s="57"/>
+      <c r="EK85" s="57"/>
+      <c r="EL85" s="57"/>
+      <c r="EM85" s="57"/>
+      <c r="EN85" s="57"/>
+      <c r="EO85" s="57"/>
+      <c r="EP85" s="57"/>
+      <c r="EQ85" s="57"/>
+      <c r="ER85" s="57"/>
+      <c r="ES85" s="57"/>
+      <c r="ET85" s="57"/>
+      <c r="EU85" s="57"/>
+      <c r="EV85" s="57"/>
+      <c r="EW85" s="57"/>
+      <c r="EX85" s="57"/>
+      <c r="EY85" s="57"/>
+      <c r="EZ85" s="57"/>
+      <c r="FA85" s="57"/>
+      <c r="FB85" s="57"/>
+      <c r="FC85" s="57"/>
+      <c r="FD85" s="57"/>
+      <c r="FE85" s="57"/>
+      <c r="FF85" s="57"/>
+      <c r="FG85" s="57"/>
+      <c r="FH85" s="57"/>
+      <c r="FI85" s="57"/>
+      <c r="FJ85" s="57"/>
+      <c r="FK85" s="57"/>
+      <c r="FL85" s="57"/>
+      <c r="FM85" s="57"/>
+      <c r="FN85" s="57"/>
+      <c r="FO85" s="57"/>
+      <c r="FP85" s="57"/>
+      <c r="FQ85" s="57"/>
+      <c r="FR85" s="57"/>
+      <c r="FS85" s="57"/>
+      <c r="FT85" s="57"/>
+      <c r="FU85" s="57"/>
+      <c r="FV85" s="57"/>
+      <c r="FW85" s="57"/>
+      <c r="FX85" s="57"/>
+      <c r="FY85" s="57"/>
+      <c r="FZ85" s="57"/>
+      <c r="GA85" s="57"/>
+      <c r="GB85" s="57"/>
+      <c r="GC85" s="57"/>
+      <c r="GD85" s="57"/>
+      <c r="GE85" s="57"/>
+      <c r="GF85" s="57"/>
+      <c r="GG85" s="57"/>
+      <c r="GH85" s="57"/>
+      <c r="GI85" s="57"/>
+      <c r="GJ85" s="57"/>
+      <c r="GK85" s="57"/>
+      <c r="GL85" s="57"/>
+      <c r="GM85" s="57"/>
+      <c r="GN85" s="57"/>
+      <c r="GO85" s="57"/>
+      <c r="GP85" s="57"/>
+      <c r="GQ85" s="57"/>
+      <c r="GR85" s="57"/>
+      <c r="GS85" s="57"/>
+      <c r="GT85" s="57"/>
+      <c r="GU85" s="57"/>
+      <c r="GV85" s="57"/>
+      <c r="GW85" s="57"/>
+      <c r="GX85" s="57"/>
+      <c r="GY85" s="57"/>
+      <c r="GZ85" s="57"/>
+      <c r="HA85" s="57"/>
+      <c r="HB85" s="57"/>
+      <c r="HC85" s="57"/>
+      <c r="HD85" s="57"/>
+      <c r="HE85" s="57"/>
+      <c r="HF85" s="57"/>
+      <c r="HG85" s="57"/>
+      <c r="HH85" s="57"/>
+      <c r="HI85" s="57"/>
+      <c r="HJ85" s="57"/>
+      <c r="HK85" s="57"/>
+      <c r="HL85" s="57"/>
+      <c r="HM85" s="57"/>
+      <c r="HN85" s="57"/>
+      <c r="HO85" s="57"/>
+      <c r="HP85" s="57"/>
+      <c r="HQ85" s="57"/>
+      <c r="HR85" s="57"/>
+      <c r="HS85" s="57"/>
+      <c r="HT85" s="57"/>
+      <c r="HU85" s="57"/>
+      <c r="HV85" s="57"/>
+      <c r="HW85" s="57"/>
+      <c r="HX85" s="57"/>
+      <c r="HY85" s="57"/>
+      <c r="HZ85" s="57"/>
+      <c r="IA85" s="57"/>
+      <c r="IB85" s="57"/>
+      <c r="IC85" s="57"/>
+      <c r="ID85" s="57"/>
+      <c r="IE85" s="57"/>
+      <c r="IF85" s="57"/>
+      <c r="IG85" s="57"/>
+      <c r="IH85" s="57"/>
+      <c r="II85" s="57"/>
+      <c r="IJ85" s="57"/>
+      <c r="IK85" s="57"/>
+      <c r="IL85" s="57"/>
+      <c r="IM85" s="57"/>
+      <c r="IN85" s="57"/>
+      <c r="IO85" s="57"/>
+      <c r="IP85" s="57"/>
+      <c r="IQ85" s="57"/>
+      <c r="IR85" s="57"/>
+      <c r="IS85" s="57"/>
     </row>
     <row r="86" spans="1:253" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="14" t="str">
-        <f t="shared" si="106"/>
+        <f>IF(L86=0%,"진행 전",IF(L86=100%,"완료","진행중"))</f>
         <v>진행 전</v>
       </c>
       <c r="G86" s="22">
         <v>45063</v>
       </c>
       <c r="H86" s="22">
-        <v>45100</v>
+        <v>45098</v>
       </c>
       <c r="I86" s="15">
-        <f t="shared" si="103"/>
-        <v>28</v>
+        <f t="shared" si="111"/>
+        <v>26</v>
       </c>
       <c r="J86" s="16">
-        <f t="shared" si="104"/>
-        <v>37</v>
+        <f t="shared" si="112"/>
+        <v>35</v>
       </c>
       <c r="K86" s="17">
         <f>IF(L86=0,G86-1,G86+(INT(J86*L86)))</f>
@@ -18763,31 +18342,31 @@
     </row>
     <row r="87" spans="1:253" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="14" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="F87:F89" si="114">IF(L87=0%,"진행 전",IF(L87=100%,"완료","진행중"))</f>
         <v>진행 전</v>
       </c>
       <c r="G87" s="22">
         <v>45063</v>
       </c>
       <c r="H87" s="22">
-        <v>45101</v>
+        <v>45099</v>
       </c>
       <c r="I87" s="15">
-        <f t="shared" si="103"/>
-        <v>28</v>
+        <f t="shared" si="111"/>
+        <v>27</v>
       </c>
       <c r="J87" s="16">
-        <f t="shared" si="104"/>
-        <v>38</v>
+        <f t="shared" si="112"/>
+        <v>36</v>
       </c>
       <c r="K87" s="17">
         <f>IF(L87=0,G87-1,G87+(INT(J87*L87)))</f>
@@ -19038,17 +18617,571 @@
       <c r="IR87" s="20"/>
       <c r="IS87" s="20"/>
     </row>
+    <row r="88" spans="1:253" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="14" t="str">
+        <f t="shared" si="114"/>
+        <v>진행 전</v>
+      </c>
+      <c r="G88" s="22">
+        <v>45063</v>
+      </c>
+      <c r="H88" s="22">
+        <v>45100</v>
+      </c>
+      <c r="I88" s="15">
+        <f t="shared" si="111"/>
+        <v>28</v>
+      </c>
+      <c r="J88" s="16">
+        <f t="shared" si="112"/>
+        <v>37</v>
+      </c>
+      <c r="K88" s="17">
+        <f>IF(L88=0,G88-1,G88+(INT(J88*L88)))</f>
+        <v>45062</v>
+      </c>
+      <c r="L88" s="18">
+        <v>0</v>
+      </c>
+      <c r="M88" s="19"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="20"/>
+      <c r="W88" s="20"/>
+      <c r="X88" s="20"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20"/>
+      <c r="AA88" s="20"/>
+      <c r="AB88" s="20"/>
+      <c r="AC88" s="20"/>
+      <c r="AD88" s="20"/>
+      <c r="AE88" s="20"/>
+      <c r="AF88" s="20"/>
+      <c r="AG88" s="20"/>
+      <c r="AH88" s="20"/>
+      <c r="AI88" s="24"/>
+      <c r="AJ88" s="24"/>
+      <c r="AK88" s="24"/>
+      <c r="AL88" s="24"/>
+      <c r="AM88" s="20"/>
+      <c r="AN88" s="20"/>
+      <c r="AO88" s="20"/>
+      <c r="AP88" s="20"/>
+      <c r="AQ88" s="20"/>
+      <c r="AR88" s="20"/>
+      <c r="AS88" s="20"/>
+      <c r="AT88" s="20"/>
+      <c r="AU88" s="20"/>
+      <c r="AV88" s="20"/>
+      <c r="AW88" s="20"/>
+      <c r="AX88" s="20"/>
+      <c r="AY88" s="20"/>
+      <c r="AZ88" s="20"/>
+      <c r="BA88" s="20"/>
+      <c r="BB88" s="20"/>
+      <c r="BC88" s="20"/>
+      <c r="BD88" s="20"/>
+      <c r="BE88" s="20"/>
+      <c r="BF88" s="20"/>
+      <c r="BG88" s="20"/>
+      <c r="BH88" s="20"/>
+      <c r="BI88" s="20"/>
+      <c r="BJ88" s="20"/>
+      <c r="BK88" s="20"/>
+      <c r="BL88" s="20"/>
+      <c r="BM88" s="20"/>
+      <c r="BN88" s="20"/>
+      <c r="BO88" s="20"/>
+      <c r="BP88" s="20"/>
+      <c r="BQ88" s="20"/>
+      <c r="BR88" s="20"/>
+      <c r="BS88" s="20"/>
+      <c r="BT88" s="20"/>
+      <c r="BU88" s="20"/>
+      <c r="BV88" s="20"/>
+      <c r="BW88" s="20"/>
+      <c r="BX88" s="20"/>
+      <c r="BY88" s="20"/>
+      <c r="BZ88" s="20"/>
+      <c r="CA88" s="20"/>
+      <c r="CB88" s="20"/>
+      <c r="CC88" s="20"/>
+      <c r="CD88" s="20"/>
+      <c r="CE88" s="20"/>
+      <c r="CF88" s="20"/>
+      <c r="CG88" s="20"/>
+      <c r="CH88" s="20"/>
+      <c r="CI88" s="20"/>
+      <c r="CJ88" s="20"/>
+      <c r="CK88" s="20"/>
+      <c r="CL88" s="20"/>
+      <c r="CM88" s="20"/>
+      <c r="CN88" s="20"/>
+      <c r="CO88" s="20"/>
+      <c r="CP88" s="20"/>
+      <c r="CQ88" s="20"/>
+      <c r="CR88" s="20"/>
+      <c r="CS88" s="20"/>
+      <c r="CT88" s="20"/>
+      <c r="CU88" s="20"/>
+      <c r="CV88" s="20"/>
+      <c r="CW88" s="20"/>
+      <c r="CX88" s="20"/>
+      <c r="CY88" s="20"/>
+      <c r="CZ88" s="20"/>
+      <c r="DA88" s="20"/>
+      <c r="DB88" s="20"/>
+      <c r="DC88" s="20"/>
+      <c r="DD88" s="20"/>
+      <c r="DE88" s="20"/>
+      <c r="DF88" s="20"/>
+      <c r="DG88" s="20"/>
+      <c r="DH88" s="20"/>
+      <c r="DI88" s="20"/>
+      <c r="DJ88" s="20"/>
+      <c r="DK88" s="20"/>
+      <c r="DL88" s="20"/>
+      <c r="DM88" s="20"/>
+      <c r="DN88" s="20"/>
+      <c r="DO88" s="20"/>
+      <c r="DP88" s="20"/>
+      <c r="DQ88" s="20"/>
+      <c r="DR88" s="20"/>
+      <c r="DS88" s="20"/>
+      <c r="DT88" s="20"/>
+      <c r="DU88" s="20"/>
+      <c r="DV88" s="20"/>
+      <c r="DW88" s="20"/>
+      <c r="DX88" s="20"/>
+      <c r="DY88" s="20"/>
+      <c r="DZ88" s="20"/>
+      <c r="EA88" s="20"/>
+      <c r="EB88" s="20"/>
+      <c r="EC88" s="20"/>
+      <c r="ED88" s="20"/>
+      <c r="EE88" s="20"/>
+      <c r="EF88" s="20"/>
+      <c r="EG88" s="20"/>
+      <c r="EH88" s="20"/>
+      <c r="EI88" s="20"/>
+      <c r="EJ88" s="20"/>
+      <c r="EK88" s="20"/>
+      <c r="EL88" s="20"/>
+      <c r="EM88" s="20"/>
+      <c r="EN88" s="20"/>
+      <c r="EO88" s="20"/>
+      <c r="EP88" s="20"/>
+      <c r="EQ88" s="20"/>
+      <c r="ER88" s="20"/>
+      <c r="ES88" s="20"/>
+      <c r="ET88" s="20"/>
+      <c r="EU88" s="20"/>
+      <c r="EV88" s="20"/>
+      <c r="EW88" s="20"/>
+      <c r="EX88" s="20"/>
+      <c r="EY88" s="20"/>
+      <c r="EZ88" s="20"/>
+      <c r="FA88" s="20"/>
+      <c r="FB88" s="20"/>
+      <c r="FC88" s="20"/>
+      <c r="FD88" s="20"/>
+      <c r="FE88" s="20"/>
+      <c r="FF88" s="20"/>
+      <c r="FG88" s="20"/>
+      <c r="FH88" s="20"/>
+      <c r="FI88" s="20"/>
+      <c r="FJ88" s="20"/>
+      <c r="FK88" s="20"/>
+      <c r="FL88" s="20"/>
+      <c r="FM88" s="20"/>
+      <c r="FN88" s="20"/>
+      <c r="FO88" s="20"/>
+      <c r="FP88" s="20"/>
+      <c r="FQ88" s="20"/>
+      <c r="FR88" s="20"/>
+      <c r="FS88" s="20"/>
+      <c r="FT88" s="20"/>
+      <c r="FU88" s="20"/>
+      <c r="FV88" s="20"/>
+      <c r="FW88" s="20"/>
+      <c r="FX88" s="20"/>
+      <c r="FY88" s="20"/>
+      <c r="FZ88" s="20"/>
+      <c r="GA88" s="20"/>
+      <c r="GB88" s="20"/>
+      <c r="GC88" s="20"/>
+      <c r="GD88" s="20"/>
+      <c r="GE88" s="20"/>
+      <c r="GF88" s="20"/>
+      <c r="GG88" s="20"/>
+      <c r="GH88" s="20"/>
+      <c r="GI88" s="20"/>
+      <c r="GJ88" s="20"/>
+      <c r="GK88" s="20"/>
+      <c r="GL88" s="20"/>
+      <c r="GM88" s="20"/>
+      <c r="GN88" s="20"/>
+      <c r="GO88" s="20"/>
+      <c r="GP88" s="20"/>
+      <c r="GQ88" s="20"/>
+      <c r="GR88" s="20"/>
+      <c r="GS88" s="20"/>
+      <c r="GT88" s="20"/>
+      <c r="GU88" s="20"/>
+      <c r="GV88" s="20"/>
+      <c r="GW88" s="20"/>
+      <c r="GX88" s="20"/>
+      <c r="GY88" s="20"/>
+      <c r="GZ88" s="20"/>
+      <c r="HA88" s="20"/>
+      <c r="HB88" s="20"/>
+      <c r="HC88" s="20"/>
+      <c r="HD88" s="20"/>
+      <c r="HE88" s="20"/>
+      <c r="HF88" s="20"/>
+      <c r="HG88" s="20"/>
+      <c r="HH88" s="20"/>
+      <c r="HI88" s="20"/>
+      <c r="HJ88" s="20"/>
+      <c r="HK88" s="20"/>
+      <c r="HL88" s="20"/>
+      <c r="HM88" s="20"/>
+      <c r="HN88" s="20"/>
+      <c r="HO88" s="20"/>
+      <c r="HP88" s="20"/>
+      <c r="HQ88" s="20"/>
+      <c r="HR88" s="20"/>
+      <c r="HS88" s="20"/>
+      <c r="HT88" s="20"/>
+      <c r="HU88" s="20"/>
+      <c r="HV88" s="20"/>
+      <c r="HW88" s="20"/>
+      <c r="HX88" s="20"/>
+      <c r="HY88" s="20"/>
+      <c r="HZ88" s="20"/>
+      <c r="IA88" s="20"/>
+      <c r="IB88" s="20"/>
+      <c r="IC88" s="20"/>
+      <c r="ID88" s="20"/>
+      <c r="IE88" s="20"/>
+      <c r="IF88" s="20"/>
+      <c r="IG88" s="20"/>
+      <c r="IH88" s="20"/>
+      <c r="II88" s="20"/>
+      <c r="IJ88" s="20"/>
+      <c r="IK88" s="20"/>
+      <c r="IL88" s="20"/>
+      <c r="IM88" s="20"/>
+      <c r="IN88" s="20"/>
+      <c r="IO88" s="20"/>
+      <c r="IP88" s="20"/>
+      <c r="IQ88" s="20"/>
+      <c r="IR88" s="20"/>
+      <c r="IS88" s="20"/>
+    </row>
+    <row r="89" spans="1:253" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="14" t="str">
+        <f t="shared" si="114"/>
+        <v>진행 전</v>
+      </c>
+      <c r="G89" s="22">
+        <v>45063</v>
+      </c>
+      <c r="H89" s="22">
+        <v>45101</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="111"/>
+        <v>28</v>
+      </c>
+      <c r="J89" s="16">
+        <f t="shared" si="112"/>
+        <v>38</v>
+      </c>
+      <c r="K89" s="17">
+        <f>IF(L89=0,G89-1,G89+(INT(J89*L89)))</f>
+        <v>45062</v>
+      </c>
+      <c r="L89" s="18">
+        <v>0</v>
+      </c>
+      <c r="M89" s="19"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="20"/>
+      <c r="W89" s="20"/>
+      <c r="X89" s="20"/>
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="20"/>
+      <c r="AA89" s="20"/>
+      <c r="AB89" s="20"/>
+      <c r="AC89" s="20"/>
+      <c r="AD89" s="20"/>
+      <c r="AE89" s="20"/>
+      <c r="AF89" s="20"/>
+      <c r="AG89" s="20"/>
+      <c r="AH89" s="20"/>
+      <c r="AI89" s="24"/>
+      <c r="AJ89" s="24"/>
+      <c r="AK89" s="24"/>
+      <c r="AL89" s="24"/>
+      <c r="AM89" s="20"/>
+      <c r="AN89" s="20"/>
+      <c r="AO89" s="20"/>
+      <c r="AP89" s="20"/>
+      <c r="AQ89" s="20"/>
+      <c r="AR89" s="20"/>
+      <c r="AS89" s="20"/>
+      <c r="AT89" s="20"/>
+      <c r="AU89" s="20"/>
+      <c r="AV89" s="20"/>
+      <c r="AW89" s="20"/>
+      <c r="AX89" s="20"/>
+      <c r="AY89" s="20"/>
+      <c r="AZ89" s="20"/>
+      <c r="BA89" s="20"/>
+      <c r="BB89" s="20"/>
+      <c r="BC89" s="20"/>
+      <c r="BD89" s="20"/>
+      <c r="BE89" s="20"/>
+      <c r="BF89" s="20"/>
+      <c r="BG89" s="20"/>
+      <c r="BH89" s="20"/>
+      <c r="BI89" s="20"/>
+      <c r="BJ89" s="20"/>
+      <c r="BK89" s="20"/>
+      <c r="BL89" s="20"/>
+      <c r="BM89" s="20"/>
+      <c r="BN89" s="20"/>
+      <c r="BO89" s="20"/>
+      <c r="BP89" s="20"/>
+      <c r="BQ89" s="20"/>
+      <c r="BR89" s="20"/>
+      <c r="BS89" s="20"/>
+      <c r="BT89" s="20"/>
+      <c r="BU89" s="20"/>
+      <c r="BV89" s="20"/>
+      <c r="BW89" s="20"/>
+      <c r="BX89" s="20"/>
+      <c r="BY89" s="20"/>
+      <c r="BZ89" s="20"/>
+      <c r="CA89" s="20"/>
+      <c r="CB89" s="20"/>
+      <c r="CC89" s="20"/>
+      <c r="CD89" s="20"/>
+      <c r="CE89" s="20"/>
+      <c r="CF89" s="20"/>
+      <c r="CG89" s="20"/>
+      <c r="CH89" s="20"/>
+      <c r="CI89" s="20"/>
+      <c r="CJ89" s="20"/>
+      <c r="CK89" s="20"/>
+      <c r="CL89" s="20"/>
+      <c r="CM89" s="20"/>
+      <c r="CN89" s="20"/>
+      <c r="CO89" s="20"/>
+      <c r="CP89" s="20"/>
+      <c r="CQ89" s="20"/>
+      <c r="CR89" s="20"/>
+      <c r="CS89" s="20"/>
+      <c r="CT89" s="20"/>
+      <c r="CU89" s="20"/>
+      <c r="CV89" s="20"/>
+      <c r="CW89" s="20"/>
+      <c r="CX89" s="20"/>
+      <c r="CY89" s="20"/>
+      <c r="CZ89" s="20"/>
+      <c r="DA89" s="20"/>
+      <c r="DB89" s="20"/>
+      <c r="DC89" s="20"/>
+      <c r="DD89" s="20"/>
+      <c r="DE89" s="20"/>
+      <c r="DF89" s="20"/>
+      <c r="DG89" s="20"/>
+      <c r="DH89" s="20"/>
+      <c r="DI89" s="20"/>
+      <c r="DJ89" s="20"/>
+      <c r="DK89" s="20"/>
+      <c r="DL89" s="20"/>
+      <c r="DM89" s="20"/>
+      <c r="DN89" s="20"/>
+      <c r="DO89" s="20"/>
+      <c r="DP89" s="20"/>
+      <c r="DQ89" s="20"/>
+      <c r="DR89" s="20"/>
+      <c r="DS89" s="20"/>
+      <c r="DT89" s="20"/>
+      <c r="DU89" s="20"/>
+      <c r="DV89" s="20"/>
+      <c r="DW89" s="20"/>
+      <c r="DX89" s="20"/>
+      <c r="DY89" s="20"/>
+      <c r="DZ89" s="20"/>
+      <c r="EA89" s="20"/>
+      <c r="EB89" s="20"/>
+      <c r="EC89" s="20"/>
+      <c r="ED89" s="20"/>
+      <c r="EE89" s="20"/>
+      <c r="EF89" s="20"/>
+      <c r="EG89" s="20"/>
+      <c r="EH89" s="20"/>
+      <c r="EI89" s="20"/>
+      <c r="EJ89" s="20"/>
+      <c r="EK89" s="20"/>
+      <c r="EL89" s="20"/>
+      <c r="EM89" s="20"/>
+      <c r="EN89" s="20"/>
+      <c r="EO89" s="20"/>
+      <c r="EP89" s="20"/>
+      <c r="EQ89" s="20"/>
+      <c r="ER89" s="20"/>
+      <c r="ES89" s="20"/>
+      <c r="ET89" s="20"/>
+      <c r="EU89" s="20"/>
+      <c r="EV89" s="20"/>
+      <c r="EW89" s="20"/>
+      <c r="EX89" s="20"/>
+      <c r="EY89" s="20"/>
+      <c r="EZ89" s="20"/>
+      <c r="FA89" s="20"/>
+      <c r="FB89" s="20"/>
+      <c r="FC89" s="20"/>
+      <c r="FD89" s="20"/>
+      <c r="FE89" s="20"/>
+      <c r="FF89" s="20"/>
+      <c r="FG89" s="20"/>
+      <c r="FH89" s="20"/>
+      <c r="FI89" s="20"/>
+      <c r="FJ89" s="20"/>
+      <c r="FK89" s="20"/>
+      <c r="FL89" s="20"/>
+      <c r="FM89" s="20"/>
+      <c r="FN89" s="20"/>
+      <c r="FO89" s="20"/>
+      <c r="FP89" s="20"/>
+      <c r="FQ89" s="20"/>
+      <c r="FR89" s="20"/>
+      <c r="FS89" s="20"/>
+      <c r="FT89" s="20"/>
+      <c r="FU89" s="20"/>
+      <c r="FV89" s="20"/>
+      <c r="FW89" s="20"/>
+      <c r="FX89" s="20"/>
+      <c r="FY89" s="20"/>
+      <c r="FZ89" s="20"/>
+      <c r="GA89" s="20"/>
+      <c r="GB89" s="20"/>
+      <c r="GC89" s="20"/>
+      <c r="GD89" s="20"/>
+      <c r="GE89" s="20"/>
+      <c r="GF89" s="20"/>
+      <c r="GG89" s="20"/>
+      <c r="GH89" s="20"/>
+      <c r="GI89" s="20"/>
+      <c r="GJ89" s="20"/>
+      <c r="GK89" s="20"/>
+      <c r="GL89" s="20"/>
+      <c r="GM89" s="20"/>
+      <c r="GN89" s="20"/>
+      <c r="GO89" s="20"/>
+      <c r="GP89" s="20"/>
+      <c r="GQ89" s="20"/>
+      <c r="GR89" s="20"/>
+      <c r="GS89" s="20"/>
+      <c r="GT89" s="20"/>
+      <c r="GU89" s="20"/>
+      <c r="GV89" s="20"/>
+      <c r="GW89" s="20"/>
+      <c r="GX89" s="20"/>
+      <c r="GY89" s="20"/>
+      <c r="GZ89" s="20"/>
+      <c r="HA89" s="20"/>
+      <c r="HB89" s="20"/>
+      <c r="HC89" s="20"/>
+      <c r="HD89" s="20"/>
+      <c r="HE89" s="20"/>
+      <c r="HF89" s="20"/>
+      <c r="HG89" s="20"/>
+      <c r="HH89" s="20"/>
+      <c r="HI89" s="20"/>
+      <c r="HJ89" s="20"/>
+      <c r="HK89" s="20"/>
+      <c r="HL89" s="20"/>
+      <c r="HM89" s="20"/>
+      <c r="HN89" s="20"/>
+      <c r="HO89" s="20"/>
+      <c r="HP89" s="20"/>
+      <c r="HQ89" s="20"/>
+      <c r="HR89" s="20"/>
+      <c r="HS89" s="20"/>
+      <c r="HT89" s="20"/>
+      <c r="HU89" s="20"/>
+      <c r="HV89" s="20"/>
+      <c r="HW89" s="20"/>
+      <c r="HX89" s="20"/>
+      <c r="HY89" s="20"/>
+      <c r="HZ89" s="20"/>
+      <c r="IA89" s="20"/>
+      <c r="IB89" s="20"/>
+      <c r="IC89" s="20"/>
+      <c r="ID89" s="20"/>
+      <c r="IE89" s="20"/>
+      <c r="IF89" s="20"/>
+      <c r="IG89" s="20"/>
+      <c r="IH89" s="20"/>
+      <c r="II89" s="20"/>
+      <c r="IJ89" s="20"/>
+      <c r="IK89" s="20"/>
+      <c r="IL89" s="20"/>
+      <c r="IM89" s="20"/>
+      <c r="IN89" s="20"/>
+      <c r="IO89" s="20"/>
+      <c r="IP89" s="20"/>
+      <c r="IQ89" s="20"/>
+      <c r="IR89" s="20"/>
+      <c r="IS89" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="M10 M15:M22 M31:M40 M26:M29 M77:M83">
+  <conditionalFormatting sqref="M10 M15:M22 M31:M40 M26:M29 M79:M85">
     <cfRule type="expression" dxfId="30" priority="50" stopIfTrue="1">
       <formula>AND(M$3&gt;=$G10,M$3&lt;=$K10)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:IS5 Y6:IS6 N7:IS8 O11:T11 W11:IS11 Q9:U9 N9 X9:IS9 N12:IS22 N26:Q29 T26:IS29 N30:U30 N31:R40 X30:IS30 W31:IS40 N76:IS87">
+  <conditionalFormatting sqref="N5:IS5 Y6:IS6 N7:IS8 O11:T11 W11:IS11 Q9:U9 N9 X9:IS9 N12:IS22 N26:Q29 T26:IS29 N30:U30 N31:R40 X30:IS30 W31:IS40 N78:IS89">
     <cfRule type="expression" dxfId="29" priority="51" stopIfTrue="1">
       <formula>AND(N$3&gt;=$G5,N$3&lt;=$K5)</formula>
     </cfRule>
@@ -19056,7 +19189,7 @@
       <formula>AND(N$3&gt;=$G5,N$3&lt;=$H5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:IS4 N10:IS10 N15:IS22 N26:Q29 T26:IS29 N30:U30 N31:R40 X30:IS30 W31:IS40 N77:IS83">
+  <conditionalFormatting sqref="N4:IS4 N10:IS10 N15:IS22 N26:Q29 T26:IS29 N30:U30 N31:R40 X30:IS30 W31:IS40 N79:IS85">
     <cfRule type="expression" dxfId="27" priority="53" stopIfTrue="1">
       <formula>AND(N$3&gt;=$G4,N$3&lt;=$K4)</formula>
     </cfRule>
